--- a/library/export_dv.xlsx
+++ b/library/export_dv.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DILG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C7501A-BA5D-4872-8AD6-78C0B69BBB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="8520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DV" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">DV!$A$1:$AG$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">RCI!$A$1:$J$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -204,16 +213,10 @@
     <t>RESTITUTO B. NAÑEZ III</t>
   </si>
   <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
     <t>Regional Accountant</t>
-  </si>
-  <si>
-    <t>Assistant Regional Director</t>
   </si>
   <si>
     <t>Date</t>
@@ -436,11 +439,17 @@
   <si>
     <t>04/14/2014/22/09</t>
   </si>
+  <si>
+    <t>ARIEL O. IGLESIA, CESO III</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="31">
     <font>
       <sz val="11"/>
@@ -1581,18 +1590,489 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
@@ -1602,486 +2082,27 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2093,18 +2114,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2501,267 +2510,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:AF34"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="W55" sqref="W55:AG56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="88" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="88" customWidth="1"/>
     <col min="2" max="2" width="4" style="88" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="88" customWidth="1"/>
-    <col min="4" max="4" width="1.5546875" style="88" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="2.44140625" style="88" customWidth="1"/>
-    <col min="6" max="17" width="2.88671875" style="88" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" style="88" customWidth="1"/>
-    <col min="19" max="32" width="2.88671875" style="88" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="88" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" style="88" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" style="88" customWidth="1"/>
+    <col min="6" max="17" width="2.85546875" style="88" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="88" customWidth="1"/>
+    <col min="19" max="32" width="2.85546875" style="88" customWidth="1"/>
     <col min="33" max="33" width="4" style="88" customWidth="1"/>
-    <col min="34" max="34" width="0.109375" style="88" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="8.88671875" style="88"/>
+    <col min="34" max="34" width="0.140625" style="88" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="18.75" customHeight="1">
-      <c r="AB1" s="307" t="s">
+      <c r="AB1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="307"/>
-      <c r="AD1" s="307"/>
-      <c r="AE1" s="307"/>
-      <c r="AF1" s="307"/>
-      <c r="AG1" s="307"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
     </row>
     <row r="2" spans="1:41" ht="21" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="309"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="309"/>
-      <c r="Q2" s="309"/>
-      <c r="R2" s="309"/>
-      <c r="S2" s="309"/>
-      <c r="T2" s="309"/>
-      <c r="U2" s="309"/>
-      <c r="V2" s="309"/>
-      <c r="W2" s="309"/>
-      <c r="X2" s="309"/>
-      <c r="Y2" s="309"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="311" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="312"/>
-      <c r="AD2" s="312"/>
-      <c r="AE2" s="312"/>
-      <c r="AF2" s="312"/>
-      <c r="AG2" s="313"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="174"/>
     </row>
     <row r="3" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="315"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="315"/>
-      <c r="Q3" s="315"/>
-      <c r="R3" s="315"/>
-      <c r="S3" s="315"/>
-      <c r="T3" s="315"/>
-      <c r="U3" s="315"/>
-      <c r="V3" s="315"/>
-      <c r="W3" s="315"/>
-      <c r="X3" s="315"/>
-      <c r="Y3" s="315"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="316"/>
-      <c r="AB3" s="317"/>
-      <c r="AC3" s="318"/>
-      <c r="AD3" s="318"/>
-      <c r="AE3" s="318"/>
-      <c r="AF3" s="318"/>
-      <c r="AG3" s="319"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="179"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="179"/>
+      <c r="AG3" s="180"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1">
-      <c r="A4" s="293" t="s">
+      <c r="A4" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="294"/>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
-      <c r="K4" s="294"/>
-      <c r="L4" s="294"/>
-      <c r="M4" s="294"/>
-      <c r="N4" s="294"/>
-      <c r="O4" s="294"/>
-      <c r="P4" s="294"/>
-      <c r="Q4" s="294"/>
-      <c r="R4" s="294"/>
-      <c r="S4" s="294"/>
-      <c r="T4" s="294"/>
-      <c r="U4" s="294"/>
-      <c r="V4" s="294"/>
-      <c r="W4" s="294"/>
-      <c r="X4" s="294"/>
-      <c r="Y4" s="294"/>
-      <c r="Z4" s="294"/>
-      <c r="AA4" s="295"/>
-      <c r="AB4" s="299" t="s">
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="300"/>
-      <c r="AD4" s="300"/>
-      <c r="AE4" s="300"/>
-      <c r="AF4" s="300"/>
-      <c r="AG4" s="301"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="162"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="293"/>
-      <c r="B5" s="294"/>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="294"/>
-      <c r="N5" s="294"/>
-      <c r="O5" s="294"/>
-      <c r="P5" s="294"/>
-      <c r="Q5" s="294"/>
-      <c r="R5" s="294"/>
-      <c r="S5" s="294"/>
-      <c r="T5" s="294"/>
-      <c r="U5" s="294"/>
-      <c r="V5" s="294"/>
-      <c r="W5" s="294"/>
-      <c r="X5" s="294"/>
-      <c r="Y5" s="294"/>
-      <c r="Z5" s="294"/>
-      <c r="AA5" s="295"/>
-      <c r="AB5" s="302" t="s">
+      <c r="A5" s="154"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="156"/>
+      <c r="AB5" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="303"/>
-      <c r="AD5" s="303"/>
-      <c r="AE5" s="303"/>
-      <c r="AF5" s="303"/>
-      <c r="AG5" s="304"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="164"/>
+      <c r="AG5" s="165"/>
     </row>
     <row r="6" spans="1:41" ht="15.6" customHeight="1">
-      <c r="A6" s="296"/>
-      <c r="B6" s="297"/>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="297"/>
-      <c r="H6" s="297"/>
-      <c r="I6" s="297"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="297"/>
-      <c r="L6" s="297"/>
-      <c r="M6" s="297"/>
-      <c r="N6" s="297"/>
-      <c r="O6" s="297"/>
-      <c r="P6" s="297"/>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="297"/>
-      <c r="S6" s="297"/>
-      <c r="T6" s="297"/>
-      <c r="U6" s="297"/>
-      <c r="V6" s="297"/>
-      <c r="W6" s="297"/>
-      <c r="X6" s="297"/>
-      <c r="Y6" s="297"/>
-      <c r="Z6" s="297"/>
-      <c r="AA6" s="298"/>
-      <c r="AB6" s="305"/>
-      <c r="AC6" s="305"/>
-      <c r="AD6" s="305"/>
-      <c r="AE6" s="305"/>
-      <c r="AF6" s="305"/>
-      <c r="AG6" s="306"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="158"/>
+      <c r="S6" s="158"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="166"/>
+      <c r="AC6" s="166"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="166"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="167"/>
     </row>
     <row r="7" spans="1:41" s="84" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A7" s="276" t="s">
+      <c r="A7" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="277"/>
-      <c r="C7" s="278"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="183"/>
       <c r="D7" s="90"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="167"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="167"/>
-      <c r="AF7" s="167"/>
-      <c r="AG7" s="168"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="200"/>
+      <c r="AG7" s="201"/>
       <c r="AH7" s="87"/>
     </row>
     <row r="8" spans="1:41" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="279"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="281"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="186"/>
       <c r="D8" s="88"/>
       <c r="E8" s="92"/>
       <c r="F8" s="93"/>
@@ -2800,26 +2809,26 @@
       <c r="AH8" s="87"/>
     </row>
     <row r="9" spans="1:41" s="84" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="282"/>
-      <c r="B9" s="283"/>
-      <c r="C9" s="284"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="189"/>
       <c r="D9" s="89"/>
       <c r="E9" s="96"/>
       <c r="F9" s="97"/>
       <c r="G9" s="97"/>
       <c r="H9" s="97"/>
       <c r="I9" s="89"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
       <c r="N9" s="97"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
       <c r="U9" s="93"/>
       <c r="V9" s="93"/>
       <c r="W9" s="93"/>
@@ -2836,108 +2845,108 @@
       <c r="AH9" s="87"/>
     </row>
     <row r="10" spans="1:41" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="276" t="s">
+      <c r="A10" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="277"/>
-      <c r="C10" s="278"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
       <c r="D10" s="99"/>
-      <c r="E10" s="288" t="s">
+      <c r="E10" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="289"/>
-      <c r="L10" s="289"/>
-      <c r="M10" s="289"/>
-      <c r="N10" s="289"/>
-      <c r="O10" s="289"/>
-      <c r="P10" s="289"/>
-      <c r="Q10" s="289"/>
-      <c r="R10" s="289"/>
-      <c r="S10" s="285" t="s">
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
+      <c r="N10" s="196"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="196"/>
+      <c r="R10" s="196"/>
+      <c r="S10" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="286"/>
-      <c r="U10" s="286"/>
-      <c r="V10" s="286"/>
-      <c r="W10" s="286"/>
-      <c r="X10" s="286"/>
-      <c r="Y10" s="286"/>
-      <c r="Z10" s="286"/>
-      <c r="AA10" s="287"/>
-      <c r="AB10" s="250" t="s">
+      <c r="T10" s="191"/>
+      <c r="U10" s="191"/>
+      <c r="V10" s="191"/>
+      <c r="W10" s="191"/>
+      <c r="X10" s="191"/>
+      <c r="Y10" s="191"/>
+      <c r="Z10" s="191"/>
+      <c r="AA10" s="192"/>
+      <c r="AB10" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="250"/>
-      <c r="AD10" s="250"/>
-      <c r="AE10" s="250"/>
-      <c r="AF10" s="250"/>
-      <c r="AG10" s="251"/>
+      <c r="AC10" s="221"/>
+      <c r="AD10" s="221"/>
+      <c r="AE10" s="221"/>
+      <c r="AF10" s="221"/>
+      <c r="AG10" s="222"/>
       <c r="AH10" s="86"/>
     </row>
     <row r="11" spans="1:41" s="84" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="279"/>
-      <c r="B11" s="280"/>
-      <c r="C11" s="281"/>
+      <c r="A11" s="184"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="291"/>
-      <c r="G11" s="291"/>
-      <c r="H11" s="291"/>
-      <c r="I11" s="291"/>
-      <c r="J11" s="291"/>
-      <c r="K11" s="291"/>
-      <c r="L11" s="291"/>
-      <c r="M11" s="291"/>
-      <c r="N11" s="291"/>
-      <c r="O11" s="291"/>
-      <c r="P11" s="291"/>
-      <c r="Q11" s="291"/>
-      <c r="R11" s="291"/>
-      <c r="S11" s="252"/>
-      <c r="T11" s="253"/>
-      <c r="U11" s="253"/>
-      <c r="V11" s="253"/>
-      <c r="W11" s="253"/>
-      <c r="X11" s="253"/>
-      <c r="Y11" s="253"/>
-      <c r="Z11" s="253"/>
-      <c r="AA11" s="254"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="154"/>
-      <c r="AE11" s="154"/>
-      <c r="AF11" s="154"/>
-      <c r="AG11" s="155"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="198"/>
+      <c r="N11" s="198"/>
+      <c r="O11" s="198"/>
+      <c r="P11" s="198"/>
+      <c r="Q11" s="198"/>
+      <c r="R11" s="198"/>
+      <c r="S11" s="223"/>
+      <c r="T11" s="224"/>
+      <c r="U11" s="224"/>
+      <c r="V11" s="224"/>
+      <c r="W11" s="224"/>
+      <c r="X11" s="224"/>
+      <c r="Y11" s="224"/>
+      <c r="Z11" s="224"/>
+      <c r="AA11" s="225"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="194"/>
+      <c r="AF11" s="194"/>
+      <c r="AG11" s="226"/>
       <c r="AH11" s="87"/>
     </row>
     <row r="12" spans="1:41" s="84" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="244" t="s">
+      <c r="A12" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="245"/>
-      <c r="C12" s="246"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="88"/>
-      <c r="E12" s="262" t="s">
+      <c r="E12" s="234" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="263"/>
-      <c r="G12" s="263"/>
-      <c r="H12" s="263"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="263"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="263"/>
-      <c r="R12" s="263"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="235"/>
+      <c r="Q12" s="235"/>
+      <c r="R12" s="235"/>
       <c r="S12" s="91"/>
       <c r="T12" s="91"/>
       <c r="U12" s="91"/>
@@ -2957,24 +2966,24 @@
       <c r="AO12" s="152"/>
     </row>
     <row r="13" spans="1:41" s="84" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="247"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
+      <c r="A13" s="218"/>
+      <c r="B13" s="219"/>
+      <c r="C13" s="220"/>
       <c r="D13" s="89"/>
-      <c r="E13" s="264"/>
-      <c r="F13" s="265"/>
-      <c r="G13" s="265"/>
-      <c r="H13" s="265"/>
-      <c r="I13" s="265"/>
-      <c r="J13" s="265"/>
-      <c r="K13" s="265"/>
-      <c r="L13" s="265"/>
-      <c r="M13" s="265"/>
-      <c r="N13" s="265"/>
-      <c r="O13" s="265"/>
-      <c r="P13" s="265"/>
-      <c r="Q13" s="265"/>
-      <c r="R13" s="265"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="237"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="237"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="237"/>
+      <c r="P13" s="237"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="237"/>
       <c r="S13" s="97"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97"/>
@@ -2992,69 +3001,69 @@
       <c r="AG13" s="98"/>
       <c r="AH13" s="100"/>
     </row>
-    <row r="14" spans="1:41" s="102" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A14" s="255" t="s">
+    <row r="14" spans="1:41" s="102" customFormat="1" ht="28.15" customHeight="1">
+      <c r="A14" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="256"/>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="258" t="s">
+      <c r="B14" s="228"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="228"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="228"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="228"/>
+      <c r="J14" s="228"/>
+      <c r="K14" s="228"/>
+      <c r="L14" s="228"/>
+      <c r="M14" s="228"/>
+      <c r="N14" s="228"/>
+      <c r="O14" s="228"/>
+      <c r="P14" s="228"/>
+      <c r="Q14" s="229"/>
+      <c r="R14" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="259"/>
-      <c r="T14" s="259"/>
-      <c r="U14" s="259"/>
-      <c r="V14" s="260"/>
-      <c r="W14" s="258" t="s">
+      <c r="S14" s="231"/>
+      <c r="T14" s="231"/>
+      <c r="U14" s="231"/>
+      <c r="V14" s="232"/>
+      <c r="W14" s="230" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="256"/>
-      <c r="Y14" s="256"/>
-      <c r="Z14" s="256"/>
-      <c r="AA14" s="257"/>
-      <c r="AB14" s="258" t="s">
+      <c r="X14" s="228"/>
+      <c r="Y14" s="228"/>
+      <c r="Z14" s="228"/>
+      <c r="AA14" s="229"/>
+      <c r="AB14" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="AC14" s="256"/>
-      <c r="AD14" s="256"/>
-      <c r="AE14" s="256"/>
-      <c r="AF14" s="256"/>
-      <c r="AG14" s="261"/>
+      <c r="AC14" s="228"/>
+      <c r="AD14" s="228"/>
+      <c r="AE14" s="228"/>
+      <c r="AF14" s="228"/>
+      <c r="AG14" s="233"/>
       <c r="AH14" s="101"/>
     </row>
-    <row r="15" spans="1:41" s="84" customFormat="1" ht="14.4" customHeight="1">
+    <row r="15" spans="1:41" s="84" customFormat="1" ht="14.45" customHeight="1">
       <c r="A15" s="103"/>
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="266"/>
-      <c r="D15" s="266"/>
-      <c r="E15" s="266"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="266"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="266"/>
-      <c r="K15" s="266"/>
-      <c r="L15" s="266"/>
-      <c r="M15" s="266"/>
-      <c r="N15" s="266"/>
-      <c r="O15" s="266"/>
-      <c r="P15" s="266"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="202"/>
+      <c r="N15" s="202"/>
+      <c r="O15" s="202"/>
+      <c r="P15" s="202"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="24"/>
       <c r="S15"/>
@@ -3066,33 +3075,33 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15" s="25"/>
-      <c r="AB15" s="267"/>
-      <c r="AC15" s="268"/>
-      <c r="AD15" s="268"/>
-      <c r="AE15" s="268"/>
-      <c r="AF15" s="268"/>
-      <c r="AG15" s="269"/>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="204"/>
+      <c r="AD15" s="204"/>
+      <c r="AE15" s="204"/>
+      <c r="AF15" s="204"/>
+      <c r="AG15" s="205"/>
       <c r="AH15" s="87"/>
     </row>
     <row r="16" spans="1:41" s="84" customFormat="1" ht="78" customHeight="1">
       <c r="A16" s="103"/>
-      <c r="B16" s="266" t="s">
+      <c r="B16" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="266"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="266"/>
-      <c r="L16" s="266"/>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="266"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="202"/>
+      <c r="N16" s="202"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="202"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="24"/>
       <c r="S16"/>
@@ -3568,23 +3577,23 @@
     </row>
     <row r="29" spans="1:35" s="84" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="103"/>
-      <c r="B29" s="266" t="s">
+      <c r="B29" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="266"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="266"/>
-      <c r="F29" s="266"/>
-      <c r="G29" s="266"/>
-      <c r="H29" s="266"/>
-      <c r="I29" s="266"/>
-      <c r="J29" s="266"/>
-      <c r="K29" s="266"/>
-      <c r="L29" s="266"/>
-      <c r="M29" s="266"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
-      <c r="P29" s="266"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="202"/>
+      <c r="J29" s="202"/>
+      <c r="K29" s="202"/>
+      <c r="L29" s="202"/>
+      <c r="M29" s="202"/>
+      <c r="N29" s="202"/>
+      <c r="O29" s="202"/>
+      <c r="P29" s="202"/>
       <c r="Q29" s="25"/>
       <c r="R29" s="24"/>
       <c r="S29"/>
@@ -3605,25 +3614,25 @@
       <c r="AH29" s="87"/>
     </row>
     <row r="30" spans="1:35" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="273" t="s">
+      <c r="A30" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="274"/>
-      <c r="C30" s="274"/>
-      <c r="D30" s="274"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="274"/>
-      <c r="I30" s="274"/>
-      <c r="J30" s="274"/>
-      <c r="K30" s="274"/>
-      <c r="L30" s="274"/>
-      <c r="M30" s="274"/>
-      <c r="N30" s="274"/>
-      <c r="O30" s="274"/>
-      <c r="P30" s="274"/>
-      <c r="Q30" s="275"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="210"/>
+      <c r="J30" s="210"/>
+      <c r="K30" s="210"/>
+      <c r="L30" s="210"/>
+      <c r="M30" s="210"/>
+      <c r="N30" s="210"/>
+      <c r="O30" s="210"/>
+      <c r="P30" s="210"/>
+      <c r="Q30" s="211"/>
       <c r="R30" s="104"/>
       <c r="S30" s="105"/>
       <c r="T30" s="105"/>
@@ -3634,56 +3643,56 @@
       <c r="Y30" s="105"/>
       <c r="Z30" s="105"/>
       <c r="AA30" s="25"/>
-      <c r="AB30" s="270">
+      <c r="AB30" s="206">
         <f>SUM(AB15:AG29)</f>
         <v>0</v>
       </c>
-      <c r="AC30" s="271"/>
-      <c r="AD30" s="271"/>
-      <c r="AE30" s="271"/>
-      <c r="AF30" s="271"/>
-      <c r="AG30" s="272"/>
+      <c r="AC30" s="207"/>
+      <c r="AD30" s="207"/>
+      <c r="AE30" s="207"/>
+      <c r="AF30" s="207"/>
+      <c r="AG30" s="208"/>
       <c r="AH30" s="87"/>
       <c r="AI30" s="107"/>
     </row>
-    <row r="31" spans="1:35" s="84" customFormat="1" ht="13.95" customHeight="1">
+    <row r="31" spans="1:35" s="84" customFormat="1" ht="13.9" customHeight="1">
       <c r="A31" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="241" t="s">
+      <c r="B31" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="241"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="241"/>
-      <c r="L31" s="241"/>
-      <c r="M31" s="241"/>
-      <c r="N31" s="241"/>
-      <c r="O31" s="241"/>
-      <c r="P31" s="241"/>
-      <c r="Q31" s="241"/>
-      <c r="R31" s="241"/>
-      <c r="S31" s="241"/>
-      <c r="T31" s="241"/>
-      <c r="U31" s="241"/>
-      <c r="V31" s="241"/>
-      <c r="W31" s="241"/>
-      <c r="X31" s="241"/>
-      <c r="Y31" s="241"/>
-      <c r="Z31" s="241"/>
-      <c r="AA31" s="241"/>
-      <c r="AB31" s="242"/>
-      <c r="AC31" s="242"/>
-      <c r="AD31" s="242"/>
-      <c r="AE31" s="242"/>
-      <c r="AF31" s="242"/>
-      <c r="AG31" s="243"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="212"/>
+      <c r="K31" s="212"/>
+      <c r="L31" s="212"/>
+      <c r="M31" s="212"/>
+      <c r="N31" s="212"/>
+      <c r="O31" s="212"/>
+      <c r="P31" s="212"/>
+      <c r="Q31" s="212"/>
+      <c r="R31" s="212"/>
+      <c r="S31" s="212"/>
+      <c r="T31" s="212"/>
+      <c r="U31" s="212"/>
+      <c r="V31" s="212"/>
+      <c r="W31" s="212"/>
+      <c r="X31" s="212"/>
+      <c r="Y31" s="212"/>
+      <c r="Z31" s="212"/>
+      <c r="AA31" s="212"/>
+      <c r="AB31" s="213"/>
+      <c r="AC31" s="213"/>
+      <c r="AD31" s="213"/>
+      <c r="AE31" s="213"/>
+      <c r="AF31" s="213"/>
+      <c r="AG31" s="214"/>
       <c r="AH31" s="87"/>
       <c r="AI31" s="107"/>
     </row>
@@ -3728,78 +3737,78 @@
     </row>
     <row r="33" spans="1:35" s="84" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="109"/>
-      <c r="B33" s="232" t="s">
+      <c r="B33" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="233"/>
-      <c r="D33" s="233"/>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
-      <c r="G33" s="233"/>
-      <c r="H33" s="233"/>
-      <c r="I33" s="233"/>
-      <c r="J33" s="233"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="233"/>
-      <c r="M33" s="233"/>
-      <c r="N33" s="233"/>
-      <c r="O33" s="233"/>
-      <c r="P33" s="233"/>
-      <c r="Q33" s="233"/>
-      <c r="R33" s="233"/>
-      <c r="S33" s="233"/>
-      <c r="T33" s="233"/>
-      <c r="U33" s="233"/>
-      <c r="V33" s="233"/>
-      <c r="W33" s="233"/>
-      <c r="X33" s="233"/>
-      <c r="Y33" s="233"/>
-      <c r="Z33" s="233"/>
-      <c r="AA33" s="233"/>
-      <c r="AB33" s="233"/>
-      <c r="AC33" s="233"/>
-      <c r="AD33" s="233"/>
-      <c r="AE33" s="233"/>
-      <c r="AF33" s="233"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="239"/>
+      <c r="E33" s="239"/>
+      <c r="F33" s="239"/>
+      <c r="G33" s="239"/>
+      <c r="H33" s="239"/>
+      <c r="I33" s="239"/>
+      <c r="J33" s="239"/>
+      <c r="K33" s="239"/>
+      <c r="L33" s="239"/>
+      <c r="M33" s="239"/>
+      <c r="N33" s="239"/>
+      <c r="O33" s="239"/>
+      <c r="P33" s="239"/>
+      <c r="Q33" s="239"/>
+      <c r="R33" s="239"/>
+      <c r="S33" s="239"/>
+      <c r="T33" s="239"/>
+      <c r="U33" s="239"/>
+      <c r="V33" s="239"/>
+      <c r="W33" s="239"/>
+      <c r="X33" s="239"/>
+      <c r="Y33" s="239"/>
+      <c r="Z33" s="239"/>
+      <c r="AA33" s="239"/>
+      <c r="AB33" s="239"/>
+      <c r="AC33" s="239"/>
+      <c r="AD33" s="239"/>
+      <c r="AE33" s="239"/>
+      <c r="AF33" s="239"/>
       <c r="AG33" s="113"/>
       <c r="AH33" s="87"/>
       <c r="AI33" s="107"/>
     </row>
     <row r="34" spans="1:35" s="84" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="109"/>
-      <c r="B34" s="234" t="s">
+      <c r="B34" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="234"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="234"/>
-      <c r="M34" s="234"/>
-      <c r="N34" s="234"/>
-      <c r="O34" s="234"/>
-      <c r="P34" s="234"/>
-      <c r="Q34" s="234"/>
-      <c r="R34" s="234"/>
-      <c r="S34" s="234"/>
-      <c r="T34" s="234"/>
-      <c r="U34" s="234"/>
-      <c r="V34" s="234"/>
-      <c r="W34" s="234"/>
-      <c r="X34" s="234"/>
-      <c r="Y34" s="234"/>
-      <c r="Z34" s="234"/>
-      <c r="AA34" s="234"/>
-      <c r="AB34" s="234"/>
-      <c r="AC34" s="234"/>
-      <c r="AD34" s="234"/>
-      <c r="AE34" s="234"/>
-      <c r="AF34" s="234"/>
+      <c r="C34" s="240"/>
+      <c r="D34" s="240"/>
+      <c r="E34" s="240"/>
+      <c r="F34" s="240"/>
+      <c r="G34" s="240"/>
+      <c r="H34" s="240"/>
+      <c r="I34" s="240"/>
+      <c r="J34" s="240"/>
+      <c r="K34" s="240"/>
+      <c r="L34" s="240"/>
+      <c r="M34" s="240"/>
+      <c r="N34" s="240"/>
+      <c r="O34" s="240"/>
+      <c r="P34" s="240"/>
+      <c r="Q34" s="240"/>
+      <c r="R34" s="240"/>
+      <c r="S34" s="240"/>
+      <c r="T34" s="240"/>
+      <c r="U34" s="240"/>
+      <c r="V34" s="240"/>
+      <c r="W34" s="240"/>
+      <c r="X34" s="240"/>
+      <c r="Y34" s="240"/>
+      <c r="Z34" s="240"/>
+      <c r="AA34" s="240"/>
+      <c r="AB34" s="240"/>
+      <c r="AC34" s="240"/>
+      <c r="AD34" s="240"/>
+      <c r="AE34" s="240"/>
+      <c r="AF34" s="240"/>
       <c r="AG34" s="113"/>
       <c r="AH34" s="87"/>
       <c r="AI34" s="107"/>
@@ -3816,19 +3825,19 @@
       <c r="I35" s="88"/>
       <c r="J35" s="88"/>
       <c r="K35" s="88"/>
-      <c r="L35" s="235"/>
-      <c r="M35" s="235"/>
-      <c r="N35" s="235"/>
-      <c r="O35" s="235"/>
-      <c r="P35" s="235"/>
-      <c r="Q35" s="235"/>
-      <c r="R35" s="235"/>
-      <c r="S35" s="235"/>
-      <c r="T35" s="235"/>
-      <c r="U35" s="235"/>
-      <c r="V35" s="235"/>
-      <c r="W35" s="235"/>
-      <c r="X35" s="235"/>
+      <c r="L35" s="241"/>
+      <c r="M35" s="241"/>
+      <c r="N35" s="241"/>
+      <c r="O35" s="241"/>
+      <c r="P35" s="241"/>
+      <c r="Q35" s="241"/>
+      <c r="R35" s="241"/>
+      <c r="S35" s="241"/>
+      <c r="T35" s="241"/>
+      <c r="U35" s="241"/>
+      <c r="V35" s="241"/>
+      <c r="W35" s="241"/>
+      <c r="X35" s="241"/>
       <c r="Y35" s="93"/>
       <c r="Z35" s="111"/>
       <c r="AA35" s="111"/>
@@ -3853,19 +3862,19 @@
       <c r="I36" s="88"/>
       <c r="J36" s="88"/>
       <c r="K36" s="88"/>
-      <c r="L36" s="235"/>
-      <c r="M36" s="235"/>
-      <c r="N36" s="235"/>
-      <c r="O36" s="235"/>
-      <c r="P36" s="235"/>
-      <c r="Q36" s="235"/>
-      <c r="R36" s="235"/>
-      <c r="S36" s="235"/>
-      <c r="T36" s="235"/>
-      <c r="U36" s="235"/>
-      <c r="V36" s="235"/>
-      <c r="W36" s="235"/>
-      <c r="X36" s="235"/>
+      <c r="L36" s="241"/>
+      <c r="M36" s="241"/>
+      <c r="N36" s="241"/>
+      <c r="O36" s="241"/>
+      <c r="P36" s="241"/>
+      <c r="Q36" s="241"/>
+      <c r="R36" s="241"/>
+      <c r="S36" s="241"/>
+      <c r="T36" s="241"/>
+      <c r="U36" s="241"/>
+      <c r="V36" s="241"/>
+      <c r="W36" s="241"/>
+      <c r="X36" s="241"/>
       <c r="Y36" s="88"/>
       <c r="Z36" s="88"/>
       <c r="AA36" s="88"/>
@@ -3920,47 +3929,47 @@
       <c r="AI37" s="107"/>
     </row>
     <row r="38" spans="1:35" s="84" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="236" t="s">
+      <c r="A38" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="237"/>
-      <c r="C38" s="237"/>
-      <c r="D38" s="237"/>
-      <c r="E38" s="237"/>
-      <c r="F38" s="237"/>
-      <c r="G38" s="237"/>
-      <c r="H38" s="237"/>
-      <c r="I38" s="237"/>
-      <c r="J38" s="237"/>
-      <c r="K38" s="237"/>
-      <c r="L38" s="237"/>
-      <c r="M38" s="237"/>
-      <c r="N38" s="237"/>
-      <c r="O38" s="237"/>
-      <c r="P38" s="237"/>
-      <c r="Q38" s="237"/>
-      <c r="R38" s="237"/>
-      <c r="S38" s="237" t="s">
+      <c r="B38" s="243"/>
+      <c r="C38" s="243"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="243"/>
+      <c r="F38" s="243"/>
+      <c r="G38" s="243"/>
+      <c r="H38" s="243"/>
+      <c r="I38" s="243"/>
+      <c r="J38" s="243"/>
+      <c r="K38" s="243"/>
+      <c r="L38" s="243"/>
+      <c r="M38" s="243"/>
+      <c r="N38" s="243"/>
+      <c r="O38" s="243"/>
+      <c r="P38" s="243"/>
+      <c r="Q38" s="243"/>
+      <c r="R38" s="243"/>
+      <c r="S38" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="T38" s="237"/>
-      <c r="U38" s="237"/>
-      <c r="V38" s="237"/>
-      <c r="W38" s="237"/>
-      <c r="X38" s="238" t="s">
+      <c r="T38" s="243"/>
+      <c r="U38" s="243"/>
+      <c r="V38" s="243"/>
+      <c r="W38" s="243"/>
+      <c r="X38" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="Y38" s="238"/>
-      <c r="Z38" s="238"/>
-      <c r="AA38" s="238"/>
-      <c r="AB38" s="238"/>
-      <c r="AC38" s="239" t="s">
+      <c r="Y38" s="244"/>
+      <c r="Z38" s="244"/>
+      <c r="AA38" s="244"/>
+      <c r="AB38" s="244"/>
+      <c r="AC38" s="245" t="s">
         <v>47</v>
       </c>
-      <c r="AD38" s="239"/>
-      <c r="AE38" s="239"/>
-      <c r="AF38" s="239"/>
-      <c r="AG38" s="240"/>
+      <c r="AD38" s="245"/>
+      <c r="AE38" s="245"/>
+      <c r="AF38" s="245"/>
+      <c r="AG38" s="246"/>
       <c r="AH38" s="87"/>
       <c r="AI38" s="107"/>
     </row>
@@ -4099,19 +4108,19 @@
       <c r="S42" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="T42" s="221" t="s">
+      <c r="T42" s="247" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="221"/>
-      <c r="V42" s="221"/>
-      <c r="W42" s="221"/>
-      <c r="X42" s="221"/>
-      <c r="Y42" s="221"/>
-      <c r="Z42" s="221"/>
-      <c r="AA42" s="221"/>
-      <c r="AB42" s="221"/>
-      <c r="AC42" s="221"/>
-      <c r="AD42" s="221"/>
+      <c r="U42" s="247"/>
+      <c r="V42" s="247"/>
+      <c r="W42" s="247"/>
+      <c r="X42" s="247"/>
+      <c r="Y42" s="247"/>
+      <c r="Z42" s="247"/>
+      <c r="AA42" s="247"/>
+      <c r="AB42" s="247"/>
+      <c r="AC42" s="247"/>
+      <c r="AD42" s="247"/>
       <c r="AE42" s="134"/>
       <c r="AF42" s="134"/>
       <c r="AG42" s="135"/>
@@ -4138,31 +4147,31 @@
       <c r="P43" s="88"/>
       <c r="Q43" s="88"/>
       <c r="R43" s="115"/>
-      <c r="S43" s="222"/>
-      <c r="T43" s="223"/>
-      <c r="U43" s="223"/>
-      <c r="V43" s="223"/>
-      <c r="W43" s="223"/>
-      <c r="X43" s="223"/>
-      <c r="Y43" s="223"/>
-      <c r="Z43" s="223"/>
-      <c r="AA43" s="223"/>
-      <c r="AB43" s="223"/>
-      <c r="AC43" s="223"/>
-      <c r="AD43" s="223"/>
-      <c r="AE43" s="223"/>
-      <c r="AF43" s="223"/>
-      <c r="AG43" s="224"/>
+      <c r="S43" s="248"/>
+      <c r="T43" s="249"/>
+      <c r="U43" s="249"/>
+      <c r="V43" s="249"/>
+      <c r="W43" s="249"/>
+      <c r="X43" s="249"/>
+      <c r="Y43" s="249"/>
+      <c r="Z43" s="249"/>
+      <c r="AA43" s="249"/>
+      <c r="AB43" s="249"/>
+      <c r="AC43" s="249"/>
+      <c r="AD43" s="249"/>
+      <c r="AE43" s="249"/>
+      <c r="AF43" s="249"/>
+      <c r="AG43" s="250"/>
       <c r="AH43" s="87"/>
     </row>
     <row r="44" spans="1:35" s="84" customFormat="1" ht="4.5" customHeight="1">
-      <c r="A44" s="228"/>
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
+      <c r="A44" s="254"/>
+      <c r="B44" s="194"/>
+      <c r="C44" s="194"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
       <c r="H44" s="88"/>
       <c r="I44" s="88"/>
       <c r="J44" s="88"/>
@@ -4174,21 +4183,21 @@
       <c r="P44" s="88"/>
       <c r="Q44" s="88"/>
       <c r="R44" s="115"/>
-      <c r="S44" s="225"/>
-      <c r="T44" s="226"/>
-      <c r="U44" s="226"/>
-      <c r="V44" s="226"/>
-      <c r="W44" s="226"/>
-      <c r="X44" s="226"/>
-      <c r="Y44" s="226"/>
-      <c r="Z44" s="226"/>
-      <c r="AA44" s="226"/>
-      <c r="AB44" s="226"/>
-      <c r="AC44" s="226"/>
-      <c r="AD44" s="226"/>
-      <c r="AE44" s="226"/>
-      <c r="AF44" s="226"/>
-      <c r="AG44" s="227"/>
+      <c r="S44" s="251"/>
+      <c r="T44" s="252"/>
+      <c r="U44" s="252"/>
+      <c r="V44" s="252"/>
+      <c r="W44" s="252"/>
+      <c r="X44" s="252"/>
+      <c r="Y44" s="252"/>
+      <c r="Z44" s="252"/>
+      <c r="AA44" s="252"/>
+      <c r="AB44" s="252"/>
+      <c r="AC44" s="252"/>
+      <c r="AD44" s="252"/>
+      <c r="AE44" s="252"/>
+      <c r="AF44" s="252"/>
+      <c r="AG44" s="253"/>
       <c r="AH44" s="87"/>
     </row>
     <row r="45" spans="1:35" s="84" customFormat="1" ht="11.25" customHeight="1">
@@ -4212,57 +4221,57 @@
       <c r="P45" s="88"/>
       <c r="Q45" s="88"/>
       <c r="R45" s="115"/>
-      <c r="S45" s="225"/>
-      <c r="T45" s="226"/>
-      <c r="U45" s="226"/>
-      <c r="V45" s="226"/>
-      <c r="W45" s="226"/>
-      <c r="X45" s="226"/>
-      <c r="Y45" s="226"/>
-      <c r="Z45" s="226"/>
-      <c r="AA45" s="226"/>
-      <c r="AB45" s="226"/>
-      <c r="AC45" s="226"/>
-      <c r="AD45" s="226"/>
-      <c r="AE45" s="226"/>
-      <c r="AF45" s="226"/>
-      <c r="AG45" s="227"/>
+      <c r="S45" s="251"/>
+      <c r="T45" s="252"/>
+      <c r="U45" s="252"/>
+      <c r="V45" s="252"/>
+      <c r="W45" s="252"/>
+      <c r="X45" s="252"/>
+      <c r="Y45" s="252"/>
+      <c r="Z45" s="252"/>
+      <c r="AA45" s="252"/>
+      <c r="AB45" s="252"/>
+      <c r="AC45" s="252"/>
+      <c r="AD45" s="252"/>
+      <c r="AE45" s="252"/>
+      <c r="AF45" s="252"/>
+      <c r="AG45" s="253"/>
       <c r="AH45" s="87"/>
     </row>
     <row r="46" spans="1:35" s="84" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A46" s="228"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="154"/>
-      <c r="K46" s="154"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="154"/>
-      <c r="N46" s="154"/>
-      <c r="O46" s="154"/>
-      <c r="P46" s="154"/>
-      <c r="Q46" s="154"/>
-      <c r="R46" s="155"/>
-      <c r="S46" s="225"/>
-      <c r="T46" s="226"/>
-      <c r="U46" s="226"/>
-      <c r="V46" s="226"/>
-      <c r="W46" s="226"/>
-      <c r="X46" s="226"/>
-      <c r="Y46" s="226"/>
-      <c r="Z46" s="226"/>
-      <c r="AA46" s="226"/>
-      <c r="AB46" s="226"/>
-      <c r="AC46" s="226"/>
-      <c r="AD46" s="226"/>
-      <c r="AE46" s="226"/>
-      <c r="AF46" s="226"/>
-      <c r="AG46" s="227"/>
+      <c r="A46" s="254"/>
+      <c r="B46" s="194"/>
+      <c r="C46" s="194"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="194"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="194"/>
+      <c r="J46" s="194"/>
+      <c r="K46" s="194"/>
+      <c r="L46" s="194"/>
+      <c r="M46" s="194"/>
+      <c r="N46" s="194"/>
+      <c r="O46" s="194"/>
+      <c r="P46" s="194"/>
+      <c r="Q46" s="194"/>
+      <c r="R46" s="226"/>
+      <c r="S46" s="251"/>
+      <c r="T46" s="252"/>
+      <c r="U46" s="252"/>
+      <c r="V46" s="252"/>
+      <c r="W46" s="252"/>
+      <c r="X46" s="252"/>
+      <c r="Y46" s="252"/>
+      <c r="Z46" s="252"/>
+      <c r="AA46" s="252"/>
+      <c r="AB46" s="252"/>
+      <c r="AC46" s="252"/>
+      <c r="AD46" s="252"/>
+      <c r="AE46" s="252"/>
+      <c r="AF46" s="252"/>
+      <c r="AG46" s="253"/>
       <c r="AH46" s="87"/>
     </row>
     <row r="47" spans="1:35" s="84" customFormat="1" ht="11.25" customHeight="1">
@@ -4288,21 +4297,21 @@
       <c r="P47" s="88"/>
       <c r="Q47" s="88"/>
       <c r="R47" s="115"/>
-      <c r="S47" s="225"/>
-      <c r="T47" s="226"/>
-      <c r="U47" s="226"/>
-      <c r="V47" s="226"/>
-      <c r="W47" s="226"/>
-      <c r="X47" s="226"/>
-      <c r="Y47" s="226"/>
-      <c r="Z47" s="226"/>
-      <c r="AA47" s="226"/>
-      <c r="AB47" s="226"/>
-      <c r="AC47" s="226"/>
-      <c r="AD47" s="226"/>
-      <c r="AE47" s="226"/>
-      <c r="AF47" s="226"/>
-      <c r="AG47" s="227"/>
+      <c r="S47" s="251"/>
+      <c r="T47" s="252"/>
+      <c r="U47" s="252"/>
+      <c r="V47" s="252"/>
+      <c r="W47" s="252"/>
+      <c r="X47" s="252"/>
+      <c r="Y47" s="252"/>
+      <c r="Z47" s="252"/>
+      <c r="AA47" s="252"/>
+      <c r="AB47" s="252"/>
+      <c r="AC47" s="252"/>
+      <c r="AD47" s="252"/>
+      <c r="AE47" s="252"/>
+      <c r="AF47" s="252"/>
+      <c r="AG47" s="253"/>
       <c r="AH47" s="87"/>
     </row>
     <row r="48" spans="1:35" s="84" customFormat="1" ht="11.25" customHeight="1">
@@ -4326,341 +4335,341 @@
       <c r="P48" s="88"/>
       <c r="Q48" s="88"/>
       <c r="R48" s="115"/>
-      <c r="S48" s="225"/>
-      <c r="T48" s="226"/>
-      <c r="U48" s="226"/>
-      <c r="V48" s="226"/>
-      <c r="W48" s="226"/>
-      <c r="X48" s="226"/>
-      <c r="Y48" s="226"/>
-      <c r="Z48" s="226"/>
-      <c r="AA48" s="226"/>
-      <c r="AB48" s="226"/>
-      <c r="AC48" s="226"/>
-      <c r="AD48" s="226"/>
-      <c r="AE48" s="226"/>
-      <c r="AF48" s="226"/>
-      <c r="AG48" s="227"/>
+      <c r="S48" s="251"/>
+      <c r="T48" s="252"/>
+      <c r="U48" s="252"/>
+      <c r="V48" s="252"/>
+      <c r="W48" s="252"/>
+      <c r="X48" s="252"/>
+      <c r="Y48" s="252"/>
+      <c r="Z48" s="252"/>
+      <c r="AA48" s="252"/>
+      <c r="AB48" s="252"/>
+      <c r="AC48" s="252"/>
+      <c r="AD48" s="252"/>
+      <c r="AE48" s="252"/>
+      <c r="AF48" s="252"/>
+      <c r="AG48" s="253"/>
       <c r="AH48" s="87"/>
     </row>
     <row r="49" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="169" t="s">
+      <c r="A49" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="229"/>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
-      <c r="E49" s="172"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="154"/>
-      <c r="K49" s="154"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="154"/>
-      <c r="N49" s="154"/>
-      <c r="O49" s="154"/>
-      <c r="P49" s="154"/>
-      <c r="Q49" s="154"/>
-      <c r="R49" s="155"/>
-      <c r="S49" s="169" t="s">
+      <c r="B49" s="256"/>
+      <c r="C49" s="256"/>
+      <c r="D49" s="256"/>
+      <c r="E49" s="259"/>
+      <c r="F49" s="194"/>
+      <c r="G49" s="194"/>
+      <c r="H49" s="194"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="194"/>
+      <c r="K49" s="194"/>
+      <c r="L49" s="194"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="194"/>
+      <c r="O49" s="194"/>
+      <c r="P49" s="194"/>
+      <c r="Q49" s="194"/>
+      <c r="R49" s="226"/>
+      <c r="S49" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="T49" s="170"/>
-      <c r="U49" s="170"/>
-      <c r="V49" s="231"/>
-      <c r="W49" s="161"/>
-      <c r="X49" s="162"/>
-      <c r="Y49" s="162"/>
-      <c r="Z49" s="162"/>
-      <c r="AA49" s="162"/>
-      <c r="AB49" s="162"/>
-      <c r="AC49" s="162"/>
-      <c r="AD49" s="162"/>
-      <c r="AE49" s="162"/>
-      <c r="AF49" s="162"/>
-      <c r="AG49" s="163"/>
+      <c r="T49" s="263"/>
+      <c r="U49" s="263"/>
+      <c r="V49" s="264"/>
+      <c r="W49" s="268"/>
+      <c r="X49" s="269"/>
+      <c r="Y49" s="269"/>
+      <c r="Z49" s="269"/>
+      <c r="AA49" s="269"/>
+      <c r="AB49" s="269"/>
+      <c r="AC49" s="269"/>
+      <c r="AD49" s="269"/>
+      <c r="AE49" s="269"/>
+      <c r="AF49" s="269"/>
+      <c r="AG49" s="270"/>
       <c r="AH49" s="87"/>
     </row>
     <row r="50" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="195"/>
-      <c r="B50" s="196"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="174"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="175"/>
-      <c r="H50" s="175"/>
-      <c r="I50" s="175"/>
-      <c r="J50" s="175"/>
-      <c r="K50" s="175"/>
-      <c r="L50" s="175"/>
-      <c r="M50" s="175"/>
-      <c r="N50" s="175"/>
-      <c r="O50" s="175"/>
-      <c r="P50" s="175"/>
-      <c r="Q50" s="175"/>
-      <c r="R50" s="230"/>
-      <c r="S50" s="171"/>
-      <c r="T50" s="165"/>
-      <c r="U50" s="165"/>
-      <c r="V50" s="205"/>
-      <c r="W50" s="164"/>
-      <c r="X50" s="165"/>
-      <c r="Y50" s="165"/>
-      <c r="Z50" s="165"/>
-      <c r="AA50" s="165"/>
-      <c r="AB50" s="165"/>
-      <c r="AC50" s="165"/>
-      <c r="AD50" s="165"/>
-      <c r="AE50" s="165"/>
-      <c r="AF50" s="165"/>
-      <c r="AG50" s="166"/>
+      <c r="A50" s="257"/>
+      <c r="B50" s="258"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="260"/>
+      <c r="F50" s="261"/>
+      <c r="G50" s="261"/>
+      <c r="H50" s="261"/>
+      <c r="I50" s="261"/>
+      <c r="J50" s="261"/>
+      <c r="K50" s="261"/>
+      <c r="L50" s="261"/>
+      <c r="M50" s="261"/>
+      <c r="N50" s="261"/>
+      <c r="O50" s="261"/>
+      <c r="P50" s="261"/>
+      <c r="Q50" s="261"/>
+      <c r="R50" s="262"/>
+      <c r="S50" s="265"/>
+      <c r="T50" s="266"/>
+      <c r="U50" s="266"/>
+      <c r="V50" s="267"/>
+      <c r="W50" s="271"/>
+      <c r="X50" s="266"/>
+      <c r="Y50" s="266"/>
+      <c r="Z50" s="266"/>
+      <c r="AA50" s="266"/>
+      <c r="AB50" s="266"/>
+      <c r="AC50" s="266"/>
+      <c r="AD50" s="266"/>
+      <c r="AE50" s="266"/>
+      <c r="AF50" s="266"/>
+      <c r="AG50" s="272"/>
       <c r="AH50" s="87"/>
     </row>
     <row r="51" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="184" t="s">
+      <c r="A51" s="273" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="194"/>
-      <c r="E51" s="198" t="s">
+      <c r="B51" s="274"/>
+      <c r="C51" s="274"/>
+      <c r="D51" s="275"/>
+      <c r="E51" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="199"/>
-      <c r="G51" s="199"/>
-      <c r="H51" s="199"/>
-      <c r="I51" s="199"/>
-      <c r="J51" s="199"/>
-      <c r="K51" s="199"/>
-      <c r="L51" s="199"/>
-      <c r="M51" s="199"/>
-      <c r="N51" s="199"/>
-      <c r="O51" s="199"/>
-      <c r="P51" s="199"/>
-      <c r="Q51" s="199"/>
-      <c r="R51" s="200"/>
-      <c r="S51" s="184" t="s">
+      <c r="F51" s="278"/>
+      <c r="G51" s="278"/>
+      <c r="H51" s="278"/>
+      <c r="I51" s="278"/>
+      <c r="J51" s="278"/>
+      <c r="K51" s="278"/>
+      <c r="L51" s="278"/>
+      <c r="M51" s="278"/>
+      <c r="N51" s="278"/>
+      <c r="O51" s="278"/>
+      <c r="P51" s="278"/>
+      <c r="Q51" s="278"/>
+      <c r="R51" s="279"/>
+      <c r="S51" s="273" t="s">
         <v>57</v>
       </c>
-      <c r="T51" s="162"/>
-      <c r="U51" s="162"/>
-      <c r="V51" s="204"/>
-      <c r="W51" s="206" t="s">
+      <c r="T51" s="269"/>
+      <c r="U51" s="269"/>
+      <c r="V51" s="283"/>
+      <c r="W51" s="284" t="s">
+        <v>124</v>
+      </c>
+      <c r="X51" s="285"/>
+      <c r="Y51" s="285"/>
+      <c r="Z51" s="285"/>
+      <c r="AA51" s="285"/>
+      <c r="AB51" s="285"/>
+      <c r="AC51" s="285"/>
+      <c r="AD51" s="285"/>
+      <c r="AE51" s="285"/>
+      <c r="AF51" s="285"/>
+      <c r="AG51" s="286"/>
+      <c r="AH51" s="87"/>
+    </row>
+    <row r="52" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="257"/>
+      <c r="B52" s="258"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="276"/>
+      <c r="E52" s="280"/>
+      <c r="F52" s="281"/>
+      <c r="G52" s="281"/>
+      <c r="H52" s="281"/>
+      <c r="I52" s="281"/>
+      <c r="J52" s="281"/>
+      <c r="K52" s="281"/>
+      <c r="L52" s="281"/>
+      <c r="M52" s="281"/>
+      <c r="N52" s="281"/>
+      <c r="O52" s="281"/>
+      <c r="P52" s="281"/>
+      <c r="Q52" s="281"/>
+      <c r="R52" s="282"/>
+      <c r="S52" s="265"/>
+      <c r="T52" s="266"/>
+      <c r="U52" s="266"/>
+      <c r="V52" s="267"/>
+      <c r="W52" s="287"/>
+      <c r="X52" s="288"/>
+      <c r="Y52" s="288"/>
+      <c r="Z52" s="288"/>
+      <c r="AA52" s="288"/>
+      <c r="AB52" s="288"/>
+      <c r="AC52" s="288"/>
+      <c r="AD52" s="288"/>
+      <c r="AE52" s="288"/>
+      <c r="AF52" s="288"/>
+      <c r="AG52" s="289"/>
+      <c r="AH52" s="87"/>
+    </row>
+    <row r="53" spans="1:38" s="84" customFormat="1" ht="18" customHeight="1">
+      <c r="A53" s="273" t="s">
         <v>59</v>
       </c>
-      <c r="X51" s="207"/>
-      <c r="Y51" s="207"/>
-      <c r="Z51" s="207"/>
-      <c r="AA51" s="207"/>
-      <c r="AB51" s="207"/>
-      <c r="AC51" s="207"/>
-      <c r="AD51" s="207"/>
-      <c r="AE51" s="207"/>
-      <c r="AF51" s="207"/>
-      <c r="AG51" s="208"/>
-      <c r="AH51" s="87"/>
-    </row>
-    <row r="52" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="195"/>
-      <c r="B52" s="196"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="201"/>
-      <c r="F52" s="202"/>
-      <c r="G52" s="202"/>
-      <c r="H52" s="202"/>
-      <c r="I52" s="202"/>
-      <c r="J52" s="202"/>
-      <c r="K52" s="202"/>
-      <c r="L52" s="202"/>
-      <c r="M52" s="202"/>
-      <c r="N52" s="202"/>
-      <c r="O52" s="202"/>
-      <c r="P52" s="202"/>
-      <c r="Q52" s="202"/>
-      <c r="R52" s="203"/>
-      <c r="S52" s="171"/>
-      <c r="T52" s="165"/>
-      <c r="U52" s="165"/>
-      <c r="V52" s="205"/>
-      <c r="W52" s="209"/>
-      <c r="X52" s="210"/>
-      <c r="Y52" s="210"/>
-      <c r="Z52" s="210"/>
-      <c r="AA52" s="210"/>
-      <c r="AB52" s="210"/>
-      <c r="AC52" s="210"/>
-      <c r="AD52" s="210"/>
-      <c r="AE52" s="210"/>
-      <c r="AF52" s="210"/>
-      <c r="AG52" s="211"/>
-      <c r="AH52" s="87"/>
-    </row>
-    <row r="53" spans="1:38" s="84" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="184" t="s">
+      <c r="B53" s="269"/>
+      <c r="C53" s="269"/>
+      <c r="D53" s="283"/>
+      <c r="E53" s="268" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="162"/>
-      <c r="C53" s="162"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="161" t="s">
+      <c r="F53" s="269"/>
+      <c r="G53" s="269"/>
+      <c r="H53" s="269"/>
+      <c r="I53" s="269"/>
+      <c r="J53" s="269"/>
+      <c r="K53" s="269"/>
+      <c r="L53" s="269"/>
+      <c r="M53" s="269"/>
+      <c r="N53" s="269"/>
+      <c r="O53" s="269"/>
+      <c r="P53" s="269"/>
+      <c r="Q53" s="269"/>
+      <c r="R53" s="270"/>
+      <c r="S53" s="273" t="s">
+        <v>59</v>
+      </c>
+      <c r="T53" s="269"/>
+      <c r="U53" s="269"/>
+      <c r="V53" s="283"/>
+      <c r="W53" s="268" t="s">
+        <v>125</v>
+      </c>
+      <c r="X53" s="269"/>
+      <c r="Y53" s="269"/>
+      <c r="Z53" s="269"/>
+      <c r="AA53" s="269"/>
+      <c r="AB53" s="269"/>
+      <c r="AC53" s="269"/>
+      <c r="AD53" s="269"/>
+      <c r="AE53" s="269"/>
+      <c r="AF53" s="269"/>
+      <c r="AG53" s="270"/>
+      <c r="AH53" s="141"/>
+    </row>
+    <row r="54" spans="1:38" s="84" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A54" s="265"/>
+      <c r="B54" s="266"/>
+      <c r="C54" s="266"/>
+      <c r="D54" s="267"/>
+      <c r="E54" s="271"/>
+      <c r="F54" s="266"/>
+      <c r="G54" s="266"/>
+      <c r="H54" s="266"/>
+      <c r="I54" s="266"/>
+      <c r="J54" s="266"/>
+      <c r="K54" s="266"/>
+      <c r="L54" s="266"/>
+      <c r="M54" s="266"/>
+      <c r="N54" s="266"/>
+      <c r="O54" s="266"/>
+      <c r="P54" s="266"/>
+      <c r="Q54" s="266"/>
+      <c r="R54" s="272"/>
+      <c r="S54" s="265"/>
+      <c r="T54" s="266"/>
+      <c r="U54" s="266"/>
+      <c r="V54" s="267"/>
+      <c r="W54" s="271"/>
+      <c r="X54" s="266"/>
+      <c r="Y54" s="266"/>
+      <c r="Z54" s="266"/>
+      <c r="AA54" s="266"/>
+      <c r="AB54" s="266"/>
+      <c r="AC54" s="266"/>
+      <c r="AD54" s="266"/>
+      <c r="AE54" s="266"/>
+      <c r="AF54" s="266"/>
+      <c r="AG54" s="272"/>
+      <c r="AH54" s="87"/>
+    </row>
+    <row r="55" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="273" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="162"/>
-      <c r="G53" s="162"/>
-      <c r="H53" s="162"/>
-      <c r="I53" s="162"/>
-      <c r="J53" s="162"/>
-      <c r="K53" s="162"/>
-      <c r="L53" s="162"/>
-      <c r="M53" s="162"/>
-      <c r="N53" s="162"/>
-      <c r="O53" s="162"/>
-      <c r="P53" s="162"/>
-      <c r="Q53" s="162"/>
-      <c r="R53" s="163"/>
-      <c r="S53" s="184" t="s">
-        <v>60</v>
-      </c>
-      <c r="T53" s="162"/>
-      <c r="U53" s="162"/>
-      <c r="V53" s="204"/>
-      <c r="W53" s="161" t="s">
-        <v>62</v>
-      </c>
-      <c r="X53" s="162"/>
-      <c r="Y53" s="162"/>
-      <c r="Z53" s="162"/>
-      <c r="AA53" s="162"/>
-      <c r="AB53" s="162"/>
-      <c r="AC53" s="162"/>
-      <c r="AD53" s="162"/>
-      <c r="AE53" s="162"/>
-      <c r="AF53" s="162"/>
-      <c r="AG53" s="163"/>
-      <c r="AH53" s="141"/>
-    </row>
-    <row r="54" spans="1:38" s="84" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A54" s="171"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="205"/>
-      <c r="E54" s="164"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="165"/>
-      <c r="L54" s="165"/>
-      <c r="M54" s="165"/>
-      <c r="N54" s="165"/>
-      <c r="O54" s="165"/>
-      <c r="P54" s="165"/>
-      <c r="Q54" s="165"/>
-      <c r="R54" s="166"/>
-      <c r="S54" s="171"/>
-      <c r="T54" s="165"/>
-      <c r="U54" s="165"/>
-      <c r="V54" s="205"/>
-      <c r="W54" s="164"/>
-      <c r="X54" s="165"/>
-      <c r="Y54" s="165"/>
-      <c r="Z54" s="165"/>
-      <c r="AA54" s="165"/>
-      <c r="AB54" s="165"/>
-      <c r="AC54" s="165"/>
-      <c r="AD54" s="165"/>
-      <c r="AE54" s="165"/>
-      <c r="AF54" s="165"/>
-      <c r="AG54" s="166"/>
-      <c r="AH54" s="87"/>
-    </row>
-    <row r="55" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="184" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="162"/>
-      <c r="C55" s="162"/>
-      <c r="D55" s="204"/>
-      <c r="E55" s="172"/>
-      <c r="F55" s="154"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="154"/>
-      <c r="K55" s="154"/>
-      <c r="L55" s="154"/>
-      <c r="M55" s="154"/>
-      <c r="N55" s="154"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="154"/>
-      <c r="Q55" s="154"/>
-      <c r="R55" s="155"/>
-      <c r="S55" s="184" t="s">
-        <v>63</v>
-      </c>
-      <c r="T55" s="162"/>
-      <c r="U55" s="162"/>
-      <c r="V55" s="204"/>
-      <c r="W55" s="161"/>
-      <c r="X55" s="162"/>
-      <c r="Y55" s="162"/>
-      <c r="Z55" s="162"/>
-      <c r="AA55" s="162"/>
-      <c r="AB55" s="162"/>
-      <c r="AC55" s="162"/>
-      <c r="AD55" s="162"/>
-      <c r="AE55" s="162"/>
-      <c r="AF55" s="162"/>
-      <c r="AG55" s="163"/>
+      <c r="B55" s="269"/>
+      <c r="C55" s="269"/>
+      <c r="D55" s="283"/>
+      <c r="E55" s="259"/>
+      <c r="F55" s="194"/>
+      <c r="G55" s="194"/>
+      <c r="H55" s="194"/>
+      <c r="I55" s="194"/>
+      <c r="J55" s="194"/>
+      <c r="K55" s="194"/>
+      <c r="L55" s="194"/>
+      <c r="M55" s="194"/>
+      <c r="N55" s="194"/>
+      <c r="O55" s="194"/>
+      <c r="P55" s="194"/>
+      <c r="Q55" s="194"/>
+      <c r="R55" s="226"/>
+      <c r="S55" s="273" t="s">
+        <v>61</v>
+      </c>
+      <c r="T55" s="269"/>
+      <c r="U55" s="269"/>
+      <c r="V55" s="283"/>
+      <c r="W55" s="268"/>
+      <c r="X55" s="269"/>
+      <c r="Y55" s="269"/>
+      <c r="Z55" s="269"/>
+      <c r="AA55" s="269"/>
+      <c r="AB55" s="269"/>
+      <c r="AC55" s="269"/>
+      <c r="AD55" s="269"/>
+      <c r="AE55" s="269"/>
+      <c r="AF55" s="269"/>
+      <c r="AG55" s="270"/>
       <c r="AH55" s="87"/>
     </row>
     <row r="56" spans="1:38" s="84" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A56" s="212"/>
-      <c r="B56" s="213"/>
-      <c r="C56" s="213"/>
-      <c r="D56" s="214"/>
-      <c r="E56" s="215"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="156"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="156"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="156"/>
-      <c r="P56" s="156"/>
-      <c r="Q56" s="156"/>
-      <c r="R56" s="157"/>
-      <c r="S56" s="216"/>
-      <c r="T56" s="217"/>
-      <c r="U56" s="217"/>
-      <c r="V56" s="218"/>
-      <c r="W56" s="219"/>
-      <c r="X56" s="217"/>
-      <c r="Y56" s="217"/>
-      <c r="Z56" s="217"/>
-      <c r="AA56" s="217"/>
-      <c r="AB56" s="217"/>
-      <c r="AC56" s="217"/>
-      <c r="AD56" s="217"/>
-      <c r="AE56" s="217"/>
-      <c r="AF56" s="217"/>
-      <c r="AG56" s="220"/>
+      <c r="A56" s="290"/>
+      <c r="B56" s="291"/>
+      <c r="C56" s="291"/>
+      <c r="D56" s="292"/>
+      <c r="E56" s="293"/>
+      <c r="F56" s="193"/>
+      <c r="G56" s="193"/>
+      <c r="H56" s="193"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="193"/>
+      <c r="K56" s="193"/>
+      <c r="L56" s="193"/>
+      <c r="M56" s="193"/>
+      <c r="N56" s="193"/>
+      <c r="O56" s="193"/>
+      <c r="P56" s="193"/>
+      <c r="Q56" s="193"/>
+      <c r="R56" s="294"/>
+      <c r="S56" s="295"/>
+      <c r="T56" s="296"/>
+      <c r="U56" s="296"/>
+      <c r="V56" s="297"/>
+      <c r="W56" s="298"/>
+      <c r="X56" s="296"/>
+      <c r="Y56" s="296"/>
+      <c r="Z56" s="296"/>
+      <c r="AA56" s="296"/>
+      <c r="AB56" s="296"/>
+      <c r="AC56" s="296"/>
+      <c r="AD56" s="296"/>
+      <c r="AE56" s="296"/>
+      <c r="AF56" s="296"/>
+      <c r="AG56" s="299"/>
       <c r="AH56" s="87"/>
     </row>
     <row r="57" spans="1:38" s="84" customFormat="1" ht="13.5" customHeight="1">
       <c r="A57" s="130" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" s="131" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="131"/>
       <c r="D57" s="131"/>
@@ -4688,49 +4697,49 @@
       <c r="Z57" s="131"/>
       <c r="AA57" s="142"/>
       <c r="AB57" s="99" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="167"/>
-      <c r="AF57" s="167"/>
-      <c r="AG57" s="168"/>
+      <c r="AE57" s="200"/>
+      <c r="AF57" s="200"/>
+      <c r="AG57" s="201"/>
       <c r="AH57" s="87"/>
     </row>
     <row r="58" spans="1:38" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A58" s="169" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
+      <c r="A58" s="255" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="263"/>
+      <c r="C58" s="263"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="172"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="173"/>
-      <c r="N58" s="177" t="s">
+      <c r="E58" s="259"/>
+      <c r="F58" s="194"/>
+      <c r="G58" s="194"/>
+      <c r="H58" s="194"/>
+      <c r="I58" s="194"/>
+      <c r="J58" s="194"/>
+      <c r="K58" s="194"/>
+      <c r="L58" s="194"/>
+      <c r="M58" s="318"/>
+      <c r="N58" s="319" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="178"/>
-      <c r="P58" s="178"/>
-      <c r="Q58" s="178"/>
-      <c r="R58" s="179"/>
-      <c r="S58" s="183" t="s">
-        <v>68</v>
-      </c>
-      <c r="T58" s="178"/>
-      <c r="U58" s="178"/>
-      <c r="V58" s="178"/>
-      <c r="W58" s="178"/>
-      <c r="X58" s="178"/>
-      <c r="Y58" s="178"/>
-      <c r="Z58" s="178"/>
-      <c r="AA58" s="179"/>
+      <c r="O58" s="301"/>
+      <c r="P58" s="301"/>
+      <c r="Q58" s="301"/>
+      <c r="R58" s="302"/>
+      <c r="S58" s="300" t="s">
+        <v>66</v>
+      </c>
+      <c r="T58" s="301"/>
+      <c r="U58" s="301"/>
+      <c r="V58" s="301"/>
+      <c r="W58" s="301"/>
+      <c r="X58" s="301"/>
+      <c r="Y58" s="301"/>
+      <c r="Z58" s="301"/>
+      <c r="AA58" s="302"/>
       <c r="AB58" s="93"/>
       <c r="AC58" s="93"/>
       <c r="AD58" s="93"/>
@@ -4739,34 +4748,34 @@
       <c r="AG58" s="95"/>
       <c r="AH58" s="87"/>
     </row>
-    <row r="59" spans="1:38" s="84" customFormat="1" ht="13.95" customHeight="1">
-      <c r="A59" s="171"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
+    <row r="59" spans="1:38" s="84" customFormat="1" ht="13.9" customHeight="1">
+      <c r="A59" s="265"/>
+      <c r="B59" s="266"/>
+      <c r="C59" s="266"/>
       <c r="D59" s="138"/>
-      <c r="E59" s="174"/>
-      <c r="F59" s="175"/>
-      <c r="G59" s="175"/>
-      <c r="H59" s="175"/>
-      <c r="I59" s="175"/>
-      <c r="J59" s="175"/>
-      <c r="K59" s="175"/>
-      <c r="L59" s="175"/>
-      <c r="M59" s="176"/>
-      <c r="N59" s="180"/>
-      <c r="O59" s="181"/>
-      <c r="P59" s="181"/>
-      <c r="Q59" s="181"/>
-      <c r="R59" s="182"/>
-      <c r="S59" s="180"/>
-      <c r="T59" s="181"/>
-      <c r="U59" s="181"/>
-      <c r="V59" s="181"/>
-      <c r="W59" s="181"/>
-      <c r="X59" s="181"/>
-      <c r="Y59" s="181"/>
-      <c r="Z59" s="181"/>
-      <c r="AA59" s="182"/>
+      <c r="E59" s="260"/>
+      <c r="F59" s="261"/>
+      <c r="G59" s="261"/>
+      <c r="H59" s="261"/>
+      <c r="I59" s="261"/>
+      <c r="J59" s="261"/>
+      <c r="K59" s="261"/>
+      <c r="L59" s="261"/>
+      <c r="M59" s="309"/>
+      <c r="N59" s="303"/>
+      <c r="O59" s="304"/>
+      <c r="P59" s="304"/>
+      <c r="Q59" s="304"/>
+      <c r="R59" s="305"/>
+      <c r="S59" s="303"/>
+      <c r="T59" s="304"/>
+      <c r="U59" s="304"/>
+      <c r="V59" s="304"/>
+      <c r="W59" s="304"/>
+      <c r="X59" s="304"/>
+      <c r="Y59" s="304"/>
+      <c r="Z59" s="304"/>
+      <c r="AA59" s="305"/>
       <c r="AB59" s="138"/>
       <c r="AC59" s="138"/>
       <c r="AD59" s="139"/>
@@ -4776,121 +4785,121 @@
       <c r="AH59" s="87"/>
     </row>
     <row r="60" spans="1:38" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="184" t="s">
+      <c r="A60" s="273" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="306"/>
+      <c r="C60" s="306"/>
+      <c r="D60" s="307"/>
+      <c r="E60" s="310"/>
+      <c r="F60" s="306"/>
+      <c r="G60" s="306"/>
+      <c r="H60" s="306"/>
+      <c r="I60" s="306"/>
+      <c r="J60" s="306"/>
+      <c r="K60" s="306"/>
+      <c r="L60" s="306"/>
+      <c r="M60" s="307"/>
+      <c r="N60" s="311" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="312"/>
+      <c r="P60" s="312"/>
+      <c r="Q60" s="312"/>
+      <c r="R60" s="313"/>
+      <c r="S60" s="311" t="s">
+        <v>68</v>
+      </c>
+      <c r="T60" s="312"/>
+      <c r="U60" s="312"/>
+      <c r="V60" s="312"/>
+      <c r="W60" s="312"/>
+      <c r="X60" s="312"/>
+      <c r="Y60" s="312"/>
+      <c r="Z60" s="312"/>
+      <c r="AA60" s="313"/>
+      <c r="AB60" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC60" s="143"/>
+      <c r="AD60" s="306"/>
+      <c r="AE60" s="306"/>
+      <c r="AF60" s="306"/>
+      <c r="AG60" s="314"/>
+      <c r="AH60" s="87"/>
+    </row>
+    <row r="61" spans="1:38" s="84" customFormat="1" ht="9.6" customHeight="1">
+      <c r="A61" s="308"/>
+      <c r="B61" s="261"/>
+      <c r="C61" s="261"/>
+      <c r="D61" s="309"/>
+      <c r="E61" s="260"/>
+      <c r="F61" s="261"/>
+      <c r="G61" s="261"/>
+      <c r="H61" s="261"/>
+      <c r="I61" s="261"/>
+      <c r="J61" s="261"/>
+      <c r="K61" s="261"/>
+      <c r="L61" s="261"/>
+      <c r="M61" s="309"/>
+      <c r="N61" s="303"/>
+      <c r="O61" s="304"/>
+      <c r="P61" s="304"/>
+      <c r="Q61" s="304"/>
+      <c r="R61" s="305"/>
+      <c r="S61" s="303"/>
+      <c r="T61" s="304"/>
+      <c r="U61" s="304"/>
+      <c r="V61" s="304"/>
+      <c r="W61" s="304"/>
+      <c r="X61" s="304"/>
+      <c r="Y61" s="304"/>
+      <c r="Z61" s="304"/>
+      <c r="AA61" s="305"/>
+      <c r="AB61" s="194"/>
+      <c r="AC61" s="194"/>
+      <c r="AD61" s="194"/>
+      <c r="AE61" s="194"/>
+      <c r="AF61" s="194"/>
+      <c r="AG61" s="226"/>
+      <c r="AH61" s="87"/>
+    </row>
+    <row r="62" spans="1:38" s="84" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A62" s="315" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="185"/>
-      <c r="C60" s="185"/>
-      <c r="D60" s="186"/>
-      <c r="E60" s="188"/>
-      <c r="F60" s="185"/>
-      <c r="G60" s="185"/>
-      <c r="H60" s="185"/>
-      <c r="I60" s="185"/>
-      <c r="J60" s="185"/>
-      <c r="K60" s="185"/>
-      <c r="L60" s="185"/>
-      <c r="M60" s="186"/>
-      <c r="N60" s="189" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="190"/>
-      <c r="P60" s="190"/>
-      <c r="Q60" s="190"/>
-      <c r="R60" s="191"/>
-      <c r="S60" s="189" t="s">
-        <v>70</v>
-      </c>
-      <c r="T60" s="190"/>
-      <c r="U60" s="190"/>
-      <c r="V60" s="190"/>
-      <c r="W60" s="190"/>
-      <c r="X60" s="190"/>
-      <c r="Y60" s="190"/>
-      <c r="Z60" s="190"/>
-      <c r="AA60" s="191"/>
-      <c r="AB60" s="143" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC60" s="143"/>
-      <c r="AD60" s="185"/>
-      <c r="AE60" s="185"/>
-      <c r="AF60" s="185"/>
-      <c r="AG60" s="192"/>
-      <c r="AH60" s="87"/>
-    </row>
-    <row r="61" spans="1:38" s="84" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A61" s="187"/>
-      <c r="B61" s="175"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="174"/>
-      <c r="F61" s="175"/>
-      <c r="G61" s="175"/>
-      <c r="H61" s="175"/>
-      <c r="I61" s="175"/>
-      <c r="J61" s="175"/>
-      <c r="K61" s="175"/>
-      <c r="L61" s="175"/>
-      <c r="M61" s="176"/>
-      <c r="N61" s="180"/>
-      <c r="O61" s="181"/>
-      <c r="P61" s="181"/>
-      <c r="Q61" s="181"/>
-      <c r="R61" s="182"/>
-      <c r="S61" s="180"/>
-      <c r="T61" s="181"/>
-      <c r="U61" s="181"/>
-      <c r="V61" s="181"/>
-      <c r="W61" s="181"/>
-      <c r="X61" s="181"/>
-      <c r="Y61" s="181"/>
-      <c r="Z61" s="181"/>
-      <c r="AA61" s="182"/>
-      <c r="AB61" s="154"/>
-      <c r="AC61" s="154"/>
-      <c r="AD61" s="154"/>
-      <c r="AE61" s="154"/>
-      <c r="AF61" s="154"/>
-      <c r="AG61" s="155"/>
-      <c r="AH61" s="87"/>
-    </row>
-    <row r="62" spans="1:38" s="84" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A62" s="158" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="159"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="159"/>
-      <c r="G62" s="159"/>
-      <c r="H62" s="159"/>
-      <c r="I62" s="159"/>
-      <c r="J62" s="159"/>
-      <c r="K62" s="159"/>
-      <c r="L62" s="159"/>
-      <c r="M62" s="159"/>
-      <c r="N62" s="159"/>
-      <c r="O62" s="159"/>
-      <c r="P62" s="159"/>
-      <c r="Q62" s="159"/>
-      <c r="R62" s="159"/>
-      <c r="S62" s="159"/>
-      <c r="T62" s="159"/>
-      <c r="U62" s="159"/>
-      <c r="V62" s="159"/>
-      <c r="W62" s="159"/>
-      <c r="X62" s="159"/>
-      <c r="Y62" s="159"/>
-      <c r="Z62" s="159"/>
-      <c r="AA62" s="160"/>
-      <c r="AB62" s="156"/>
-      <c r="AC62" s="156"/>
-      <c r="AD62" s="156"/>
-      <c r="AE62" s="156"/>
-      <c r="AF62" s="156"/>
-      <c r="AG62" s="157"/>
+      <c r="B62" s="316"/>
+      <c r="C62" s="316"/>
+      <c r="D62" s="316"/>
+      <c r="E62" s="316"/>
+      <c r="F62" s="316"/>
+      <c r="G62" s="316"/>
+      <c r="H62" s="316"/>
+      <c r="I62" s="316"/>
+      <c r="J62" s="316"/>
+      <c r="K62" s="316"/>
+      <c r="L62" s="316"/>
+      <c r="M62" s="316"/>
+      <c r="N62" s="316"/>
+      <c r="O62" s="316"/>
+      <c r="P62" s="316"/>
+      <c r="Q62" s="316"/>
+      <c r="R62" s="316"/>
+      <c r="S62" s="316"/>
+      <c r="T62" s="316"/>
+      <c r="U62" s="316"/>
+      <c r="V62" s="316"/>
+      <c r="W62" s="316"/>
+      <c r="X62" s="316"/>
+      <c r="Y62" s="316"/>
+      <c r="Z62" s="316"/>
+      <c r="AA62" s="317"/>
+      <c r="AB62" s="193"/>
+      <c r="AC62" s="193"/>
+      <c r="AD62" s="193"/>
+      <c r="AE62" s="193"/>
+      <c r="AF62" s="193"/>
+      <c r="AG62" s="294"/>
       <c r="AH62" s="144"/>
       <c r="AI62" s="85"/>
       <c r="AJ62" s="85"/>
@@ -4900,79 +4909,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="84">
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="A4:AA6"/>
-    <mergeCell ref="AB4:AG4"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="A2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="A3:AA3"/>
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="S10:AA10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="E10:R11"/>
-    <mergeCell ref="E7:AG7"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AB30:AG30"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B31:AG31"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="S11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="E12:R13"/>
-    <mergeCell ref="B33:AF33"/>
-    <mergeCell ref="B34:AF34"/>
-    <mergeCell ref="L35:X35"/>
-    <mergeCell ref="L36:X36"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="S38:W38"/>
-    <mergeCell ref="X38:AB38"/>
-    <mergeCell ref="AC38:AG38"/>
-    <mergeCell ref="T42:AD42"/>
-    <mergeCell ref="S43:AG48"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A46:R46"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="E49:R50"/>
-    <mergeCell ref="S49:V50"/>
-    <mergeCell ref="W49:AG50"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="E51:R52"/>
-    <mergeCell ref="S51:V52"/>
-    <mergeCell ref="W51:AG52"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="E55:R56"/>
-    <mergeCell ref="S55:V56"/>
-    <mergeCell ref="W55:AG56"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="S53:V54"/>
-    <mergeCell ref="S58:AA59"/>
-    <mergeCell ref="A60:D61"/>
-    <mergeCell ref="E60:M61"/>
-    <mergeCell ref="N60:R61"/>
-    <mergeCell ref="S60:AA61"/>
     <mergeCell ref="AD60:AG60"/>
     <mergeCell ref="B17:P17"/>
     <mergeCell ref="B28:P28"/>
@@ -4984,6 +4920,79 @@
     <mergeCell ref="A58:C59"/>
     <mergeCell ref="E58:M59"/>
     <mergeCell ref="N58:R59"/>
+    <mergeCell ref="S58:AA59"/>
+    <mergeCell ref="A60:D61"/>
+    <mergeCell ref="E60:M61"/>
+    <mergeCell ref="N60:R61"/>
+    <mergeCell ref="S60:AA61"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="E51:R52"/>
+    <mergeCell ref="S51:V52"/>
+    <mergeCell ref="W51:AG52"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="E55:R56"/>
+    <mergeCell ref="S55:V56"/>
+    <mergeCell ref="W55:AG56"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="S53:V54"/>
+    <mergeCell ref="T42:AD42"/>
+    <mergeCell ref="S43:AG48"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A46:R46"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="E49:R50"/>
+    <mergeCell ref="S49:V50"/>
+    <mergeCell ref="W49:AG50"/>
+    <mergeCell ref="B33:AF33"/>
+    <mergeCell ref="B34:AF34"/>
+    <mergeCell ref="L35:X35"/>
+    <mergeCell ref="L36:X36"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="S38:W38"/>
+    <mergeCell ref="X38:AB38"/>
+    <mergeCell ref="AC38:AG38"/>
+    <mergeCell ref="B31:AG31"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="E12:R13"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AB30:AG30"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="A3:AA3"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="A4:AA6"/>
+    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="S10:AA10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="E10:R11"/>
+    <mergeCell ref="E7:AG7"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:P26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
@@ -4992,118 +5001,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="3.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="3.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="320"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="322" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="2:15" ht="18" customHeight="1">
+      <c r="B4" s="322" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="322"/>
+      <c r="K4" s="322"/>
+      <c r="L4" s="322"/>
+      <c r="M4" s="322"/>
+      <c r="N4" s="322"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="2:15" ht="23.1" customHeight="1">
+      <c r="B5" s="323" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="326"/>
-      <c r="N3" s="326"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="2:15" ht="18" customHeight="1">
-      <c r="B4" s="326" t="s">
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="323"/>
+      <c r="G5" s="323"/>
+      <c r="H5" s="323"/>
+      <c r="I5" s="323"/>
+      <c r="J5" s="323"/>
+      <c r="K5" s="323"/>
+      <c r="L5" s="323"/>
+      <c r="M5" s="323"/>
+      <c r="N5" s="323"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B6" s="324" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="326"/>
-      <c r="I4" s="326"/>
-      <c r="J4" s="326"/>
-      <c r="K4" s="326"/>
-      <c r="L4" s="326"/>
-      <c r="M4" s="326"/>
-      <c r="N4" s="326"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B5" s="327" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="327"/>
-      <c r="D5" s="327"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="327"/>
-      <c r="G5" s="327"/>
-      <c r="H5" s="327"/>
-      <c r="I5" s="327"/>
-      <c r="J5" s="327"/>
-      <c r="K5" s="327"/>
-      <c r="L5" s="327"/>
-      <c r="M5" s="327"/>
-      <c r="N5" s="327"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B6" s="328" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="328"/>
-      <c r="D6" s="328"/>
-      <c r="E6" s="328"/>
-      <c r="F6" s="328"/>
-      <c r="G6" s="328"/>
-      <c r="H6" s="328"/>
-      <c r="I6" s="328"/>
-      <c r="J6" s="328"/>
-      <c r="K6" s="328"/>
-      <c r="L6" s="328"/>
-      <c r="M6" s="328"/>
-      <c r="N6" s="328"/>
+      <c r="C6" s="324"/>
+      <c r="D6" s="324"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
+      <c r="N6" s="324"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" customHeight="1">
@@ -5115,10 +5124,10 @@
       <c r="G7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="325" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="325"/>
+      <c r="K7" s="320" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="320"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="5"/>
@@ -5134,7 +5143,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
@@ -5151,59 +5160,59 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M9" s="79"/>
       <c r="N9" s="80"/>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="2:15" ht="4.5" customHeight="1">
-      <c r="B10" s="320"/>
-      <c r="C10" s="320"/>
-      <c r="D10" s="320"/>
-      <c r="E10" s="320"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="320"/>
-      <c r="I10" s="320"/>
-      <c r="J10" s="320"/>
-      <c r="K10" s="320"/>
-      <c r="L10" s="320"/>
-      <c r="M10" s="320"/>
-      <c r="N10" s="320"/>
+      <c r="B10" s="321"/>
+      <c r="C10" s="321"/>
+      <c r="D10" s="321"/>
+      <c r="E10" s="321"/>
+      <c r="F10" s="321"/>
+      <c r="G10" s="321"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="321"/>
+      <c r="J10" s="321"/>
+      <c r="K10" s="321"/>
+      <c r="L10" s="321"/>
+      <c r="M10" s="321"/>
+      <c r="N10" s="321"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="38.25" customHeight="1">
       <c r="B11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="321" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="325" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="326"/>
+      <c r="E11" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="327" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="322"/>
-      <c r="E11" s="83" t="s">
+      <c r="G11" s="328"/>
+      <c r="H11" s="327" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="323" t="s">
+      <c r="I11" s="328"/>
+      <c r="J11" s="327" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="324"/>
-      <c r="H11" s="323" t="s">
+      <c r="K11" s="328"/>
+      <c r="L11" s="325" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="324"/>
-      <c r="J11" s="323" t="s">
+      <c r="M11" s="326"/>
+      <c r="N11" s="327" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="324"/>
-      <c r="L11" s="321" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="322"/>
-      <c r="N11" s="323" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="324"/>
+      <c r="O11" s="328"/>
     </row>
     <row r="12" spans="2:15" ht="23.1" customHeight="1">
       <c r="B12" s="10"/>
@@ -5226,11 +5235,11 @@
         <v>41645</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F13" s="19">
         <v>50000</v>
@@ -5252,11 +5261,11 @@
         <v>41652</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -5280,11 +5289,11 @@
         <v>41667</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -5306,11 +5315,11 @@
         <v>41670</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5617,7 +5626,7 @@
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1">
       <c r="B35" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
@@ -5625,12 +5634,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B6:N6"/>
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:G11"/>
@@ -5638,6 +5641,12 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait"/>
@@ -5646,28 +5655,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="33" customWidth="1"/>
     <col min="2" max="3" width="11" style="33" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="33" customWidth="1"/>
-    <col min="11" max="11" width="1.5546875" style="33" customWidth="1"/>
-    <col min="12" max="12" width="3.44140625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="33" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="28.5" customHeight="1"/>
@@ -5681,20 +5690,20 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
       <c r="J2" s="81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:14" s="36" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="335" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
+        <v>91</v>
+      </c>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
       <c r="J3" s="336"/>
     </row>
     <row r="4" spans="2:14" s="36" customFormat="1" ht="15.75" customHeight="1">
@@ -5704,7 +5713,7 @@
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
@@ -5716,24 +5725,24 @@
     </row>
     <row r="5" spans="2:14" s="36" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="H5" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J5" s="42"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:14" s="36" customFormat="1" ht="18.75" customHeight="1">
       <c r="B6" s="44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
@@ -5745,14 +5754,14 @@
     </row>
     <row r="7" spans="2:14" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
       <c r="H7" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="42"/>
@@ -5771,26 +5780,26 @@
     </row>
     <row r="9" spans="2:14" ht="15.75" customHeight="1">
       <c r="B9" s="337" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="338"/>
       <c r="D9" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="G9" s="339" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="H9" s="341" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="339" t="s">
+      <c r="I9" s="343" t="s">
         <v>105</v>
-      </c>
-      <c r="H9" s="341" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="343" t="s">
-        <v>107</v>
       </c>
       <c r="J9" s="339" t="s">
         <v>21</v>
@@ -5798,19 +5807,19 @@
     </row>
     <row r="10" spans="2:14" ht="15.75" customHeight="1">
       <c r="B10" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="55" t="s">
         <v>108</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>110</v>
       </c>
       <c r="G10" s="340"/>
       <c r="H10" s="342"/>
@@ -5819,28 +5828,28 @@
     </row>
     <row r="11" spans="2:14" ht="22.5" customHeight="1">
       <c r="B11" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="E11" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="F11" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="G11" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="H11" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="58" t="s">
-        <v>117</v>
-      </c>
       <c r="I11" s="56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="59"/>
     </row>
@@ -5946,7 +5955,7 @@
     </row>
     <row r="21" spans="1:12" s="70" customFormat="1" ht="23.1" customHeight="1">
       <c r="B21" s="329" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" s="330"/>
       <c r="D21" s="330"/>
@@ -5958,31 +5967,31 @@
       <c r="J21" s="332"/>
       <c r="L21" s="71"/>
     </row>
-    <row r="22" spans="1:12" ht="15.6">
+    <row r="22" spans="1:12">
       <c r="B22" s="37"/>
       <c r="D22" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J22" s="39"/>
       <c r="L22" s="333" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="B23" s="37"/>
       <c r="D23" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J23" s="39"/>
       <c r="L23" s="333"/>
     </row>
-    <row r="24" spans="1:12" ht="15.6">
+    <row r="24" spans="1:12">
       <c r="A24" s="334" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="37"/>
       <c r="D24" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J24" s="39"/>
       <c r="L24" s="333"/>
@@ -5997,12 +6006,12 @@
       <c r="A26" s="334"/>
       <c r="B26" s="37"/>
       <c r="F26" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J26" s="39"/>
       <c r="L26" s="333"/>
     </row>
-    <row r="27" spans="1:12" ht="15.6">
+    <row r="27" spans="1:12">
       <c r="A27" s="334"/>
       <c r="B27" s="37"/>
       <c r="J27" s="39"/>
@@ -6022,7 +6031,7 @@
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1">
       <c r="J29" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/library/export_dv.xlsx
+++ b/library/export_dv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C7501A-BA5D-4872-8AD6-78C0B69BBB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC63DFD6-43B7-42D8-A019-80B3EA3A06EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,6 +266,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">    Sheet No.: </t>
     </r>
@@ -276,6 +277,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>______________</t>
     </r>
@@ -340,6 +342,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">                                                      </t>
     </r>
@@ -348,6 +351,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Report No.: ___________</t>
     </r>
@@ -440,17 +444,17 @@
     <t>04/14/2014/22/09</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO III</t>
-  </si>
-  <si>
     <t>Regional Director</t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA, CESO IV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -461,12 +465,14 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -474,6 +480,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -481,70 +488,83 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -556,41 +576,48 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -598,34 +625,46 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1587,9 +1626,414 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1632,45 +2076,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1707,12 +2112,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1728,372 +2127,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2102,18 +2153,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2514,7 +2553,7 @@
   <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="W55" sqref="W55:AG56"/>
+      <selection activeCell="W53" sqref="W53:AG54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2533,244 +2572,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="18.75" customHeight="1">
-      <c r="AB1" s="168" t="s">
+      <c r="AB1" s="276" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
+      <c r="AC1" s="276"/>
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="276"/>
+      <c r="AG1" s="276"/>
     </row>
     <row r="2" spans="1:41" ht="21" customHeight="1">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="170"/>
-      <c r="X2" s="170"/>
-      <c r="Y2" s="170"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="172" t="s">
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
+      <c r="R2" s="278"/>
+      <c r="S2" s="278"/>
+      <c r="T2" s="278"/>
+      <c r="U2" s="278"/>
+      <c r="V2" s="278"/>
+      <c r="W2" s="278"/>
+      <c r="X2" s="278"/>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="278"/>
+      <c r="AA2" s="279"/>
+      <c r="AB2" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="174"/>
+      <c r="AC2" s="281"/>
+      <c r="AD2" s="281"/>
+      <c r="AE2" s="281"/>
+      <c r="AF2" s="281"/>
+      <c r="AG2" s="282"/>
     </row>
     <row r="3" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="283" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="179"/>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="179"/>
-      <c r="AG3" s="180"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="284"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="284"/>
+      <c r="M3" s="284"/>
+      <c r="N3" s="284"/>
+      <c r="O3" s="284"/>
+      <c r="P3" s="284"/>
+      <c r="Q3" s="284"/>
+      <c r="R3" s="284"/>
+      <c r="S3" s="284"/>
+      <c r="T3" s="284"/>
+      <c r="U3" s="284"/>
+      <c r="V3" s="284"/>
+      <c r="W3" s="284"/>
+      <c r="X3" s="284"/>
+      <c r="Y3" s="284"/>
+      <c r="Z3" s="284"/>
+      <c r="AA3" s="285"/>
+      <c r="AB3" s="286"/>
+      <c r="AC3" s="287"/>
+      <c r="AD3" s="287"/>
+      <c r="AE3" s="287"/>
+      <c r="AF3" s="287"/>
+      <c r="AG3" s="288"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="289" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="155"/>
-      <c r="Z4" s="155"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="160" t="s">
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="290"/>
+      <c r="M4" s="290"/>
+      <c r="N4" s="290"/>
+      <c r="O4" s="290"/>
+      <c r="P4" s="290"/>
+      <c r="Q4" s="290"/>
+      <c r="R4" s="290"/>
+      <c r="S4" s="290"/>
+      <c r="T4" s="290"/>
+      <c r="U4" s="290"/>
+      <c r="V4" s="290"/>
+      <c r="W4" s="290"/>
+      <c r="X4" s="290"/>
+      <c r="Y4" s="290"/>
+      <c r="Z4" s="290"/>
+      <c r="AA4" s="291"/>
+      <c r="AB4" s="295" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="162"/>
+      <c r="AC4" s="296"/>
+      <c r="AD4" s="296"/>
+      <c r="AE4" s="296"/>
+      <c r="AF4" s="296"/>
+      <c r="AG4" s="297"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="154"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="155"/>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="155"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="156"/>
-      <c r="AB5" s="163" t="s">
+      <c r="A5" s="289"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="290"/>
+      <c r="J5" s="290"/>
+      <c r="K5" s="290"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="290"/>
+      <c r="N5" s="290"/>
+      <c r="O5" s="290"/>
+      <c r="P5" s="290"/>
+      <c r="Q5" s="290"/>
+      <c r="R5" s="290"/>
+      <c r="S5" s="290"/>
+      <c r="T5" s="290"/>
+      <c r="U5" s="290"/>
+      <c r="V5" s="290"/>
+      <c r="W5" s="290"/>
+      <c r="X5" s="290"/>
+      <c r="Y5" s="290"/>
+      <c r="Z5" s="290"/>
+      <c r="AA5" s="291"/>
+      <c r="AB5" s="298" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="165"/>
+      <c r="AC5" s="299"/>
+      <c r="AD5" s="299"/>
+      <c r="AE5" s="299"/>
+      <c r="AF5" s="299"/>
+      <c r="AG5" s="300"/>
     </row>
     <row r="6" spans="1:41" ht="15.6" customHeight="1">
-      <c r="A6" s="157"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="158"/>
-      <c r="S6" s="158"/>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="158"/>
-      <c r="Y6" s="158"/>
-      <c r="Z6" s="158"/>
-      <c r="AA6" s="159"/>
-      <c r="AB6" s="166"/>
-      <c r="AC6" s="166"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="166"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="167"/>
+      <c r="A6" s="292"/>
+      <c r="B6" s="293"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="293"/>
+      <c r="G6" s="293"/>
+      <c r="H6" s="293"/>
+      <c r="I6" s="293"/>
+      <c r="J6" s="293"/>
+      <c r="K6" s="293"/>
+      <c r="L6" s="293"/>
+      <c r="M6" s="293"/>
+      <c r="N6" s="293"/>
+      <c r="O6" s="293"/>
+      <c r="P6" s="293"/>
+      <c r="Q6" s="293"/>
+      <c r="R6" s="293"/>
+      <c r="S6" s="293"/>
+      <c r="T6" s="293"/>
+      <c r="U6" s="293"/>
+      <c r="V6" s="293"/>
+      <c r="W6" s="293"/>
+      <c r="X6" s="293"/>
+      <c r="Y6" s="293"/>
+      <c r="Z6" s="293"/>
+      <c r="AA6" s="294"/>
+      <c r="AB6" s="301"/>
+      <c r="AC6" s="301"/>
+      <c r="AD6" s="301"/>
+      <c r="AE6" s="301"/>
+      <c r="AF6" s="301"/>
+      <c r="AG6" s="302"/>
     </row>
     <row r="7" spans="1:41" s="84" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="303" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="183"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="305"/>
       <c r="D7" s="90"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="200"/>
-      <c r="W7" s="200"/>
-      <c r="X7" s="200"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="200"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="200"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="200"/>
-      <c r="AF7" s="200"/>
-      <c r="AG7" s="201"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="169"/>
+      <c r="T7" s="169"/>
+      <c r="U7" s="169"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="169"/>
+      <c r="Y7" s="169"/>
+      <c r="Z7" s="169"/>
+      <c r="AA7" s="169"/>
+      <c r="AB7" s="169"/>
+      <c r="AC7" s="169"/>
+      <c r="AD7" s="169"/>
+      <c r="AE7" s="169"/>
+      <c r="AF7" s="169"/>
+      <c r="AG7" s="170"/>
       <c r="AH7" s="87"/>
     </row>
     <row r="8" spans="1:41" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="186"/>
+      <c r="A8" s="306"/>
+      <c r="B8" s="307"/>
+      <c r="C8" s="308"/>
       <c r="D8" s="88"/>
       <c r="E8" s="92"/>
       <c r="F8" s="93"/>
@@ -2809,26 +2848,26 @@
       <c r="AH8" s="87"/>
     </row>
     <row r="9" spans="1:41" s="84" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="187"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
+      <c r="A9" s="309"/>
+      <c r="B9" s="310"/>
+      <c r="C9" s="311"/>
       <c r="D9" s="89"/>
       <c r="E9" s="96"/>
       <c r="F9" s="97"/>
       <c r="G9" s="97"/>
       <c r="H9" s="97"/>
       <c r="I9" s="89"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
       <c r="N9" s="97"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="194"/>
-      <c r="T9" s="194"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="158"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
       <c r="U9" s="93"/>
       <c r="V9" s="93"/>
       <c r="W9" s="93"/>
@@ -2845,108 +2884,108 @@
       <c r="AH9" s="87"/>
     </row>
     <row r="10" spans="1:41" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="303" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
+      <c r="B10" s="304"/>
+      <c r="C10" s="305"/>
       <c r="D10" s="99"/>
-      <c r="E10" s="195" t="s">
+      <c r="E10" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="196"/>
-      <c r="O10" s="196"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="190" t="s">
+      <c r="F10" s="316"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="316"/>
+      <c r="I10" s="316"/>
+      <c r="J10" s="316"/>
+      <c r="K10" s="316"/>
+      <c r="L10" s="316"/>
+      <c r="M10" s="316"/>
+      <c r="N10" s="316"/>
+      <c r="O10" s="316"/>
+      <c r="P10" s="316"/>
+      <c r="Q10" s="316"/>
+      <c r="R10" s="316"/>
+      <c r="S10" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="192"/>
-      <c r="AB10" s="221" t="s">
+      <c r="T10" s="313"/>
+      <c r="U10" s="313"/>
+      <c r="V10" s="313"/>
+      <c r="W10" s="313"/>
+      <c r="X10" s="313"/>
+      <c r="Y10" s="313"/>
+      <c r="Z10" s="313"/>
+      <c r="AA10" s="314"/>
+      <c r="AB10" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="221"/>
-      <c r="AD10" s="221"/>
-      <c r="AE10" s="221"/>
-      <c r="AF10" s="221"/>
-      <c r="AG10" s="222"/>
+      <c r="AC10" s="250"/>
+      <c r="AD10" s="250"/>
+      <c r="AE10" s="250"/>
+      <c r="AF10" s="250"/>
+      <c r="AG10" s="251"/>
       <c r="AH10" s="86"/>
     </row>
     <row r="11" spans="1:41" s="84" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="184"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="186"/>
+      <c r="A11" s="306"/>
+      <c r="B11" s="307"/>
+      <c r="C11" s="308"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="198"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="223"/>
-      <c r="T11" s="224"/>
-      <c r="U11" s="224"/>
-      <c r="V11" s="224"/>
-      <c r="W11" s="224"/>
-      <c r="X11" s="224"/>
-      <c r="Y11" s="224"/>
-      <c r="Z11" s="224"/>
-      <c r="AA11" s="225"/>
-      <c r="AB11" s="194"/>
-      <c r="AC11" s="194"/>
-      <c r="AD11" s="194"/>
-      <c r="AE11" s="194"/>
-      <c r="AF11" s="194"/>
-      <c r="AG11" s="226"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="318"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="318"/>
+      <c r="I11" s="318"/>
+      <c r="J11" s="318"/>
+      <c r="K11" s="318"/>
+      <c r="L11" s="318"/>
+      <c r="M11" s="318"/>
+      <c r="N11" s="318"/>
+      <c r="O11" s="318"/>
+      <c r="P11" s="318"/>
+      <c r="Q11" s="318"/>
+      <c r="R11" s="318"/>
+      <c r="S11" s="252"/>
+      <c r="T11" s="253"/>
+      <c r="U11" s="253"/>
+      <c r="V11" s="253"/>
+      <c r="W11" s="253"/>
+      <c r="X11" s="253"/>
+      <c r="Y11" s="253"/>
+      <c r="Z11" s="253"/>
+      <c r="AA11" s="254"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="156"/>
+      <c r="AG11" s="157"/>
       <c r="AH11" s="87"/>
     </row>
     <row r="12" spans="1:41" s="84" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="215" t="s">
+      <c r="A12" s="244" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="216"/>
-      <c r="C12" s="217"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="246"/>
       <c r="D12" s="88"/>
-      <c r="E12" s="234" t="s">
+      <c r="E12" s="262" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="235"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="235"/>
-      <c r="O12" s="235"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="235"/>
-      <c r="R12" s="235"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="263"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="263"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="263"/>
+      <c r="Q12" s="263"/>
+      <c r="R12" s="263"/>
       <c r="S12" s="91"/>
       <c r="T12" s="91"/>
       <c r="U12" s="91"/>
@@ -2966,24 +3005,24 @@
       <c r="AO12" s="152"/>
     </row>
     <row r="13" spans="1:41" s="84" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="218"/>
-      <c r="B13" s="219"/>
-      <c r="C13" s="220"/>
+      <c r="A13" s="247"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="249"/>
       <c r="D13" s="89"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="237"/>
-      <c r="H13" s="237"/>
-      <c r="I13" s="237"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="237"/>
-      <c r="M13" s="237"/>
-      <c r="N13" s="237"/>
-      <c r="O13" s="237"/>
-      <c r="P13" s="237"/>
-      <c r="Q13" s="237"/>
-      <c r="R13" s="237"/>
+      <c r="E13" s="264"/>
+      <c r="F13" s="265"/>
+      <c r="G13" s="265"/>
+      <c r="H13" s="265"/>
+      <c r="I13" s="265"/>
+      <c r="J13" s="265"/>
+      <c r="K13" s="265"/>
+      <c r="L13" s="265"/>
+      <c r="M13" s="265"/>
+      <c r="N13" s="265"/>
+      <c r="O13" s="265"/>
+      <c r="P13" s="265"/>
+      <c r="Q13" s="265"/>
+      <c r="R13" s="265"/>
       <c r="S13" s="97"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97"/>
@@ -3002,68 +3041,68 @@
       <c r="AH13" s="100"/>
     </row>
     <row r="14" spans="1:41" s="102" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A14" s="227" t="s">
+      <c r="A14" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="228"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="228"/>
-      <c r="E14" s="228"/>
-      <c r="F14" s="228"/>
-      <c r="G14" s="228"/>
-      <c r="H14" s="228"/>
-      <c r="I14" s="228"/>
-      <c r="J14" s="228"/>
-      <c r="K14" s="228"/>
-      <c r="L14" s="228"/>
-      <c r="M14" s="228"/>
-      <c r="N14" s="228"/>
-      <c r="O14" s="228"/>
-      <c r="P14" s="228"/>
-      <c r="Q14" s="229"/>
-      <c r="R14" s="230" t="s">
+      <c r="B14" s="256"/>
+      <c r="C14" s="256"/>
+      <c r="D14" s="256"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="256"/>
+      <c r="K14" s="256"/>
+      <c r="L14" s="256"/>
+      <c r="M14" s="256"/>
+      <c r="N14" s="256"/>
+      <c r="O14" s="256"/>
+      <c r="P14" s="256"/>
+      <c r="Q14" s="257"/>
+      <c r="R14" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="231"/>
-      <c r="T14" s="231"/>
-      <c r="U14" s="231"/>
-      <c r="V14" s="232"/>
-      <c r="W14" s="230" t="s">
+      <c r="S14" s="259"/>
+      <c r="T14" s="259"/>
+      <c r="U14" s="259"/>
+      <c r="V14" s="260"/>
+      <c r="W14" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="228"/>
-      <c r="Y14" s="228"/>
-      <c r="Z14" s="228"/>
-      <c r="AA14" s="229"/>
-      <c r="AB14" s="230" t="s">
+      <c r="X14" s="256"/>
+      <c r="Y14" s="256"/>
+      <c r="Z14" s="256"/>
+      <c r="AA14" s="257"/>
+      <c r="AB14" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="AC14" s="228"/>
-      <c r="AD14" s="228"/>
-      <c r="AE14" s="228"/>
-      <c r="AF14" s="228"/>
-      <c r="AG14" s="233"/>
+      <c r="AC14" s="256"/>
+      <c r="AD14" s="256"/>
+      <c r="AE14" s="256"/>
+      <c r="AF14" s="256"/>
+      <c r="AG14" s="261"/>
       <c r="AH14" s="101"/>
     </row>
     <row r="15" spans="1:41" s="84" customFormat="1" ht="14.45" customHeight="1">
       <c r="A15" s="103"/>
-      <c r="B15" s="202" t="s">
+      <c r="B15" s="266" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="202"/>
-      <c r="O15" s="202"/>
-      <c r="P15" s="202"/>
+      <c r="C15" s="266"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="266"/>
+      <c r="H15" s="266"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="266"/>
+      <c r="K15" s="266"/>
+      <c r="L15" s="266"/>
+      <c r="M15" s="266"/>
+      <c r="N15" s="266"/>
+      <c r="O15" s="266"/>
+      <c r="P15" s="266"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="24"/>
       <c r="S15"/>
@@ -3075,33 +3114,33 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15" s="25"/>
-      <c r="AB15" s="203"/>
-      <c r="AC15" s="204"/>
-      <c r="AD15" s="204"/>
-      <c r="AE15" s="204"/>
-      <c r="AF15" s="204"/>
-      <c r="AG15" s="205"/>
+      <c r="AB15" s="267"/>
+      <c r="AC15" s="268"/>
+      <c r="AD15" s="268"/>
+      <c r="AE15" s="268"/>
+      <c r="AF15" s="268"/>
+      <c r="AG15" s="269"/>
       <c r="AH15" s="87"/>
     </row>
     <row r="16" spans="1:41" s="84" customFormat="1" ht="78" customHeight="1">
       <c r="A16" s="103"/>
-      <c r="B16" s="202" t="s">
+      <c r="B16" s="266" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="202"/>
-      <c r="N16" s="202"/>
-      <c r="O16" s="202"/>
-      <c r="P16" s="202"/>
+      <c r="C16" s="266"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="266"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="266"/>
+      <c r="L16" s="266"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="266"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="24"/>
       <c r="S16"/>
@@ -3123,23 +3162,23 @@
     </row>
     <row r="17" spans="1:35" s="84" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="103"/>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="155"/>
+      <c r="P17" s="155"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="24"/>
       <c r="S17"/>
@@ -3161,23 +3200,23 @@
     </row>
     <row r="18" spans="1:35" ht="14.25" customHeight="1">
       <c r="A18" s="103"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="24"/>
       <c r="S18"/>
@@ -3199,23 +3238,23 @@
     </row>
     <row r="19" spans="1:35" ht="14.25" customHeight="1">
       <c r="A19" s="103"/>
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="24"/>
       <c r="S19"/>
@@ -3237,23 +3276,23 @@
     </row>
     <row r="20" spans="1:35" ht="14.25" customHeight="1">
       <c r="A20" s="103"/>
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="155"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="24"/>
       <c r="S20"/>
@@ -3275,23 +3314,23 @@
     </row>
     <row r="21" spans="1:35" ht="14.25" customHeight="1">
       <c r="A21" s="103"/>
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="155"/>
+      <c r="P21" s="155"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="24"/>
       <c r="S21"/>
@@ -3313,23 +3352,23 @@
     </row>
     <row r="22" spans="1:35" ht="14.25" customHeight="1">
       <c r="A22" s="103"/>
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="24"/>
       <c r="S22"/>
@@ -3351,23 +3390,23 @@
     </row>
     <row r="23" spans="1:35" ht="14.25" customHeight="1">
       <c r="A23" s="103"/>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="155"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="24"/>
       <c r="S23"/>
@@ -3389,23 +3428,23 @@
     </row>
     <row r="24" spans="1:35" ht="14.25" customHeight="1">
       <c r="A24" s="103"/>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="155"/>
       <c r="Q24" s="25"/>
       <c r="R24" s="24"/>
       <c r="S24"/>
@@ -3427,23 +3466,23 @@
     </row>
     <row r="25" spans="1:35" ht="14.25" customHeight="1">
       <c r="A25" s="103"/>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="155"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="24"/>
       <c r="S25"/>
@@ -3465,23 +3504,23 @@
     </row>
     <row r="26" spans="1:35" ht="14.25" customHeight="1">
       <c r="A26" s="103"/>
-      <c r="B26" s="153" t="s">
+      <c r="B26" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="24"/>
       <c r="S26"/>
@@ -3503,23 +3542,23 @@
     </row>
     <row r="27" spans="1:35" ht="14.25" customHeight="1">
       <c r="A27" s="103"/>
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="155"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="24"/>
       <c r="S27"/>
@@ -3541,21 +3580,21 @@
     </row>
     <row r="28" spans="1:35" s="84" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="103"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="155"/>
       <c r="Q28" s="25"/>
       <c r="R28" s="24"/>
       <c r="S28"/>
@@ -3577,23 +3616,23 @@
     </row>
     <row r="29" spans="1:35" s="84" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="103"/>
-      <c r="B29" s="202" t="s">
+      <c r="B29" s="266" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="202"/>
-      <c r="K29" s="202"/>
-      <c r="L29" s="202"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="202"/>
-      <c r="O29" s="202"/>
-      <c r="P29" s="202"/>
+      <c r="C29" s="266"/>
+      <c r="D29" s="266"/>
+      <c r="E29" s="266"/>
+      <c r="F29" s="266"/>
+      <c r="G29" s="266"/>
+      <c r="H29" s="266"/>
+      <c r="I29" s="266"/>
+      <c r="J29" s="266"/>
+      <c r="K29" s="266"/>
+      <c r="L29" s="266"/>
+      <c r="M29" s="266"/>
+      <c r="N29" s="266"/>
+      <c r="O29" s="266"/>
+      <c r="P29" s="266"/>
       <c r="Q29" s="25"/>
       <c r="R29" s="24"/>
       <c r="S29"/>
@@ -3614,25 +3653,25 @@
       <c r="AH29" s="87"/>
     </row>
     <row r="30" spans="1:35" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="209" t="s">
+      <c r="A30" s="273" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="210"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="210"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="210"/>
-      <c r="K30" s="210"/>
-      <c r="L30" s="210"/>
-      <c r="M30" s="210"/>
-      <c r="N30" s="210"/>
-      <c r="O30" s="210"/>
-      <c r="P30" s="210"/>
-      <c r="Q30" s="211"/>
+      <c r="B30" s="274"/>
+      <c r="C30" s="274"/>
+      <c r="D30" s="274"/>
+      <c r="E30" s="274"/>
+      <c r="F30" s="274"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="274"/>
+      <c r="I30" s="274"/>
+      <c r="J30" s="274"/>
+      <c r="K30" s="274"/>
+      <c r="L30" s="274"/>
+      <c r="M30" s="274"/>
+      <c r="N30" s="274"/>
+      <c r="O30" s="274"/>
+      <c r="P30" s="274"/>
+      <c r="Q30" s="275"/>
       <c r="R30" s="104"/>
       <c r="S30" s="105"/>
       <c r="T30" s="105"/>
@@ -3643,15 +3682,15 @@
       <c r="Y30" s="105"/>
       <c r="Z30" s="105"/>
       <c r="AA30" s="25"/>
-      <c r="AB30" s="206">
+      <c r="AB30" s="270">
         <f>SUM(AB15:AG29)</f>
         <v>0</v>
       </c>
-      <c r="AC30" s="207"/>
-      <c r="AD30" s="207"/>
-      <c r="AE30" s="207"/>
-      <c r="AF30" s="207"/>
-      <c r="AG30" s="208"/>
+      <c r="AC30" s="271"/>
+      <c r="AD30" s="271"/>
+      <c r="AE30" s="271"/>
+      <c r="AF30" s="271"/>
+      <c r="AG30" s="272"/>
       <c r="AH30" s="87"/>
       <c r="AI30" s="107"/>
     </row>
@@ -3659,40 +3698,40 @@
       <c r="A31" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="212" t="s">
+      <c r="B31" s="241" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="212"/>
-      <c r="D31" s="212"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="212"/>
-      <c r="K31" s="212"/>
-      <c r="L31" s="212"/>
-      <c r="M31" s="212"/>
-      <c r="N31" s="212"/>
-      <c r="O31" s="212"/>
-      <c r="P31" s="212"/>
-      <c r="Q31" s="212"/>
-      <c r="R31" s="212"/>
-      <c r="S31" s="212"/>
-      <c r="T31" s="212"/>
-      <c r="U31" s="212"/>
-      <c r="V31" s="212"/>
-      <c r="W31" s="212"/>
-      <c r="X31" s="212"/>
-      <c r="Y31" s="212"/>
-      <c r="Z31" s="212"/>
-      <c r="AA31" s="212"/>
-      <c r="AB31" s="213"/>
-      <c r="AC31" s="213"/>
-      <c r="AD31" s="213"/>
-      <c r="AE31" s="213"/>
-      <c r="AF31" s="213"/>
-      <c r="AG31" s="214"/>
+      <c r="C31" s="241"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="241"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="241"/>
+      <c r="H31" s="241"/>
+      <c r="I31" s="241"/>
+      <c r="J31" s="241"/>
+      <c r="K31" s="241"/>
+      <c r="L31" s="241"/>
+      <c r="M31" s="241"/>
+      <c r="N31" s="241"/>
+      <c r="O31" s="241"/>
+      <c r="P31" s="241"/>
+      <c r="Q31" s="241"/>
+      <c r="R31" s="241"/>
+      <c r="S31" s="241"/>
+      <c r="T31" s="241"/>
+      <c r="U31" s="241"/>
+      <c r="V31" s="241"/>
+      <c r="W31" s="241"/>
+      <c r="X31" s="241"/>
+      <c r="Y31" s="241"/>
+      <c r="Z31" s="241"/>
+      <c r="AA31" s="241"/>
+      <c r="AB31" s="242"/>
+      <c r="AC31" s="242"/>
+      <c r="AD31" s="242"/>
+      <c r="AE31" s="242"/>
+      <c r="AF31" s="242"/>
+      <c r="AG31" s="243"/>
       <c r="AH31" s="87"/>
       <c r="AI31" s="107"/>
     </row>
@@ -3737,78 +3776,78 @@
     </row>
     <row r="33" spans="1:35" s="84" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="109"/>
-      <c r="B33" s="238" t="s">
+      <c r="B33" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="239"/>
-      <c r="D33" s="239"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="239"/>
-      <c r="G33" s="239"/>
-      <c r="H33" s="239"/>
-      <c r="I33" s="239"/>
-      <c r="J33" s="239"/>
-      <c r="K33" s="239"/>
-      <c r="L33" s="239"/>
-      <c r="M33" s="239"/>
-      <c r="N33" s="239"/>
-      <c r="O33" s="239"/>
-      <c r="P33" s="239"/>
-      <c r="Q33" s="239"/>
-      <c r="R33" s="239"/>
-      <c r="S33" s="239"/>
-      <c r="T33" s="239"/>
-      <c r="U33" s="239"/>
-      <c r="V33" s="239"/>
-      <c r="W33" s="239"/>
-      <c r="X33" s="239"/>
-      <c r="Y33" s="239"/>
-      <c r="Z33" s="239"/>
-      <c r="AA33" s="239"/>
-      <c r="AB33" s="239"/>
-      <c r="AC33" s="239"/>
-      <c r="AD33" s="239"/>
-      <c r="AE33" s="239"/>
-      <c r="AF33" s="239"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="233"/>
+      <c r="G33" s="233"/>
+      <c r="H33" s="233"/>
+      <c r="I33" s="233"/>
+      <c r="J33" s="233"/>
+      <c r="K33" s="233"/>
+      <c r="L33" s="233"/>
+      <c r="M33" s="233"/>
+      <c r="N33" s="233"/>
+      <c r="O33" s="233"/>
+      <c r="P33" s="233"/>
+      <c r="Q33" s="233"/>
+      <c r="R33" s="233"/>
+      <c r="S33" s="233"/>
+      <c r="T33" s="233"/>
+      <c r="U33" s="233"/>
+      <c r="V33" s="233"/>
+      <c r="W33" s="233"/>
+      <c r="X33" s="233"/>
+      <c r="Y33" s="233"/>
+      <c r="Z33" s="233"/>
+      <c r="AA33" s="233"/>
+      <c r="AB33" s="233"/>
+      <c r="AC33" s="233"/>
+      <c r="AD33" s="233"/>
+      <c r="AE33" s="233"/>
+      <c r="AF33" s="233"/>
       <c r="AG33" s="113"/>
       <c r="AH33" s="87"/>
       <c r="AI33" s="107"/>
     </row>
     <row r="34" spans="1:35" s="84" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="109"/>
-      <c r="B34" s="240" t="s">
+      <c r="B34" s="234" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="240"/>
-      <c r="D34" s="240"/>
-      <c r="E34" s="240"/>
-      <c r="F34" s="240"/>
-      <c r="G34" s="240"/>
-      <c r="H34" s="240"/>
-      <c r="I34" s="240"/>
-      <c r="J34" s="240"/>
-      <c r="K34" s="240"/>
-      <c r="L34" s="240"/>
-      <c r="M34" s="240"/>
-      <c r="N34" s="240"/>
-      <c r="O34" s="240"/>
-      <c r="P34" s="240"/>
-      <c r="Q34" s="240"/>
-      <c r="R34" s="240"/>
-      <c r="S34" s="240"/>
-      <c r="T34" s="240"/>
-      <c r="U34" s="240"/>
-      <c r="V34" s="240"/>
-      <c r="W34" s="240"/>
-      <c r="X34" s="240"/>
-      <c r="Y34" s="240"/>
-      <c r="Z34" s="240"/>
-      <c r="AA34" s="240"/>
-      <c r="AB34" s="240"/>
-      <c r="AC34" s="240"/>
-      <c r="AD34" s="240"/>
-      <c r="AE34" s="240"/>
-      <c r="AF34" s="240"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="234"/>
+      <c r="G34" s="234"/>
+      <c r="H34" s="234"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="234"/>
+      <c r="K34" s="234"/>
+      <c r="L34" s="234"/>
+      <c r="M34" s="234"/>
+      <c r="N34" s="234"/>
+      <c r="O34" s="234"/>
+      <c r="P34" s="234"/>
+      <c r="Q34" s="234"/>
+      <c r="R34" s="234"/>
+      <c r="S34" s="234"/>
+      <c r="T34" s="234"/>
+      <c r="U34" s="234"/>
+      <c r="V34" s="234"/>
+      <c r="W34" s="234"/>
+      <c r="X34" s="234"/>
+      <c r="Y34" s="234"/>
+      <c r="Z34" s="234"/>
+      <c r="AA34" s="234"/>
+      <c r="AB34" s="234"/>
+      <c r="AC34" s="234"/>
+      <c r="AD34" s="234"/>
+      <c r="AE34" s="234"/>
+      <c r="AF34" s="234"/>
       <c r="AG34" s="113"/>
       <c r="AH34" s="87"/>
       <c r="AI34" s="107"/>
@@ -3825,19 +3864,19 @@
       <c r="I35" s="88"/>
       <c r="J35" s="88"/>
       <c r="K35" s="88"/>
-      <c r="L35" s="241"/>
-      <c r="M35" s="241"/>
-      <c r="N35" s="241"/>
-      <c r="O35" s="241"/>
-      <c r="P35" s="241"/>
-      <c r="Q35" s="241"/>
-      <c r="R35" s="241"/>
-      <c r="S35" s="241"/>
-      <c r="T35" s="241"/>
-      <c r="U35" s="241"/>
-      <c r="V35" s="241"/>
-      <c r="W35" s="241"/>
-      <c r="X35" s="241"/>
+      <c r="L35" s="235"/>
+      <c r="M35" s="235"/>
+      <c r="N35" s="235"/>
+      <c r="O35" s="235"/>
+      <c r="P35" s="235"/>
+      <c r="Q35" s="235"/>
+      <c r="R35" s="235"/>
+      <c r="S35" s="235"/>
+      <c r="T35" s="235"/>
+      <c r="U35" s="235"/>
+      <c r="V35" s="235"/>
+      <c r="W35" s="235"/>
+      <c r="X35" s="235"/>
       <c r="Y35" s="93"/>
       <c r="Z35" s="111"/>
       <c r="AA35" s="111"/>
@@ -3862,19 +3901,19 @@
       <c r="I36" s="88"/>
       <c r="J36" s="88"/>
       <c r="K36" s="88"/>
-      <c r="L36" s="241"/>
-      <c r="M36" s="241"/>
-      <c r="N36" s="241"/>
-      <c r="O36" s="241"/>
-      <c r="P36" s="241"/>
-      <c r="Q36" s="241"/>
-      <c r="R36" s="241"/>
-      <c r="S36" s="241"/>
-      <c r="T36" s="241"/>
-      <c r="U36" s="241"/>
-      <c r="V36" s="241"/>
-      <c r="W36" s="241"/>
-      <c r="X36" s="241"/>
+      <c r="L36" s="235"/>
+      <c r="M36" s="235"/>
+      <c r="N36" s="235"/>
+      <c r="O36" s="235"/>
+      <c r="P36" s="235"/>
+      <c r="Q36" s="235"/>
+      <c r="R36" s="235"/>
+      <c r="S36" s="235"/>
+      <c r="T36" s="235"/>
+      <c r="U36" s="235"/>
+      <c r="V36" s="235"/>
+      <c r="W36" s="235"/>
+      <c r="X36" s="235"/>
       <c r="Y36" s="88"/>
       <c r="Z36" s="88"/>
       <c r="AA36" s="88"/>
@@ -3929,47 +3968,47 @@
       <c r="AI37" s="107"/>
     </row>
     <row r="38" spans="1:35" s="84" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="242" t="s">
+      <c r="A38" s="236" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="243"/>
-      <c r="C38" s="243"/>
-      <c r="D38" s="243"/>
-      <c r="E38" s="243"/>
-      <c r="F38" s="243"/>
-      <c r="G38" s="243"/>
-      <c r="H38" s="243"/>
-      <c r="I38" s="243"/>
-      <c r="J38" s="243"/>
-      <c r="K38" s="243"/>
-      <c r="L38" s="243"/>
-      <c r="M38" s="243"/>
-      <c r="N38" s="243"/>
-      <c r="O38" s="243"/>
-      <c r="P38" s="243"/>
-      <c r="Q38" s="243"/>
-      <c r="R38" s="243"/>
-      <c r="S38" s="243" t="s">
+      <c r="B38" s="237"/>
+      <c r="C38" s="237"/>
+      <c r="D38" s="237"/>
+      <c r="E38" s="237"/>
+      <c r="F38" s="237"/>
+      <c r="G38" s="237"/>
+      <c r="H38" s="237"/>
+      <c r="I38" s="237"/>
+      <c r="J38" s="237"/>
+      <c r="K38" s="237"/>
+      <c r="L38" s="237"/>
+      <c r="M38" s="237"/>
+      <c r="N38" s="237"/>
+      <c r="O38" s="237"/>
+      <c r="P38" s="237"/>
+      <c r="Q38" s="237"/>
+      <c r="R38" s="237"/>
+      <c r="S38" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="T38" s="243"/>
-      <c r="U38" s="243"/>
-      <c r="V38" s="243"/>
-      <c r="W38" s="243"/>
-      <c r="X38" s="244" t="s">
+      <c r="T38" s="237"/>
+      <c r="U38" s="237"/>
+      <c r="V38" s="237"/>
+      <c r="W38" s="237"/>
+      <c r="X38" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="Y38" s="244"/>
-      <c r="Z38" s="244"/>
-      <c r="AA38" s="244"/>
-      <c r="AB38" s="244"/>
-      <c r="AC38" s="245" t="s">
+      <c r="Y38" s="238"/>
+      <c r="Z38" s="238"/>
+      <c r="AA38" s="238"/>
+      <c r="AB38" s="238"/>
+      <c r="AC38" s="239" t="s">
         <v>47</v>
       </c>
-      <c r="AD38" s="245"/>
-      <c r="AE38" s="245"/>
-      <c r="AF38" s="245"/>
-      <c r="AG38" s="246"/>
+      <c r="AD38" s="239"/>
+      <c r="AE38" s="239"/>
+      <c r="AF38" s="239"/>
+      <c r="AG38" s="240"/>
       <c r="AH38" s="87"/>
       <c r="AI38" s="107"/>
     </row>
@@ -4108,19 +4147,19 @@
       <c r="S42" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="T42" s="247" t="s">
+      <c r="T42" s="221" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="247"/>
-      <c r="V42" s="247"/>
-      <c r="W42" s="247"/>
-      <c r="X42" s="247"/>
-      <c r="Y42" s="247"/>
-      <c r="Z42" s="247"/>
-      <c r="AA42" s="247"/>
-      <c r="AB42" s="247"/>
-      <c r="AC42" s="247"/>
-      <c r="AD42" s="247"/>
+      <c r="U42" s="221"/>
+      <c r="V42" s="221"/>
+      <c r="W42" s="221"/>
+      <c r="X42" s="221"/>
+      <c r="Y42" s="221"/>
+      <c r="Z42" s="221"/>
+      <c r="AA42" s="221"/>
+      <c r="AB42" s="221"/>
+      <c r="AC42" s="221"/>
+      <c r="AD42" s="221"/>
       <c r="AE42" s="134"/>
       <c r="AF42" s="134"/>
       <c r="AG42" s="135"/>
@@ -4147,31 +4186,31 @@
       <c r="P43" s="88"/>
       <c r="Q43" s="88"/>
       <c r="R43" s="115"/>
-      <c r="S43" s="248"/>
-      <c r="T43" s="249"/>
-      <c r="U43" s="249"/>
-      <c r="V43" s="249"/>
-      <c r="W43" s="249"/>
-      <c r="X43" s="249"/>
-      <c r="Y43" s="249"/>
-      <c r="Z43" s="249"/>
-      <c r="AA43" s="249"/>
-      <c r="AB43" s="249"/>
-      <c r="AC43" s="249"/>
-      <c r="AD43" s="249"/>
-      <c r="AE43" s="249"/>
-      <c r="AF43" s="249"/>
-      <c r="AG43" s="250"/>
+      <c r="S43" s="222"/>
+      <c r="T43" s="223"/>
+      <c r="U43" s="223"/>
+      <c r="V43" s="223"/>
+      <c r="W43" s="223"/>
+      <c r="X43" s="223"/>
+      <c r="Y43" s="223"/>
+      <c r="Z43" s="223"/>
+      <c r="AA43" s="223"/>
+      <c r="AB43" s="223"/>
+      <c r="AC43" s="223"/>
+      <c r="AD43" s="223"/>
+      <c r="AE43" s="223"/>
+      <c r="AF43" s="223"/>
+      <c r="AG43" s="224"/>
       <c r="AH43" s="87"/>
     </row>
     <row r="44" spans="1:35" s="84" customFormat="1" ht="4.5" customHeight="1">
-      <c r="A44" s="254"/>
-      <c r="B44" s="194"/>
-      <c r="C44" s="194"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
+      <c r="A44" s="228"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
       <c r="H44" s="88"/>
       <c r="I44" s="88"/>
       <c r="J44" s="88"/>
@@ -4183,21 +4222,21 @@
       <c r="P44" s="88"/>
       <c r="Q44" s="88"/>
       <c r="R44" s="115"/>
-      <c r="S44" s="251"/>
-      <c r="T44" s="252"/>
-      <c r="U44" s="252"/>
-      <c r="V44" s="252"/>
-      <c r="W44" s="252"/>
-      <c r="X44" s="252"/>
-      <c r="Y44" s="252"/>
-      <c r="Z44" s="252"/>
-      <c r="AA44" s="252"/>
-      <c r="AB44" s="252"/>
-      <c r="AC44" s="252"/>
-      <c r="AD44" s="252"/>
-      <c r="AE44" s="252"/>
-      <c r="AF44" s="252"/>
-      <c r="AG44" s="253"/>
+      <c r="S44" s="225"/>
+      <c r="T44" s="226"/>
+      <c r="U44" s="226"/>
+      <c r="V44" s="226"/>
+      <c r="W44" s="226"/>
+      <c r="X44" s="226"/>
+      <c r="Y44" s="226"/>
+      <c r="Z44" s="226"/>
+      <c r="AA44" s="226"/>
+      <c r="AB44" s="226"/>
+      <c r="AC44" s="226"/>
+      <c r="AD44" s="226"/>
+      <c r="AE44" s="226"/>
+      <c r="AF44" s="226"/>
+      <c r="AG44" s="227"/>
       <c r="AH44" s="87"/>
     </row>
     <row r="45" spans="1:35" s="84" customFormat="1" ht="11.25" customHeight="1">
@@ -4221,57 +4260,57 @@
       <c r="P45" s="88"/>
       <c r="Q45" s="88"/>
       <c r="R45" s="115"/>
-      <c r="S45" s="251"/>
-      <c r="T45" s="252"/>
-      <c r="U45" s="252"/>
-      <c r="V45" s="252"/>
-      <c r="W45" s="252"/>
-      <c r="X45" s="252"/>
-      <c r="Y45" s="252"/>
-      <c r="Z45" s="252"/>
-      <c r="AA45" s="252"/>
-      <c r="AB45" s="252"/>
-      <c r="AC45" s="252"/>
-      <c r="AD45" s="252"/>
-      <c r="AE45" s="252"/>
-      <c r="AF45" s="252"/>
-      <c r="AG45" s="253"/>
+      <c r="S45" s="225"/>
+      <c r="T45" s="226"/>
+      <c r="U45" s="226"/>
+      <c r="V45" s="226"/>
+      <c r="W45" s="226"/>
+      <c r="X45" s="226"/>
+      <c r="Y45" s="226"/>
+      <c r="Z45" s="226"/>
+      <c r="AA45" s="226"/>
+      <c r="AB45" s="226"/>
+      <c r="AC45" s="226"/>
+      <c r="AD45" s="226"/>
+      <c r="AE45" s="226"/>
+      <c r="AF45" s="226"/>
+      <c r="AG45" s="227"/>
       <c r="AH45" s="87"/>
     </row>
     <row r="46" spans="1:35" s="84" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A46" s="254"/>
-      <c r="B46" s="194"/>
-      <c r="C46" s="194"/>
-      <c r="D46" s="194"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="194"/>
-      <c r="L46" s="194"/>
-      <c r="M46" s="194"/>
-      <c r="N46" s="194"/>
-      <c r="O46" s="194"/>
-      <c r="P46" s="194"/>
-      <c r="Q46" s="194"/>
-      <c r="R46" s="226"/>
-      <c r="S46" s="251"/>
-      <c r="T46" s="252"/>
-      <c r="U46" s="252"/>
-      <c r="V46" s="252"/>
-      <c r="W46" s="252"/>
-      <c r="X46" s="252"/>
-      <c r="Y46" s="252"/>
-      <c r="Z46" s="252"/>
-      <c r="AA46" s="252"/>
-      <c r="AB46" s="252"/>
-      <c r="AC46" s="252"/>
-      <c r="AD46" s="252"/>
-      <c r="AE46" s="252"/>
-      <c r="AF46" s="252"/>
-      <c r="AG46" s="253"/>
+      <c r="A46" s="228"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="156"/>
+      <c r="K46" s="156"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
+      <c r="N46" s="156"/>
+      <c r="O46" s="156"/>
+      <c r="P46" s="156"/>
+      <c r="Q46" s="156"/>
+      <c r="R46" s="157"/>
+      <c r="S46" s="225"/>
+      <c r="T46" s="226"/>
+      <c r="U46" s="226"/>
+      <c r="V46" s="226"/>
+      <c r="W46" s="226"/>
+      <c r="X46" s="226"/>
+      <c r="Y46" s="226"/>
+      <c r="Z46" s="226"/>
+      <c r="AA46" s="226"/>
+      <c r="AB46" s="226"/>
+      <c r="AC46" s="226"/>
+      <c r="AD46" s="226"/>
+      <c r="AE46" s="226"/>
+      <c r="AF46" s="226"/>
+      <c r="AG46" s="227"/>
       <c r="AH46" s="87"/>
     </row>
     <row r="47" spans="1:35" s="84" customFormat="1" ht="11.25" customHeight="1">
@@ -4297,21 +4336,21 @@
       <c r="P47" s="88"/>
       <c r="Q47" s="88"/>
       <c r="R47" s="115"/>
-      <c r="S47" s="251"/>
-      <c r="T47" s="252"/>
-      <c r="U47" s="252"/>
-      <c r="V47" s="252"/>
-      <c r="W47" s="252"/>
-      <c r="X47" s="252"/>
-      <c r="Y47" s="252"/>
-      <c r="Z47" s="252"/>
-      <c r="AA47" s="252"/>
-      <c r="AB47" s="252"/>
-      <c r="AC47" s="252"/>
-      <c r="AD47" s="252"/>
-      <c r="AE47" s="252"/>
-      <c r="AF47" s="252"/>
-      <c r="AG47" s="253"/>
+      <c r="S47" s="225"/>
+      <c r="T47" s="226"/>
+      <c r="U47" s="226"/>
+      <c r="V47" s="226"/>
+      <c r="W47" s="226"/>
+      <c r="X47" s="226"/>
+      <c r="Y47" s="226"/>
+      <c r="Z47" s="226"/>
+      <c r="AA47" s="226"/>
+      <c r="AB47" s="226"/>
+      <c r="AC47" s="226"/>
+      <c r="AD47" s="226"/>
+      <c r="AE47" s="226"/>
+      <c r="AF47" s="226"/>
+      <c r="AG47" s="227"/>
       <c r="AH47" s="87"/>
     </row>
     <row r="48" spans="1:35" s="84" customFormat="1" ht="11.25" customHeight="1">
@@ -4335,333 +4374,333 @@
       <c r="P48" s="88"/>
       <c r="Q48" s="88"/>
       <c r="R48" s="115"/>
-      <c r="S48" s="251"/>
-      <c r="T48" s="252"/>
-      <c r="U48" s="252"/>
-      <c r="V48" s="252"/>
-      <c r="W48" s="252"/>
-      <c r="X48" s="252"/>
-      <c r="Y48" s="252"/>
-      <c r="Z48" s="252"/>
-      <c r="AA48" s="252"/>
-      <c r="AB48" s="252"/>
-      <c r="AC48" s="252"/>
-      <c r="AD48" s="252"/>
-      <c r="AE48" s="252"/>
-      <c r="AF48" s="252"/>
-      <c r="AG48" s="253"/>
+      <c r="S48" s="225"/>
+      <c r="T48" s="226"/>
+      <c r="U48" s="226"/>
+      <c r="V48" s="226"/>
+      <c r="W48" s="226"/>
+      <c r="X48" s="226"/>
+      <c r="Y48" s="226"/>
+      <c r="Z48" s="226"/>
+      <c r="AA48" s="226"/>
+      <c r="AB48" s="226"/>
+      <c r="AC48" s="226"/>
+      <c r="AD48" s="226"/>
+      <c r="AE48" s="226"/>
+      <c r="AF48" s="226"/>
+      <c r="AG48" s="227"/>
       <c r="AH48" s="87"/>
     </row>
     <row r="49" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="255" t="s">
+      <c r="A49" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="256"/>
-      <c r="C49" s="256"/>
-      <c r="D49" s="256"/>
-      <c r="E49" s="259"/>
-      <c r="F49" s="194"/>
-      <c r="G49" s="194"/>
-      <c r="H49" s="194"/>
-      <c r="I49" s="194"/>
-      <c r="J49" s="194"/>
-      <c r="K49" s="194"/>
-      <c r="L49" s="194"/>
-      <c r="M49" s="194"/>
-      <c r="N49" s="194"/>
-      <c r="O49" s="194"/>
-      <c r="P49" s="194"/>
-      <c r="Q49" s="194"/>
-      <c r="R49" s="226"/>
-      <c r="S49" s="255" t="s">
+      <c r="B49" s="229"/>
+      <c r="C49" s="229"/>
+      <c r="D49" s="229"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="156"/>
+      <c r="K49" s="156"/>
+      <c r="L49" s="156"/>
+      <c r="M49" s="156"/>
+      <c r="N49" s="156"/>
+      <c r="O49" s="156"/>
+      <c r="P49" s="156"/>
+      <c r="Q49" s="156"/>
+      <c r="R49" s="157"/>
+      <c r="S49" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="T49" s="263"/>
-      <c r="U49" s="263"/>
-      <c r="V49" s="264"/>
-      <c r="W49" s="268"/>
-      <c r="X49" s="269"/>
-      <c r="Y49" s="269"/>
-      <c r="Z49" s="269"/>
-      <c r="AA49" s="269"/>
-      <c r="AB49" s="269"/>
-      <c r="AC49" s="269"/>
-      <c r="AD49" s="269"/>
-      <c r="AE49" s="269"/>
-      <c r="AF49" s="269"/>
-      <c r="AG49" s="270"/>
+      <c r="T49" s="172"/>
+      <c r="U49" s="172"/>
+      <c r="V49" s="231"/>
+      <c r="W49" s="163"/>
+      <c r="X49" s="164"/>
+      <c r="Y49" s="164"/>
+      <c r="Z49" s="164"/>
+      <c r="AA49" s="164"/>
+      <c r="AB49" s="164"/>
+      <c r="AC49" s="164"/>
+      <c r="AD49" s="164"/>
+      <c r="AE49" s="164"/>
+      <c r="AF49" s="164"/>
+      <c r="AG49" s="165"/>
       <c r="AH49" s="87"/>
     </row>
     <row r="50" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="257"/>
-      <c r="B50" s="258"/>
-      <c r="C50" s="258"/>
-      <c r="D50" s="258"/>
-      <c r="E50" s="260"/>
-      <c r="F50" s="261"/>
-      <c r="G50" s="261"/>
-      <c r="H50" s="261"/>
-      <c r="I50" s="261"/>
-      <c r="J50" s="261"/>
-      <c r="K50" s="261"/>
-      <c r="L50" s="261"/>
-      <c r="M50" s="261"/>
-      <c r="N50" s="261"/>
-      <c r="O50" s="261"/>
-      <c r="P50" s="261"/>
-      <c r="Q50" s="261"/>
-      <c r="R50" s="262"/>
-      <c r="S50" s="265"/>
-      <c r="T50" s="266"/>
-      <c r="U50" s="266"/>
-      <c r="V50" s="267"/>
-      <c r="W50" s="271"/>
-      <c r="X50" s="266"/>
-      <c r="Y50" s="266"/>
-      <c r="Z50" s="266"/>
-      <c r="AA50" s="266"/>
-      <c r="AB50" s="266"/>
-      <c r="AC50" s="266"/>
-      <c r="AD50" s="266"/>
-      <c r="AE50" s="266"/>
-      <c r="AF50" s="266"/>
-      <c r="AG50" s="272"/>
+      <c r="A50" s="195"/>
+      <c r="B50" s="196"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="177"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="177"/>
+      <c r="I50" s="177"/>
+      <c r="J50" s="177"/>
+      <c r="K50" s="177"/>
+      <c r="L50" s="177"/>
+      <c r="M50" s="177"/>
+      <c r="N50" s="177"/>
+      <c r="O50" s="177"/>
+      <c r="P50" s="177"/>
+      <c r="Q50" s="177"/>
+      <c r="R50" s="230"/>
+      <c r="S50" s="173"/>
+      <c r="T50" s="167"/>
+      <c r="U50" s="167"/>
+      <c r="V50" s="205"/>
+      <c r="W50" s="166"/>
+      <c r="X50" s="167"/>
+      <c r="Y50" s="167"/>
+      <c r="Z50" s="167"/>
+      <c r="AA50" s="167"/>
+      <c r="AB50" s="167"/>
+      <c r="AC50" s="167"/>
+      <c r="AD50" s="167"/>
+      <c r="AE50" s="167"/>
+      <c r="AF50" s="167"/>
+      <c r="AG50" s="168"/>
       <c r="AH50" s="87"/>
     </row>
     <row r="51" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="273" t="s">
+      <c r="A51" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="274"/>
-      <c r="C51" s="274"/>
-      <c r="D51" s="275"/>
-      <c r="E51" s="277" t="s">
+      <c r="B51" s="193"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="194"/>
+      <c r="E51" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="278"/>
-      <c r="G51" s="278"/>
-      <c r="H51" s="278"/>
-      <c r="I51" s="278"/>
-      <c r="J51" s="278"/>
-      <c r="K51" s="278"/>
-      <c r="L51" s="278"/>
-      <c r="M51" s="278"/>
-      <c r="N51" s="278"/>
-      <c r="O51" s="278"/>
-      <c r="P51" s="278"/>
-      <c r="Q51" s="278"/>
-      <c r="R51" s="279"/>
-      <c r="S51" s="273" t="s">
+      <c r="F51" s="199"/>
+      <c r="G51" s="199"/>
+      <c r="H51" s="199"/>
+      <c r="I51" s="199"/>
+      <c r="J51" s="199"/>
+      <c r="K51" s="199"/>
+      <c r="L51" s="199"/>
+      <c r="M51" s="199"/>
+      <c r="N51" s="199"/>
+      <c r="O51" s="199"/>
+      <c r="P51" s="199"/>
+      <c r="Q51" s="199"/>
+      <c r="R51" s="200"/>
+      <c r="S51" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="T51" s="269"/>
-      <c r="U51" s="269"/>
-      <c r="V51" s="283"/>
-      <c r="W51" s="284" t="s">
+      <c r="T51" s="164"/>
+      <c r="U51" s="164"/>
+      <c r="V51" s="204"/>
+      <c r="W51" s="206" t="s">
+        <v>125</v>
+      </c>
+      <c r="X51" s="207"/>
+      <c r="Y51" s="207"/>
+      <c r="Z51" s="207"/>
+      <c r="AA51" s="207"/>
+      <c r="AB51" s="207"/>
+      <c r="AC51" s="207"/>
+      <c r="AD51" s="207"/>
+      <c r="AE51" s="207"/>
+      <c r="AF51" s="207"/>
+      <c r="AG51" s="208"/>
+      <c r="AH51" s="87"/>
+    </row>
+    <row r="52" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="195"/>
+      <c r="B52" s="196"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="201"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="202"/>
+      <c r="J52" s="202"/>
+      <c r="K52" s="202"/>
+      <c r="L52" s="202"/>
+      <c r="M52" s="202"/>
+      <c r="N52" s="202"/>
+      <c r="O52" s="202"/>
+      <c r="P52" s="202"/>
+      <c r="Q52" s="202"/>
+      <c r="R52" s="203"/>
+      <c r="S52" s="173"/>
+      <c r="T52" s="167"/>
+      <c r="U52" s="167"/>
+      <c r="V52" s="205"/>
+      <c r="W52" s="209"/>
+      <c r="X52" s="210"/>
+      <c r="Y52" s="210"/>
+      <c r="Z52" s="210"/>
+      <c r="AA52" s="210"/>
+      <c r="AB52" s="210"/>
+      <c r="AC52" s="210"/>
+      <c r="AD52" s="210"/>
+      <c r="AE52" s="210"/>
+      <c r="AF52" s="210"/>
+      <c r="AG52" s="211"/>
+      <c r="AH52" s="87"/>
+    </row>
+    <row r="53" spans="1:38" s="84" customFormat="1" ht="18" customHeight="1">
+      <c r="A53" s="186" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="163" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="164"/>
+      <c r="M53" s="164"/>
+      <c r="N53" s="164"/>
+      <c r="O53" s="164"/>
+      <c r="P53" s="164"/>
+      <c r="Q53" s="164"/>
+      <c r="R53" s="165"/>
+      <c r="S53" s="186" t="s">
+        <v>59</v>
+      </c>
+      <c r="T53" s="164"/>
+      <c r="U53" s="164"/>
+      <c r="V53" s="204"/>
+      <c r="W53" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="X51" s="285"/>
-      <c r="Y51" s="285"/>
-      <c r="Z51" s="285"/>
-      <c r="AA51" s="285"/>
-      <c r="AB51" s="285"/>
-      <c r="AC51" s="285"/>
-      <c r="AD51" s="285"/>
-      <c r="AE51" s="285"/>
-      <c r="AF51" s="285"/>
-      <c r="AG51" s="286"/>
-      <c r="AH51" s="87"/>
-    </row>
-    <row r="52" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="257"/>
-      <c r="B52" s="258"/>
-      <c r="C52" s="258"/>
-      <c r="D52" s="276"/>
-      <c r="E52" s="280"/>
-      <c r="F52" s="281"/>
-      <c r="G52" s="281"/>
-      <c r="H52" s="281"/>
-      <c r="I52" s="281"/>
-      <c r="J52" s="281"/>
-      <c r="K52" s="281"/>
-      <c r="L52" s="281"/>
-      <c r="M52" s="281"/>
-      <c r="N52" s="281"/>
-      <c r="O52" s="281"/>
-      <c r="P52" s="281"/>
-      <c r="Q52" s="281"/>
-      <c r="R52" s="282"/>
-      <c r="S52" s="265"/>
-      <c r="T52" s="266"/>
-      <c r="U52" s="266"/>
-      <c r="V52" s="267"/>
-      <c r="W52" s="287"/>
-      <c r="X52" s="288"/>
-      <c r="Y52" s="288"/>
-      <c r="Z52" s="288"/>
-      <c r="AA52" s="288"/>
-      <c r="AB52" s="288"/>
-      <c r="AC52" s="288"/>
-      <c r="AD52" s="288"/>
-      <c r="AE52" s="288"/>
-      <c r="AF52" s="288"/>
-      <c r="AG52" s="289"/>
-      <c r="AH52" s="87"/>
-    </row>
-    <row r="53" spans="1:38" s="84" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="273" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="269"/>
-      <c r="C53" s="269"/>
-      <c r="D53" s="283"/>
-      <c r="E53" s="268" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="269"/>
-      <c r="G53" s="269"/>
-      <c r="H53" s="269"/>
-      <c r="I53" s="269"/>
-      <c r="J53" s="269"/>
-      <c r="K53" s="269"/>
-      <c r="L53" s="269"/>
-      <c r="M53" s="269"/>
-      <c r="N53" s="269"/>
-      <c r="O53" s="269"/>
-      <c r="P53" s="269"/>
-      <c r="Q53" s="269"/>
-      <c r="R53" s="270"/>
-      <c r="S53" s="273" t="s">
-        <v>59</v>
-      </c>
-      <c r="T53" s="269"/>
-      <c r="U53" s="269"/>
-      <c r="V53" s="283"/>
-      <c r="W53" s="268" t="s">
-        <v>125</v>
-      </c>
-      <c r="X53" s="269"/>
-      <c r="Y53" s="269"/>
-      <c r="Z53" s="269"/>
-      <c r="AA53" s="269"/>
-      <c r="AB53" s="269"/>
-      <c r="AC53" s="269"/>
-      <c r="AD53" s="269"/>
-      <c r="AE53" s="269"/>
-      <c r="AF53" s="269"/>
-      <c r="AG53" s="270"/>
+      <c r="X53" s="164"/>
+      <c r="Y53" s="164"/>
+      <c r="Z53" s="164"/>
+      <c r="AA53" s="164"/>
+      <c r="AB53" s="164"/>
+      <c r="AC53" s="164"/>
+      <c r="AD53" s="164"/>
+      <c r="AE53" s="164"/>
+      <c r="AF53" s="164"/>
+      <c r="AG53" s="165"/>
       <c r="AH53" s="141"/>
     </row>
     <row r="54" spans="1:38" s="84" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A54" s="265"/>
-      <c r="B54" s="266"/>
-      <c r="C54" s="266"/>
-      <c r="D54" s="267"/>
-      <c r="E54" s="271"/>
-      <c r="F54" s="266"/>
-      <c r="G54" s="266"/>
-      <c r="H54" s="266"/>
-      <c r="I54" s="266"/>
-      <c r="J54" s="266"/>
-      <c r="K54" s="266"/>
-      <c r="L54" s="266"/>
-      <c r="M54" s="266"/>
-      <c r="N54" s="266"/>
-      <c r="O54" s="266"/>
-      <c r="P54" s="266"/>
-      <c r="Q54" s="266"/>
-      <c r="R54" s="272"/>
-      <c r="S54" s="265"/>
-      <c r="T54" s="266"/>
-      <c r="U54" s="266"/>
-      <c r="V54" s="267"/>
-      <c r="W54" s="271"/>
-      <c r="X54" s="266"/>
-      <c r="Y54" s="266"/>
-      <c r="Z54" s="266"/>
-      <c r="AA54" s="266"/>
-      <c r="AB54" s="266"/>
-      <c r="AC54" s="266"/>
-      <c r="AD54" s="266"/>
-      <c r="AE54" s="266"/>
-      <c r="AF54" s="266"/>
-      <c r="AG54" s="272"/>
+      <c r="A54" s="173"/>
+      <c r="B54" s="167"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="205"/>
+      <c r="E54" s="166"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+      <c r="H54" s="167"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="167"/>
+      <c r="K54" s="167"/>
+      <c r="L54" s="167"/>
+      <c r="M54" s="167"/>
+      <c r="N54" s="167"/>
+      <c r="O54" s="167"/>
+      <c r="P54" s="167"/>
+      <c r="Q54" s="167"/>
+      <c r="R54" s="168"/>
+      <c r="S54" s="173"/>
+      <c r="T54" s="167"/>
+      <c r="U54" s="167"/>
+      <c r="V54" s="205"/>
+      <c r="W54" s="166"/>
+      <c r="X54" s="167"/>
+      <c r="Y54" s="167"/>
+      <c r="Z54" s="167"/>
+      <c r="AA54" s="167"/>
+      <c r="AB54" s="167"/>
+      <c r="AC54" s="167"/>
+      <c r="AD54" s="167"/>
+      <c r="AE54" s="167"/>
+      <c r="AF54" s="167"/>
+      <c r="AG54" s="168"/>
       <c r="AH54" s="87"/>
     </row>
     <row r="55" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="273" t="s">
+      <c r="A55" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="269"/>
-      <c r="C55" s="269"/>
-      <c r="D55" s="283"/>
-      <c r="E55" s="259"/>
-      <c r="F55" s="194"/>
-      <c r="G55" s="194"/>
-      <c r="H55" s="194"/>
-      <c r="I55" s="194"/>
-      <c r="J55" s="194"/>
-      <c r="K55" s="194"/>
-      <c r="L55" s="194"/>
-      <c r="M55" s="194"/>
-      <c r="N55" s="194"/>
-      <c r="O55" s="194"/>
-      <c r="P55" s="194"/>
-      <c r="Q55" s="194"/>
-      <c r="R55" s="226"/>
-      <c r="S55" s="273" t="s">
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="174"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="156"/>
+      <c r="M55" s="156"/>
+      <c r="N55" s="156"/>
+      <c r="O55" s="156"/>
+      <c r="P55" s="156"/>
+      <c r="Q55" s="156"/>
+      <c r="R55" s="157"/>
+      <c r="S55" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="T55" s="269"/>
-      <c r="U55" s="269"/>
-      <c r="V55" s="283"/>
-      <c r="W55" s="268"/>
-      <c r="X55" s="269"/>
-      <c r="Y55" s="269"/>
-      <c r="Z55" s="269"/>
-      <c r="AA55" s="269"/>
-      <c r="AB55" s="269"/>
-      <c r="AC55" s="269"/>
-      <c r="AD55" s="269"/>
-      <c r="AE55" s="269"/>
-      <c r="AF55" s="269"/>
-      <c r="AG55" s="270"/>
+      <c r="T55" s="164"/>
+      <c r="U55" s="164"/>
+      <c r="V55" s="204"/>
+      <c r="W55" s="163"/>
+      <c r="X55" s="164"/>
+      <c r="Y55" s="164"/>
+      <c r="Z55" s="164"/>
+      <c r="AA55" s="164"/>
+      <c r="AB55" s="164"/>
+      <c r="AC55" s="164"/>
+      <c r="AD55" s="164"/>
+      <c r="AE55" s="164"/>
+      <c r="AF55" s="164"/>
+      <c r="AG55" s="165"/>
       <c r="AH55" s="87"/>
     </row>
     <row r="56" spans="1:38" s="84" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A56" s="290"/>
-      <c r="B56" s="291"/>
-      <c r="C56" s="291"/>
-      <c r="D56" s="292"/>
-      <c r="E56" s="293"/>
-      <c r="F56" s="193"/>
-      <c r="G56" s="193"/>
-      <c r="H56" s="193"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="193"/>
-      <c r="K56" s="193"/>
-      <c r="L56" s="193"/>
-      <c r="M56" s="193"/>
-      <c r="N56" s="193"/>
-      <c r="O56" s="193"/>
-      <c r="P56" s="193"/>
-      <c r="Q56" s="193"/>
-      <c r="R56" s="294"/>
-      <c r="S56" s="295"/>
-      <c r="T56" s="296"/>
-      <c r="U56" s="296"/>
-      <c r="V56" s="297"/>
-      <c r="W56" s="298"/>
-      <c r="X56" s="296"/>
-      <c r="Y56" s="296"/>
-      <c r="Z56" s="296"/>
-      <c r="AA56" s="296"/>
-      <c r="AB56" s="296"/>
-      <c r="AC56" s="296"/>
-      <c r="AD56" s="296"/>
-      <c r="AE56" s="296"/>
-      <c r="AF56" s="296"/>
-      <c r="AG56" s="299"/>
+      <c r="A56" s="212"/>
+      <c r="B56" s="213"/>
+      <c r="C56" s="213"/>
+      <c r="D56" s="214"/>
+      <c r="E56" s="215"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="158"/>
+      <c r="H56" s="158"/>
+      <c r="I56" s="158"/>
+      <c r="J56" s="158"/>
+      <c r="K56" s="158"/>
+      <c r="L56" s="158"/>
+      <c r="M56" s="158"/>
+      <c r="N56" s="158"/>
+      <c r="O56" s="158"/>
+      <c r="P56" s="158"/>
+      <c r="Q56" s="158"/>
+      <c r="R56" s="159"/>
+      <c r="S56" s="216"/>
+      <c r="T56" s="217"/>
+      <c r="U56" s="217"/>
+      <c r="V56" s="218"/>
+      <c r="W56" s="219"/>
+      <c r="X56" s="217"/>
+      <c r="Y56" s="217"/>
+      <c r="Z56" s="217"/>
+      <c r="AA56" s="217"/>
+      <c r="AB56" s="217"/>
+      <c r="AC56" s="217"/>
+      <c r="AD56" s="217"/>
+      <c r="AE56" s="217"/>
+      <c r="AF56" s="217"/>
+      <c r="AG56" s="220"/>
       <c r="AH56" s="87"/>
     </row>
     <row r="57" spans="1:38" s="84" customFormat="1" ht="13.5" customHeight="1">
@@ -4701,45 +4740,45 @@
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="200"/>
-      <c r="AF57" s="200"/>
-      <c r="AG57" s="201"/>
+      <c r="AE57" s="169"/>
+      <c r="AF57" s="169"/>
+      <c r="AG57" s="170"/>
       <c r="AH57" s="87"/>
     </row>
     <row r="58" spans="1:38" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A58" s="255" t="s">
+      <c r="A58" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="263"/>
-      <c r="C58" s="263"/>
+      <c r="B58" s="172"/>
+      <c r="C58" s="172"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="259"/>
-      <c r="F58" s="194"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="194"/>
-      <c r="I58" s="194"/>
-      <c r="J58" s="194"/>
-      <c r="K58" s="194"/>
-      <c r="L58" s="194"/>
-      <c r="M58" s="318"/>
-      <c r="N58" s="319" t="s">
+      <c r="E58" s="174"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="175"/>
+      <c r="N58" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="301"/>
-      <c r="P58" s="301"/>
-      <c r="Q58" s="301"/>
-      <c r="R58" s="302"/>
-      <c r="S58" s="300" t="s">
+      <c r="O58" s="180"/>
+      <c r="P58" s="180"/>
+      <c r="Q58" s="180"/>
+      <c r="R58" s="181"/>
+      <c r="S58" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="T58" s="301"/>
-      <c r="U58" s="301"/>
-      <c r="V58" s="301"/>
-      <c r="W58" s="301"/>
-      <c r="X58" s="301"/>
-      <c r="Y58" s="301"/>
-      <c r="Z58" s="301"/>
-      <c r="AA58" s="302"/>
+      <c r="T58" s="180"/>
+      <c r="U58" s="180"/>
+      <c r="V58" s="180"/>
+      <c r="W58" s="180"/>
+      <c r="X58" s="180"/>
+      <c r="Y58" s="180"/>
+      <c r="Z58" s="180"/>
+      <c r="AA58" s="181"/>
       <c r="AB58" s="93"/>
       <c r="AC58" s="93"/>
       <c r="AD58" s="93"/>
@@ -4749,33 +4788,33 @@
       <c r="AH58" s="87"/>
     </row>
     <row r="59" spans="1:38" s="84" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A59" s="265"/>
-      <c r="B59" s="266"/>
-      <c r="C59" s="266"/>
+      <c r="A59" s="173"/>
+      <c r="B59" s="167"/>
+      <c r="C59" s="167"/>
       <c r="D59" s="138"/>
-      <c r="E59" s="260"/>
-      <c r="F59" s="261"/>
-      <c r="G59" s="261"/>
-      <c r="H59" s="261"/>
-      <c r="I59" s="261"/>
-      <c r="J59" s="261"/>
-      <c r="K59" s="261"/>
-      <c r="L59" s="261"/>
-      <c r="M59" s="309"/>
-      <c r="N59" s="303"/>
-      <c r="O59" s="304"/>
-      <c r="P59" s="304"/>
-      <c r="Q59" s="304"/>
-      <c r="R59" s="305"/>
-      <c r="S59" s="303"/>
-      <c r="T59" s="304"/>
-      <c r="U59" s="304"/>
-      <c r="V59" s="304"/>
-      <c r="W59" s="304"/>
-      <c r="X59" s="304"/>
-      <c r="Y59" s="304"/>
-      <c r="Z59" s="304"/>
-      <c r="AA59" s="305"/>
+      <c r="E59" s="176"/>
+      <c r="F59" s="177"/>
+      <c r="G59" s="177"/>
+      <c r="H59" s="177"/>
+      <c r="I59" s="177"/>
+      <c r="J59" s="177"/>
+      <c r="K59" s="177"/>
+      <c r="L59" s="177"/>
+      <c r="M59" s="178"/>
+      <c r="N59" s="182"/>
+      <c r="O59" s="183"/>
+      <c r="P59" s="183"/>
+      <c r="Q59" s="183"/>
+      <c r="R59" s="184"/>
+      <c r="S59" s="182"/>
+      <c r="T59" s="183"/>
+      <c r="U59" s="183"/>
+      <c r="V59" s="183"/>
+      <c r="W59" s="183"/>
+      <c r="X59" s="183"/>
+      <c r="Y59" s="183"/>
+      <c r="Z59" s="183"/>
+      <c r="AA59" s="184"/>
       <c r="AB59" s="138"/>
       <c r="AC59" s="138"/>
       <c r="AD59" s="139"/>
@@ -4785,121 +4824,121 @@
       <c r="AH59" s="87"/>
     </row>
     <row r="60" spans="1:38" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="273" t="s">
+      <c r="A60" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="306"/>
-      <c r="C60" s="306"/>
-      <c r="D60" s="307"/>
-      <c r="E60" s="310"/>
-      <c r="F60" s="306"/>
-      <c r="G60" s="306"/>
-      <c r="H60" s="306"/>
-      <c r="I60" s="306"/>
-      <c r="J60" s="306"/>
-      <c r="K60" s="306"/>
-      <c r="L60" s="306"/>
-      <c r="M60" s="307"/>
-      <c r="N60" s="311" t="s">
+      <c r="B60" s="153"/>
+      <c r="C60" s="153"/>
+      <c r="D60" s="187"/>
+      <c r="E60" s="189"/>
+      <c r="F60" s="153"/>
+      <c r="G60" s="153"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="153"/>
+      <c r="J60" s="153"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="187"/>
+      <c r="N60" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="O60" s="312"/>
-      <c r="P60" s="312"/>
-      <c r="Q60" s="312"/>
-      <c r="R60" s="313"/>
-      <c r="S60" s="311" t="s">
+      <c r="O60" s="191"/>
+      <c r="P60" s="191"/>
+      <c r="Q60" s="191"/>
+      <c r="R60" s="192"/>
+      <c r="S60" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="T60" s="312"/>
-      <c r="U60" s="312"/>
-      <c r="V60" s="312"/>
-      <c r="W60" s="312"/>
-      <c r="X60" s="312"/>
-      <c r="Y60" s="312"/>
-      <c r="Z60" s="312"/>
-      <c r="AA60" s="313"/>
+      <c r="T60" s="191"/>
+      <c r="U60" s="191"/>
+      <c r="V60" s="191"/>
+      <c r="W60" s="191"/>
+      <c r="X60" s="191"/>
+      <c r="Y60" s="191"/>
+      <c r="Z60" s="191"/>
+      <c r="AA60" s="192"/>
       <c r="AB60" s="143" t="s">
         <v>61</v>
       </c>
       <c r="AC60" s="143"/>
-      <c r="AD60" s="306"/>
-      <c r="AE60" s="306"/>
-      <c r="AF60" s="306"/>
-      <c r="AG60" s="314"/>
+      <c r="AD60" s="153"/>
+      <c r="AE60" s="153"/>
+      <c r="AF60" s="153"/>
+      <c r="AG60" s="154"/>
       <c r="AH60" s="87"/>
     </row>
     <row r="61" spans="1:38" s="84" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A61" s="308"/>
-      <c r="B61" s="261"/>
-      <c r="C61" s="261"/>
-      <c r="D61" s="309"/>
-      <c r="E61" s="260"/>
-      <c r="F61" s="261"/>
-      <c r="G61" s="261"/>
-      <c r="H61" s="261"/>
-      <c r="I61" s="261"/>
-      <c r="J61" s="261"/>
-      <c r="K61" s="261"/>
-      <c r="L61" s="261"/>
-      <c r="M61" s="309"/>
-      <c r="N61" s="303"/>
-      <c r="O61" s="304"/>
-      <c r="P61" s="304"/>
-      <c r="Q61" s="304"/>
-      <c r="R61" s="305"/>
-      <c r="S61" s="303"/>
-      <c r="T61" s="304"/>
-      <c r="U61" s="304"/>
-      <c r="V61" s="304"/>
-      <c r="W61" s="304"/>
-      <c r="X61" s="304"/>
-      <c r="Y61" s="304"/>
-      <c r="Z61" s="304"/>
-      <c r="AA61" s="305"/>
-      <c r="AB61" s="194"/>
-      <c r="AC61" s="194"/>
-      <c r="AD61" s="194"/>
-      <c r="AE61" s="194"/>
-      <c r="AF61" s="194"/>
-      <c r="AG61" s="226"/>
+      <c r="A61" s="188"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="178"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="177"/>
+      <c r="G61" s="177"/>
+      <c r="H61" s="177"/>
+      <c r="I61" s="177"/>
+      <c r="J61" s="177"/>
+      <c r="K61" s="177"/>
+      <c r="L61" s="177"/>
+      <c r="M61" s="178"/>
+      <c r="N61" s="182"/>
+      <c r="O61" s="183"/>
+      <c r="P61" s="183"/>
+      <c r="Q61" s="183"/>
+      <c r="R61" s="184"/>
+      <c r="S61" s="182"/>
+      <c r="T61" s="183"/>
+      <c r="U61" s="183"/>
+      <c r="V61" s="183"/>
+      <c r="W61" s="183"/>
+      <c r="X61" s="183"/>
+      <c r="Y61" s="183"/>
+      <c r="Z61" s="183"/>
+      <c r="AA61" s="184"/>
+      <c r="AB61" s="156"/>
+      <c r="AC61" s="156"/>
+      <c r="AD61" s="156"/>
+      <c r="AE61" s="156"/>
+      <c r="AF61" s="156"/>
+      <c r="AG61" s="157"/>
       <c r="AH61" s="87"/>
     </row>
     <row r="62" spans="1:38" s="84" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A62" s="315" t="s">
+      <c r="A62" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="316"/>
-      <c r="C62" s="316"/>
-      <c r="D62" s="316"/>
-      <c r="E62" s="316"/>
-      <c r="F62" s="316"/>
-      <c r="G62" s="316"/>
-      <c r="H62" s="316"/>
-      <c r="I62" s="316"/>
-      <c r="J62" s="316"/>
-      <c r="K62" s="316"/>
-      <c r="L62" s="316"/>
-      <c r="M62" s="316"/>
-      <c r="N62" s="316"/>
-      <c r="O62" s="316"/>
-      <c r="P62" s="316"/>
-      <c r="Q62" s="316"/>
-      <c r="R62" s="316"/>
-      <c r="S62" s="316"/>
-      <c r="T62" s="316"/>
-      <c r="U62" s="316"/>
-      <c r="V62" s="316"/>
-      <c r="W62" s="316"/>
-      <c r="X62" s="316"/>
-      <c r="Y62" s="316"/>
-      <c r="Z62" s="316"/>
-      <c r="AA62" s="317"/>
-      <c r="AB62" s="193"/>
-      <c r="AC62" s="193"/>
-      <c r="AD62" s="193"/>
-      <c r="AE62" s="193"/>
-      <c r="AF62" s="193"/>
-      <c r="AG62" s="294"/>
+      <c r="B62" s="161"/>
+      <c r="C62" s="161"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="161"/>
+      <c r="G62" s="161"/>
+      <c r="H62" s="161"/>
+      <c r="I62" s="161"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="161"/>
+      <c r="L62" s="161"/>
+      <c r="M62" s="161"/>
+      <c r="N62" s="161"/>
+      <c r="O62" s="161"/>
+      <c r="P62" s="161"/>
+      <c r="Q62" s="161"/>
+      <c r="R62" s="161"/>
+      <c r="S62" s="161"/>
+      <c r="T62" s="161"/>
+      <c r="U62" s="161"/>
+      <c r="V62" s="161"/>
+      <c r="W62" s="161"/>
+      <c r="X62" s="161"/>
+      <c r="Y62" s="161"/>
+      <c r="Z62" s="161"/>
+      <c r="AA62" s="162"/>
+      <c r="AB62" s="158"/>
+      <c r="AC62" s="158"/>
+      <c r="AD62" s="158"/>
+      <c r="AE62" s="158"/>
+      <c r="AF62" s="158"/>
+      <c r="AG62" s="159"/>
       <c r="AH62" s="144"/>
       <c r="AI62" s="85"/>
       <c r="AJ62" s="85"/>
@@ -4909,6 +4948,74 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="84">
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="A4:AA6"/>
+    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="S10:AA10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="E10:R11"/>
+    <mergeCell ref="E7:AG7"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="A3:AA3"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="B31:AG31"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="E12:R13"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AB30:AG30"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B33:AF33"/>
+    <mergeCell ref="B34:AF34"/>
+    <mergeCell ref="L35:X35"/>
+    <mergeCell ref="L36:X36"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="S38:W38"/>
+    <mergeCell ref="X38:AB38"/>
+    <mergeCell ref="AC38:AG38"/>
+    <mergeCell ref="T42:AD42"/>
+    <mergeCell ref="S43:AG48"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A46:R46"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="E49:R50"/>
+    <mergeCell ref="S49:V50"/>
+    <mergeCell ref="W49:AG50"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="E51:R52"/>
+    <mergeCell ref="S51:V52"/>
+    <mergeCell ref="W51:AG52"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="E55:R56"/>
+    <mergeCell ref="S55:V56"/>
+    <mergeCell ref="W55:AG56"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="S53:V54"/>
     <mergeCell ref="AD60:AG60"/>
     <mergeCell ref="B17:P17"/>
     <mergeCell ref="B28:P28"/>
@@ -4925,77 +5032,9 @@
     <mergeCell ref="E60:M61"/>
     <mergeCell ref="N60:R61"/>
     <mergeCell ref="S60:AA61"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="E51:R52"/>
-    <mergeCell ref="S51:V52"/>
-    <mergeCell ref="W51:AG52"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="E55:R56"/>
-    <mergeCell ref="S55:V56"/>
-    <mergeCell ref="W55:AG56"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="S53:V54"/>
-    <mergeCell ref="T42:AD42"/>
-    <mergeCell ref="S43:AG48"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A46:R46"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="E49:R50"/>
-    <mergeCell ref="S49:V50"/>
-    <mergeCell ref="W49:AG50"/>
-    <mergeCell ref="B33:AF33"/>
-    <mergeCell ref="B34:AF34"/>
-    <mergeCell ref="L35:X35"/>
-    <mergeCell ref="L36:X36"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="S38:W38"/>
-    <mergeCell ref="X38:AB38"/>
-    <mergeCell ref="AC38:AG38"/>
-    <mergeCell ref="B31:AG31"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="S11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="E12:R13"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AB30:AG30"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="A2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="A3:AA3"/>
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="A4:AA6"/>
-    <mergeCell ref="AB4:AG4"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="S10:AA10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="E10:R11"/>
-    <mergeCell ref="E7:AG7"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:P26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5028,91 +5067,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321"/>
-      <c r="K2" s="321"/>
-      <c r="L2" s="321"/>
-      <c r="M2" s="321"/>
-      <c r="N2" s="321"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="320"/>
+      <c r="N2" s="320"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1">
-      <c r="B3" s="322" t="s">
+      <c r="B3" s="326" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="322"/>
-      <c r="M3" s="322"/>
-      <c r="N3" s="322"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="326"/>
+      <c r="N3" s="326"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="18" customHeight="1">
-      <c r="B4" s="322" t="s">
+      <c r="B4" s="326" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="322"/>
-      <c r="K4" s="322"/>
-      <c r="L4" s="322"/>
-      <c r="M4" s="322"/>
-      <c r="N4" s="322"/>
+      <c r="C4" s="326"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="326"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="326"/>
+      <c r="H4" s="326"/>
+      <c r="I4" s="326"/>
+      <c r="J4" s="326"/>
+      <c r="K4" s="326"/>
+      <c r="L4" s="326"/>
+      <c r="M4" s="326"/>
+      <c r="N4" s="326"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B5" s="323" t="s">
+      <c r="B5" s="327" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="323"/>
-      <c r="D5" s="323"/>
-      <c r="E5" s="323"/>
-      <c r="F5" s="323"/>
-      <c r="G5" s="323"/>
-      <c r="H5" s="323"/>
-      <c r="I5" s="323"/>
-      <c r="J5" s="323"/>
-      <c r="K5" s="323"/>
-      <c r="L5" s="323"/>
-      <c r="M5" s="323"/>
-      <c r="N5" s="323"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="327"/>
+      <c r="F5" s="327"/>
+      <c r="G5" s="327"/>
+      <c r="H5" s="327"/>
+      <c r="I5" s="327"/>
+      <c r="J5" s="327"/>
+      <c r="K5" s="327"/>
+      <c r="L5" s="327"/>
+      <c r="M5" s="327"/>
+      <c r="N5" s="327"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B6" s="324" t="s">
+      <c r="B6" s="328" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="324"/>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="324"/>
-      <c r="K6" s="324"/>
-      <c r="L6" s="324"/>
-      <c r="M6" s="324"/>
-      <c r="N6" s="324"/>
+      <c r="C6" s="328"/>
+      <c r="D6" s="328"/>
+      <c r="E6" s="328"/>
+      <c r="F6" s="328"/>
+      <c r="G6" s="328"/>
+      <c r="H6" s="328"/>
+      <c r="I6" s="328"/>
+      <c r="J6" s="328"/>
+      <c r="K6" s="328"/>
+      <c r="L6" s="328"/>
+      <c r="M6" s="328"/>
+      <c r="N6" s="328"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" customHeight="1">
@@ -5124,10 +5163,10 @@
       <c r="G7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="320" t="s">
+      <c r="K7" s="325" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="320"/>
+      <c r="L7" s="325"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="5"/>
@@ -5167,52 +5206,52 @@
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="2:15" ht="4.5" customHeight="1">
-      <c r="B10" s="321"/>
-      <c r="C10" s="321"/>
-      <c r="D10" s="321"/>
-      <c r="E10" s="321"/>
-      <c r="F10" s="321"/>
-      <c r="G10" s="321"/>
-      <c r="H10" s="321"/>
-      <c r="I10" s="321"/>
-      <c r="J10" s="321"/>
-      <c r="K10" s="321"/>
-      <c r="L10" s="321"/>
-      <c r="M10" s="321"/>
-      <c r="N10" s="321"/>
+      <c r="B10" s="320"/>
+      <c r="C10" s="320"/>
+      <c r="D10" s="320"/>
+      <c r="E10" s="320"/>
+      <c r="F10" s="320"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="320"/>
+      <c r="I10" s="320"/>
+      <c r="J10" s="320"/>
+      <c r="K10" s="320"/>
+      <c r="L10" s="320"/>
+      <c r="M10" s="320"/>
+      <c r="N10" s="320"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="38.25" customHeight="1">
       <c r="B11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="325" t="s">
+      <c r="C11" s="321" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="326"/>
+      <c r="D11" s="322"/>
       <c r="E11" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="327" t="s">
+      <c r="F11" s="323" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="328"/>
-      <c r="H11" s="327" t="s">
+      <c r="G11" s="324"/>
+      <c r="H11" s="323" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="328"/>
-      <c r="J11" s="327" t="s">
+      <c r="I11" s="324"/>
+      <c r="J11" s="323" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="328"/>
-      <c r="L11" s="325" t="s">
+      <c r="K11" s="324"/>
+      <c r="L11" s="321" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="326"/>
-      <c r="N11" s="327" t="s">
+      <c r="M11" s="322"/>
+      <c r="N11" s="323" t="s">
         <v>83</v>
       </c>
-      <c r="O11" s="328"/>
+      <c r="O11" s="324"/>
     </row>
     <row r="12" spans="2:15" ht="23.1" customHeight="1">
       <c r="B12" s="10"/>
@@ -5634,6 +5673,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B6:N6"/>
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:G11"/>
@@ -5641,12 +5686,6 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait"/>
@@ -5697,13 +5736,13 @@
       <c r="B3" s="335" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
       <c r="J3" s="336"/>
     </row>
     <row r="4" spans="2:14" s="36" customFormat="1" ht="15.75" customHeight="1">

--- a/library/export_dv.xlsx
+++ b/library/export_dv.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC63DFD6-43B7-42D8-A019-80B3EA3A06EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="DV" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">DV!$A$1:$AG$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">RCI!$A$1:$J$28</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -447,13 +446,13 @@
     <t>Regional Director</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO IV</t>
+    <t>ARIEL O. IGLESIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="32">
     <font>
       <sz val="11"/>
@@ -1626,27 +1625,453 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
@@ -1656,51 +2081,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1725,9 +2108,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1746,390 +2126,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2141,18 +2152,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2549,11 +2548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="W53" sqref="W53:AG54"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AI40" sqref="AI40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2572,244 +2571,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="18.75" customHeight="1">
-      <c r="AB1" s="276" t="s">
+      <c r="AB1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="276"/>
-      <c r="AD1" s="276"/>
-      <c r="AE1" s="276"/>
-      <c r="AF1" s="276"/>
-      <c r="AG1" s="276"/>
+      <c r="AC1" s="190"/>
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="190"/>
+      <c r="AF1" s="190"/>
+      <c r="AG1" s="190"/>
     </row>
     <row r="2" spans="1:41" ht="21" customHeight="1">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
-      <c r="O2" s="278"/>
-      <c r="P2" s="278"/>
-      <c r="Q2" s="278"/>
-      <c r="R2" s="278"/>
-      <c r="S2" s="278"/>
-      <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-      <c r="W2" s="278"/>
-      <c r="X2" s="278"/>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="278"/>
-      <c r="AA2" s="279"/>
-      <c r="AB2" s="280" t="s">
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="192"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="281"/>
-      <c r="AD2" s="281"/>
-      <c r="AE2" s="281"/>
-      <c r="AF2" s="281"/>
-      <c r="AG2" s="282"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="196"/>
     </row>
     <row r="3" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="284"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="284"/>
-      <c r="F3" s="284"/>
-      <c r="G3" s="284"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="284"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="284"/>
-      <c r="M3" s="284"/>
-      <c r="N3" s="284"/>
-      <c r="O3" s="284"/>
-      <c r="P3" s="284"/>
-      <c r="Q3" s="284"/>
-      <c r="R3" s="284"/>
-      <c r="S3" s="284"/>
-      <c r="T3" s="284"/>
-      <c r="U3" s="284"/>
-      <c r="V3" s="284"/>
-      <c r="W3" s="284"/>
-      <c r="X3" s="284"/>
-      <c r="Y3" s="284"/>
-      <c r="Z3" s="284"/>
-      <c r="AA3" s="285"/>
-      <c r="AB3" s="286"/>
-      <c r="AC3" s="287"/>
-      <c r="AD3" s="287"/>
-      <c r="AE3" s="287"/>
-      <c r="AF3" s="287"/>
-      <c r="AG3" s="288"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="198"/>
+      <c r="W3" s="198"/>
+      <c r="X3" s="198"/>
+      <c r="Y3" s="198"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="200"/>
+      <c r="AC3" s="201"/>
+      <c r="AD3" s="201"/>
+      <c r="AE3" s="201"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="202"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="M4" s="290"/>
-      <c r="N4" s="290"/>
-      <c r="O4" s="290"/>
-      <c r="P4" s="290"/>
-      <c r="Q4" s="290"/>
-      <c r="R4" s="290"/>
-      <c r="S4" s="290"/>
-      <c r="T4" s="290"/>
-      <c r="U4" s="290"/>
-      <c r="V4" s="290"/>
-      <c r="W4" s="290"/>
-      <c r="X4" s="290"/>
-      <c r="Y4" s="290"/>
-      <c r="Z4" s="290"/>
-      <c r="AA4" s="291"/>
-      <c r="AB4" s="295" t="s">
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="296"/>
-      <c r="AD4" s="296"/>
-      <c r="AE4" s="296"/>
-      <c r="AF4" s="296"/>
-      <c r="AG4" s="297"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="162"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="289"/>
-      <c r="B5" s="290"/>
-      <c r="C5" s="290"/>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="290"/>
-      <c r="J5" s="290"/>
-      <c r="K5" s="290"/>
-      <c r="L5" s="290"/>
-      <c r="M5" s="290"/>
-      <c r="N5" s="290"/>
-      <c r="O5" s="290"/>
-      <c r="P5" s="290"/>
-      <c r="Q5" s="290"/>
-      <c r="R5" s="290"/>
-      <c r="S5" s="290"/>
-      <c r="T5" s="290"/>
-      <c r="U5" s="290"/>
-      <c r="V5" s="290"/>
-      <c r="W5" s="290"/>
-      <c r="X5" s="290"/>
-      <c r="Y5" s="290"/>
-      <c r="Z5" s="290"/>
-      <c r="AA5" s="291"/>
-      <c r="AB5" s="298" t="s">
+      <c r="A5" s="154"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="156"/>
+      <c r="AB5" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="299"/>
-      <c r="AD5" s="299"/>
-      <c r="AE5" s="299"/>
-      <c r="AF5" s="299"/>
-      <c r="AG5" s="300"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="164"/>
+      <c r="AG5" s="165"/>
     </row>
     <row r="6" spans="1:41" ht="15.6" customHeight="1">
-      <c r="A6" s="292"/>
-      <c r="B6" s="293"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
-      <c r="G6" s="293"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="293"/>
-      <c r="J6" s="293"/>
-      <c r="K6" s="293"/>
-      <c r="L6" s="293"/>
-      <c r="M6" s="293"/>
-      <c r="N6" s="293"/>
-      <c r="O6" s="293"/>
-      <c r="P6" s="293"/>
-      <c r="Q6" s="293"/>
-      <c r="R6" s="293"/>
-      <c r="S6" s="293"/>
-      <c r="T6" s="293"/>
-      <c r="U6" s="293"/>
-      <c r="V6" s="293"/>
-      <c r="W6" s="293"/>
-      <c r="X6" s="293"/>
-      <c r="Y6" s="293"/>
-      <c r="Z6" s="293"/>
-      <c r="AA6" s="294"/>
-      <c r="AB6" s="301"/>
-      <c r="AC6" s="301"/>
-      <c r="AD6" s="301"/>
-      <c r="AE6" s="301"/>
-      <c r="AF6" s="301"/>
-      <c r="AG6" s="302"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="158"/>
+      <c r="S6" s="158"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="166"/>
+      <c r="AC6" s="166"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="166"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="167"/>
     </row>
     <row r="7" spans="1:41" s="84" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A7" s="303" t="s">
+      <c r="A7" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="304"/>
-      <c r="C7" s="305"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="170"/>
       <c r="D7" s="90"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="169"/>
-      <c r="U7" s="169"/>
-      <c r="V7" s="169"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="169"/>
-      <c r="Y7" s="169"/>
-      <c r="Z7" s="169"/>
-      <c r="AA7" s="169"/>
-      <c r="AB7" s="169"/>
-      <c r="AC7" s="169"/>
-      <c r="AD7" s="169"/>
-      <c r="AE7" s="169"/>
-      <c r="AF7" s="169"/>
-      <c r="AG7" s="170"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="187"/>
+      <c r="S7" s="187"/>
+      <c r="T7" s="187"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="187"/>
+      <c r="W7" s="187"/>
+      <c r="X7" s="187"/>
+      <c r="Y7" s="187"/>
+      <c r="Z7" s="187"/>
+      <c r="AA7" s="187"/>
+      <c r="AB7" s="187"/>
+      <c r="AC7" s="187"/>
+      <c r="AD7" s="187"/>
+      <c r="AE7" s="187"/>
+      <c r="AF7" s="187"/>
+      <c r="AG7" s="188"/>
       <c r="AH7" s="87"/>
     </row>
     <row r="8" spans="1:41" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="306"/>
-      <c r="B8" s="307"/>
-      <c r="C8" s="308"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="88"/>
       <c r="E8" s="92"/>
       <c r="F8" s="93"/>
@@ -2848,26 +2847,26 @@
       <c r="AH8" s="87"/>
     </row>
     <row r="9" spans="1:41" s="84" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="309"/>
-      <c r="B9" s="310"/>
-      <c r="C9" s="311"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="89"/>
       <c r="E9" s="96"/>
       <c r="F9" s="97"/>
       <c r="G9" s="97"/>
       <c r="H9" s="97"/>
       <c r="I9" s="89"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
       <c r="N9" s="97"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="180"/>
+      <c r="R9" s="180"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="181"/>
       <c r="U9" s="93"/>
       <c r="V9" s="93"/>
       <c r="W9" s="93"/>
@@ -2884,108 +2883,108 @@
       <c r="AH9" s="87"/>
     </row>
     <row r="10" spans="1:41" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="303" t="s">
+      <c r="A10" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="304"/>
-      <c r="C10" s="305"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="170"/>
       <c r="D10" s="99"/>
-      <c r="E10" s="315" t="s">
+      <c r="E10" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="316"/>
-      <c r="G10" s="316"/>
-      <c r="H10" s="316"/>
-      <c r="I10" s="316"/>
-      <c r="J10" s="316"/>
-      <c r="K10" s="316"/>
-      <c r="L10" s="316"/>
-      <c r="M10" s="316"/>
-      <c r="N10" s="316"/>
-      <c r="O10" s="316"/>
-      <c r="P10" s="316"/>
-      <c r="Q10" s="316"/>
-      <c r="R10" s="316"/>
-      <c r="S10" s="312" t="s">
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="313"/>
-      <c r="U10" s="313"/>
-      <c r="V10" s="313"/>
-      <c r="W10" s="313"/>
-      <c r="X10" s="313"/>
-      <c r="Y10" s="313"/>
-      <c r="Z10" s="313"/>
-      <c r="AA10" s="314"/>
-      <c r="AB10" s="250" t="s">
+      <c r="T10" s="178"/>
+      <c r="U10" s="178"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="250"/>
-      <c r="AD10" s="250"/>
-      <c r="AE10" s="250"/>
-      <c r="AF10" s="250"/>
-      <c r="AG10" s="251"/>
+      <c r="AC10" s="212"/>
+      <c r="AD10" s="212"/>
+      <c r="AE10" s="212"/>
+      <c r="AF10" s="212"/>
+      <c r="AG10" s="213"/>
       <c r="AH10" s="86"/>
     </row>
     <row r="11" spans="1:41" s="84" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="306"/>
-      <c r="B11" s="307"/>
-      <c r="C11" s="308"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="317"/>
-      <c r="F11" s="318"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="318"/>
-      <c r="I11" s="318"/>
-      <c r="J11" s="318"/>
-      <c r="K11" s="318"/>
-      <c r="L11" s="318"/>
-      <c r="M11" s="318"/>
-      <c r="N11" s="318"/>
-      <c r="O11" s="318"/>
-      <c r="P11" s="318"/>
-      <c r="Q11" s="318"/>
-      <c r="R11" s="318"/>
-      <c r="S11" s="252"/>
-      <c r="T11" s="253"/>
-      <c r="U11" s="253"/>
-      <c r="V11" s="253"/>
-      <c r="W11" s="253"/>
-      <c r="X11" s="253"/>
-      <c r="Y11" s="253"/>
-      <c r="Z11" s="253"/>
-      <c r="AA11" s="254"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="157"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="185"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="185"/>
+      <c r="S11" s="214"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="215"/>
+      <c r="V11" s="215"/>
+      <c r="W11" s="215"/>
+      <c r="X11" s="215"/>
+      <c r="Y11" s="215"/>
+      <c r="Z11" s="215"/>
+      <c r="AA11" s="216"/>
+      <c r="AB11" s="181"/>
+      <c r="AC11" s="181"/>
+      <c r="AD11" s="181"/>
+      <c r="AE11" s="181"/>
+      <c r="AF11" s="181"/>
+      <c r="AG11" s="217"/>
       <c r="AH11" s="87"/>
     </row>
     <row r="12" spans="1:41" s="84" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="244" t="s">
+      <c r="A12" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="245"/>
-      <c r="C12" s="246"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="88"/>
-      <c r="E12" s="262" t="s">
+      <c r="E12" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="263"/>
-      <c r="G12" s="263"/>
-      <c r="H12" s="263"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="263"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="263"/>
-      <c r="R12" s="263"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="226"/>
+      <c r="O12" s="226"/>
+      <c r="P12" s="226"/>
+      <c r="Q12" s="226"/>
+      <c r="R12" s="226"/>
       <c r="S12" s="91"/>
       <c r="T12" s="91"/>
       <c r="U12" s="91"/>
@@ -3005,24 +3004,24 @@
       <c r="AO12" s="152"/>
     </row>
     <row r="13" spans="1:41" s="84" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="247"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
+      <c r="A13" s="209"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="211"/>
       <c r="D13" s="89"/>
-      <c r="E13" s="264"/>
-      <c r="F13" s="265"/>
-      <c r="G13" s="265"/>
-      <c r="H13" s="265"/>
-      <c r="I13" s="265"/>
-      <c r="J13" s="265"/>
-      <c r="K13" s="265"/>
-      <c r="L13" s="265"/>
-      <c r="M13" s="265"/>
-      <c r="N13" s="265"/>
-      <c r="O13" s="265"/>
-      <c r="P13" s="265"/>
-      <c r="Q13" s="265"/>
-      <c r="R13" s="265"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="228"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="228"/>
+      <c r="J13" s="228"/>
+      <c r="K13" s="228"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="228"/>
+      <c r="N13" s="228"/>
+      <c r="O13" s="228"/>
+      <c r="P13" s="228"/>
+      <c r="Q13" s="228"/>
+      <c r="R13" s="228"/>
       <c r="S13" s="97"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97"/>
@@ -3041,68 +3040,68 @@
       <c r="AH13" s="100"/>
     </row>
     <row r="14" spans="1:41" s="102" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A14" s="255" t="s">
+      <c r="A14" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="256"/>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="258" t="s">
+      <c r="B14" s="219"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="220"/>
+      <c r="R14" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="259"/>
-      <c r="T14" s="259"/>
-      <c r="U14" s="259"/>
-      <c r="V14" s="260"/>
-      <c r="W14" s="258" t="s">
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="222"/>
+      <c r="V14" s="223"/>
+      <c r="W14" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="256"/>
-      <c r="Y14" s="256"/>
-      <c r="Z14" s="256"/>
-      <c r="AA14" s="257"/>
-      <c r="AB14" s="258" t="s">
+      <c r="X14" s="219"/>
+      <c r="Y14" s="219"/>
+      <c r="Z14" s="219"/>
+      <c r="AA14" s="220"/>
+      <c r="AB14" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="AC14" s="256"/>
-      <c r="AD14" s="256"/>
-      <c r="AE14" s="256"/>
-      <c r="AF14" s="256"/>
-      <c r="AG14" s="261"/>
+      <c r="AC14" s="219"/>
+      <c r="AD14" s="219"/>
+      <c r="AE14" s="219"/>
+      <c r="AF14" s="219"/>
+      <c r="AG14" s="224"/>
       <c r="AH14" s="101"/>
     </row>
     <row r="15" spans="1:41" s="84" customFormat="1" ht="14.45" customHeight="1">
       <c r="A15" s="103"/>
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="266"/>
-      <c r="D15" s="266"/>
-      <c r="E15" s="266"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="266"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="266"/>
-      <c r="K15" s="266"/>
-      <c r="L15" s="266"/>
-      <c r="M15" s="266"/>
-      <c r="N15" s="266"/>
-      <c r="O15" s="266"/>
-      <c r="P15" s="266"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="24"/>
       <c r="S15"/>
@@ -3114,33 +3113,33 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15" s="25"/>
-      <c r="AB15" s="267"/>
-      <c r="AC15" s="268"/>
-      <c r="AD15" s="268"/>
-      <c r="AE15" s="268"/>
-      <c r="AF15" s="268"/>
-      <c r="AG15" s="269"/>
+      <c r="AB15" s="229"/>
+      <c r="AC15" s="230"/>
+      <c r="AD15" s="230"/>
+      <c r="AE15" s="230"/>
+      <c r="AF15" s="230"/>
+      <c r="AG15" s="231"/>
       <c r="AH15" s="87"/>
     </row>
     <row r="16" spans="1:41" s="84" customFormat="1" ht="78" customHeight="1">
       <c r="A16" s="103"/>
-      <c r="B16" s="266" t="s">
+      <c r="B16" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="266"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="266"/>
-      <c r="L16" s="266"/>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="266"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="189"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="24"/>
       <c r="S16"/>
@@ -3162,23 +3161,23 @@
     </row>
     <row r="17" spans="1:35" s="84" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="103"/>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="155"/>
-      <c r="P17" s="155"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="24"/>
       <c r="S17"/>
@@ -3200,23 +3199,23 @@
     </row>
     <row r="18" spans="1:35" ht="14.25" customHeight="1">
       <c r="A18" s="103"/>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="24"/>
       <c r="S18"/>
@@ -3238,23 +3237,23 @@
     </row>
     <row r="19" spans="1:35" ht="14.25" customHeight="1">
       <c r="A19" s="103"/>
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="24"/>
       <c r="S19"/>
@@ -3276,23 +3275,23 @@
     </row>
     <row r="20" spans="1:35" ht="14.25" customHeight="1">
       <c r="A20" s="103"/>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="24"/>
       <c r="S20"/>
@@ -3314,23 +3313,23 @@
     </row>
     <row r="21" spans="1:35" ht="14.25" customHeight="1">
       <c r="A21" s="103"/>
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="155"/>
-      <c r="P21" s="155"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="24"/>
       <c r="S21"/>
@@ -3352,23 +3351,23 @@
     </row>
     <row r="22" spans="1:35" ht="14.25" customHeight="1">
       <c r="A22" s="103"/>
-      <c r="B22" s="155" t="s">
+      <c r="B22" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="24"/>
       <c r="S22"/>
@@ -3390,23 +3389,23 @@
     </row>
     <row r="23" spans="1:35" ht="14.25" customHeight="1">
       <c r="A23" s="103"/>
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="24"/>
       <c r="S23"/>
@@ -3428,23 +3427,23 @@
     </row>
     <row r="24" spans="1:35" ht="14.25" customHeight="1">
       <c r="A24" s="103"/>
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="155"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
       <c r="Q24" s="25"/>
       <c r="R24" s="24"/>
       <c r="S24"/>
@@ -3466,23 +3465,23 @@
     </row>
     <row r="25" spans="1:35" ht="14.25" customHeight="1">
       <c r="A25" s="103"/>
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="155"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="153"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="24"/>
       <c r="S25"/>
@@ -3504,23 +3503,23 @@
     </row>
     <row r="26" spans="1:35" ht="14.25" customHeight="1">
       <c r="A26" s="103"/>
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="24"/>
       <c r="S26"/>
@@ -3542,23 +3541,23 @@
     </row>
     <row r="27" spans="1:35" ht="14.25" customHeight="1">
       <c r="A27" s="103"/>
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="155"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="153"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="24"/>
       <c r="S27"/>
@@ -3580,21 +3579,21 @@
     </row>
     <row r="28" spans="1:35" s="84" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="103"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="153"/>
       <c r="Q28" s="25"/>
       <c r="R28" s="24"/>
       <c r="S28"/>
@@ -3616,23 +3615,23 @@
     </row>
     <row r="29" spans="1:35" s="84" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="103"/>
-      <c r="B29" s="266" t="s">
+      <c r="B29" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="266"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="266"/>
-      <c r="F29" s="266"/>
-      <c r="G29" s="266"/>
-      <c r="H29" s="266"/>
-      <c r="I29" s="266"/>
-      <c r="J29" s="266"/>
-      <c r="K29" s="266"/>
-      <c r="L29" s="266"/>
-      <c r="M29" s="266"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
-      <c r="P29" s="266"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="189"/>
+      <c r="O29" s="189"/>
+      <c r="P29" s="189"/>
       <c r="Q29" s="25"/>
       <c r="R29" s="24"/>
       <c r="S29"/>
@@ -3653,25 +3652,25 @@
       <c r="AH29" s="87"/>
     </row>
     <row r="30" spans="1:35" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="273" t="s">
+      <c r="A30" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="274"/>
-      <c r="C30" s="274"/>
-      <c r="D30" s="274"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="274"/>
-      <c r="I30" s="274"/>
-      <c r="J30" s="274"/>
-      <c r="K30" s="274"/>
-      <c r="L30" s="274"/>
-      <c r="M30" s="274"/>
-      <c r="N30" s="274"/>
-      <c r="O30" s="274"/>
-      <c r="P30" s="274"/>
-      <c r="Q30" s="275"/>
+      <c r="B30" s="236"/>
+      <c r="C30" s="236"/>
+      <c r="D30" s="236"/>
+      <c r="E30" s="236"/>
+      <c r="F30" s="236"/>
+      <c r="G30" s="236"/>
+      <c r="H30" s="236"/>
+      <c r="I30" s="236"/>
+      <c r="J30" s="236"/>
+      <c r="K30" s="236"/>
+      <c r="L30" s="236"/>
+      <c r="M30" s="236"/>
+      <c r="N30" s="236"/>
+      <c r="O30" s="236"/>
+      <c r="P30" s="236"/>
+      <c r="Q30" s="237"/>
       <c r="R30" s="104"/>
       <c r="S30" s="105"/>
       <c r="T30" s="105"/>
@@ -3682,15 +3681,15 @@
       <c r="Y30" s="105"/>
       <c r="Z30" s="105"/>
       <c r="AA30" s="25"/>
-      <c r="AB30" s="270">
+      <c r="AB30" s="232">
         <f>SUM(AB15:AG29)</f>
         <v>0</v>
       </c>
-      <c r="AC30" s="271"/>
-      <c r="AD30" s="271"/>
-      <c r="AE30" s="271"/>
-      <c r="AF30" s="271"/>
-      <c r="AG30" s="272"/>
+      <c r="AC30" s="233"/>
+      <c r="AD30" s="233"/>
+      <c r="AE30" s="233"/>
+      <c r="AF30" s="233"/>
+      <c r="AG30" s="234"/>
       <c r="AH30" s="87"/>
       <c r="AI30" s="107"/>
     </row>
@@ -3698,40 +3697,40 @@
       <c r="A31" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="241" t="s">
+      <c r="B31" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="241"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="241"/>
-      <c r="L31" s="241"/>
-      <c r="M31" s="241"/>
-      <c r="N31" s="241"/>
-      <c r="O31" s="241"/>
-      <c r="P31" s="241"/>
-      <c r="Q31" s="241"/>
-      <c r="R31" s="241"/>
-      <c r="S31" s="241"/>
-      <c r="T31" s="241"/>
-      <c r="U31" s="241"/>
-      <c r="V31" s="241"/>
-      <c r="W31" s="241"/>
-      <c r="X31" s="241"/>
-      <c r="Y31" s="241"/>
-      <c r="Z31" s="241"/>
-      <c r="AA31" s="241"/>
-      <c r="AB31" s="242"/>
-      <c r="AC31" s="242"/>
-      <c r="AD31" s="242"/>
-      <c r="AE31" s="242"/>
-      <c r="AF31" s="242"/>
-      <c r="AG31" s="243"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="203"/>
+      <c r="K31" s="203"/>
+      <c r="L31" s="203"/>
+      <c r="M31" s="203"/>
+      <c r="N31" s="203"/>
+      <c r="O31" s="203"/>
+      <c r="P31" s="203"/>
+      <c r="Q31" s="203"/>
+      <c r="R31" s="203"/>
+      <c r="S31" s="203"/>
+      <c r="T31" s="203"/>
+      <c r="U31" s="203"/>
+      <c r="V31" s="203"/>
+      <c r="W31" s="203"/>
+      <c r="X31" s="203"/>
+      <c r="Y31" s="203"/>
+      <c r="Z31" s="203"/>
+      <c r="AA31" s="203"/>
+      <c r="AB31" s="204"/>
+      <c r="AC31" s="204"/>
+      <c r="AD31" s="204"/>
+      <c r="AE31" s="204"/>
+      <c r="AF31" s="204"/>
+      <c r="AG31" s="205"/>
       <c r="AH31" s="87"/>
       <c r="AI31" s="107"/>
     </row>
@@ -3776,78 +3775,78 @@
     </row>
     <row r="33" spans="1:35" s="84" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="109"/>
-      <c r="B33" s="232" t="s">
+      <c r="B33" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="233"/>
-      <c r="D33" s="233"/>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
-      <c r="G33" s="233"/>
-      <c r="H33" s="233"/>
-      <c r="I33" s="233"/>
-      <c r="J33" s="233"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="233"/>
-      <c r="M33" s="233"/>
-      <c r="N33" s="233"/>
-      <c r="O33" s="233"/>
-      <c r="P33" s="233"/>
-      <c r="Q33" s="233"/>
-      <c r="R33" s="233"/>
-      <c r="S33" s="233"/>
-      <c r="T33" s="233"/>
-      <c r="U33" s="233"/>
-      <c r="V33" s="233"/>
-      <c r="W33" s="233"/>
-      <c r="X33" s="233"/>
-      <c r="Y33" s="233"/>
-      <c r="Z33" s="233"/>
-      <c r="AA33" s="233"/>
-      <c r="AB33" s="233"/>
-      <c r="AC33" s="233"/>
-      <c r="AD33" s="233"/>
-      <c r="AE33" s="233"/>
-      <c r="AF33" s="233"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="239"/>
+      <c r="E33" s="239"/>
+      <c r="F33" s="239"/>
+      <c r="G33" s="239"/>
+      <c r="H33" s="239"/>
+      <c r="I33" s="239"/>
+      <c r="J33" s="239"/>
+      <c r="K33" s="239"/>
+      <c r="L33" s="239"/>
+      <c r="M33" s="239"/>
+      <c r="N33" s="239"/>
+      <c r="O33" s="239"/>
+      <c r="P33" s="239"/>
+      <c r="Q33" s="239"/>
+      <c r="R33" s="239"/>
+      <c r="S33" s="239"/>
+      <c r="T33" s="239"/>
+      <c r="U33" s="239"/>
+      <c r="V33" s="239"/>
+      <c r="W33" s="239"/>
+      <c r="X33" s="239"/>
+      <c r="Y33" s="239"/>
+      <c r="Z33" s="239"/>
+      <c r="AA33" s="239"/>
+      <c r="AB33" s="239"/>
+      <c r="AC33" s="239"/>
+      <c r="AD33" s="239"/>
+      <c r="AE33" s="239"/>
+      <c r="AF33" s="239"/>
       <c r="AG33" s="113"/>
       <c r="AH33" s="87"/>
       <c r="AI33" s="107"/>
     </row>
     <row r="34" spans="1:35" s="84" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="109"/>
-      <c r="B34" s="234" t="s">
+      <c r="B34" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="234"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="234"/>
-      <c r="M34" s="234"/>
-      <c r="N34" s="234"/>
-      <c r="O34" s="234"/>
-      <c r="P34" s="234"/>
-      <c r="Q34" s="234"/>
-      <c r="R34" s="234"/>
-      <c r="S34" s="234"/>
-      <c r="T34" s="234"/>
-      <c r="U34" s="234"/>
-      <c r="V34" s="234"/>
-      <c r="W34" s="234"/>
-      <c r="X34" s="234"/>
-      <c r="Y34" s="234"/>
-      <c r="Z34" s="234"/>
-      <c r="AA34" s="234"/>
-      <c r="AB34" s="234"/>
-      <c r="AC34" s="234"/>
-      <c r="AD34" s="234"/>
-      <c r="AE34" s="234"/>
-      <c r="AF34" s="234"/>
+      <c r="C34" s="240"/>
+      <c r="D34" s="240"/>
+      <c r="E34" s="240"/>
+      <c r="F34" s="240"/>
+      <c r="G34" s="240"/>
+      <c r="H34" s="240"/>
+      <c r="I34" s="240"/>
+      <c r="J34" s="240"/>
+      <c r="K34" s="240"/>
+      <c r="L34" s="240"/>
+      <c r="M34" s="240"/>
+      <c r="N34" s="240"/>
+      <c r="O34" s="240"/>
+      <c r="P34" s="240"/>
+      <c r="Q34" s="240"/>
+      <c r="R34" s="240"/>
+      <c r="S34" s="240"/>
+      <c r="T34" s="240"/>
+      <c r="U34" s="240"/>
+      <c r="V34" s="240"/>
+      <c r="W34" s="240"/>
+      <c r="X34" s="240"/>
+      <c r="Y34" s="240"/>
+      <c r="Z34" s="240"/>
+      <c r="AA34" s="240"/>
+      <c r="AB34" s="240"/>
+      <c r="AC34" s="240"/>
+      <c r="AD34" s="240"/>
+      <c r="AE34" s="240"/>
+      <c r="AF34" s="240"/>
       <c r="AG34" s="113"/>
       <c r="AH34" s="87"/>
       <c r="AI34" s="107"/>
@@ -3864,19 +3863,19 @@
       <c r="I35" s="88"/>
       <c r="J35" s="88"/>
       <c r="K35" s="88"/>
-      <c r="L35" s="235"/>
-      <c r="M35" s="235"/>
-      <c r="N35" s="235"/>
-      <c r="O35" s="235"/>
-      <c r="P35" s="235"/>
-      <c r="Q35" s="235"/>
-      <c r="R35" s="235"/>
-      <c r="S35" s="235"/>
-      <c r="T35" s="235"/>
-      <c r="U35" s="235"/>
-      <c r="V35" s="235"/>
-      <c r="W35" s="235"/>
-      <c r="X35" s="235"/>
+      <c r="L35" s="241"/>
+      <c r="M35" s="241"/>
+      <c r="N35" s="241"/>
+      <c r="O35" s="241"/>
+      <c r="P35" s="241"/>
+      <c r="Q35" s="241"/>
+      <c r="R35" s="241"/>
+      <c r="S35" s="241"/>
+      <c r="T35" s="241"/>
+      <c r="U35" s="241"/>
+      <c r="V35" s="241"/>
+      <c r="W35" s="241"/>
+      <c r="X35" s="241"/>
       <c r="Y35" s="93"/>
       <c r="Z35" s="111"/>
       <c r="AA35" s="111"/>
@@ -3901,19 +3900,19 @@
       <c r="I36" s="88"/>
       <c r="J36" s="88"/>
       <c r="K36" s="88"/>
-      <c r="L36" s="235"/>
-      <c r="M36" s="235"/>
-      <c r="N36" s="235"/>
-      <c r="O36" s="235"/>
-      <c r="P36" s="235"/>
-      <c r="Q36" s="235"/>
-      <c r="R36" s="235"/>
-      <c r="S36" s="235"/>
-      <c r="T36" s="235"/>
-      <c r="U36" s="235"/>
-      <c r="V36" s="235"/>
-      <c r="W36" s="235"/>
-      <c r="X36" s="235"/>
+      <c r="L36" s="241"/>
+      <c r="M36" s="241"/>
+      <c r="N36" s="241"/>
+      <c r="O36" s="241"/>
+      <c r="P36" s="241"/>
+      <c r="Q36" s="241"/>
+      <c r="R36" s="241"/>
+      <c r="S36" s="241"/>
+      <c r="T36" s="241"/>
+      <c r="U36" s="241"/>
+      <c r="V36" s="241"/>
+      <c r="W36" s="241"/>
+      <c r="X36" s="241"/>
       <c r="Y36" s="88"/>
       <c r="Z36" s="88"/>
       <c r="AA36" s="88"/>
@@ -3968,47 +3967,47 @@
       <c r="AI37" s="107"/>
     </row>
     <row r="38" spans="1:35" s="84" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="236" t="s">
+      <c r="A38" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="237"/>
-      <c r="C38" s="237"/>
-      <c r="D38" s="237"/>
-      <c r="E38" s="237"/>
-      <c r="F38" s="237"/>
-      <c r="G38" s="237"/>
-      <c r="H38" s="237"/>
-      <c r="I38" s="237"/>
-      <c r="J38" s="237"/>
-      <c r="K38" s="237"/>
-      <c r="L38" s="237"/>
-      <c r="M38" s="237"/>
-      <c r="N38" s="237"/>
-      <c r="O38" s="237"/>
-      <c r="P38" s="237"/>
-      <c r="Q38" s="237"/>
-      <c r="R38" s="237"/>
-      <c r="S38" s="237" t="s">
+      <c r="B38" s="243"/>
+      <c r="C38" s="243"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="243"/>
+      <c r="F38" s="243"/>
+      <c r="G38" s="243"/>
+      <c r="H38" s="243"/>
+      <c r="I38" s="243"/>
+      <c r="J38" s="243"/>
+      <c r="K38" s="243"/>
+      <c r="L38" s="243"/>
+      <c r="M38" s="243"/>
+      <c r="N38" s="243"/>
+      <c r="O38" s="243"/>
+      <c r="P38" s="243"/>
+      <c r="Q38" s="243"/>
+      <c r="R38" s="243"/>
+      <c r="S38" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="T38" s="237"/>
-      <c r="U38" s="237"/>
-      <c r="V38" s="237"/>
-      <c r="W38" s="237"/>
-      <c r="X38" s="238" t="s">
+      <c r="T38" s="243"/>
+      <c r="U38" s="243"/>
+      <c r="V38" s="243"/>
+      <c r="W38" s="243"/>
+      <c r="X38" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="Y38" s="238"/>
-      <c r="Z38" s="238"/>
-      <c r="AA38" s="238"/>
-      <c r="AB38" s="238"/>
-      <c r="AC38" s="239" t="s">
+      <c r="Y38" s="244"/>
+      <c r="Z38" s="244"/>
+      <c r="AA38" s="244"/>
+      <c r="AB38" s="244"/>
+      <c r="AC38" s="245" t="s">
         <v>47</v>
       </c>
-      <c r="AD38" s="239"/>
-      <c r="AE38" s="239"/>
-      <c r="AF38" s="239"/>
-      <c r="AG38" s="240"/>
+      <c r="AD38" s="245"/>
+      <c r="AE38" s="245"/>
+      <c r="AF38" s="245"/>
+      <c r="AG38" s="246"/>
       <c r="AH38" s="87"/>
       <c r="AI38" s="107"/>
     </row>
@@ -4147,19 +4146,19 @@
       <c r="S42" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="T42" s="221" t="s">
+      <c r="T42" s="247" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="221"/>
-      <c r="V42" s="221"/>
-      <c r="W42" s="221"/>
-      <c r="X42" s="221"/>
-      <c r="Y42" s="221"/>
-      <c r="Z42" s="221"/>
-      <c r="AA42" s="221"/>
-      <c r="AB42" s="221"/>
-      <c r="AC42" s="221"/>
-      <c r="AD42" s="221"/>
+      <c r="U42" s="247"/>
+      <c r="V42" s="247"/>
+      <c r="W42" s="247"/>
+      <c r="X42" s="247"/>
+      <c r="Y42" s="247"/>
+      <c r="Z42" s="247"/>
+      <c r="AA42" s="247"/>
+      <c r="AB42" s="247"/>
+      <c r="AC42" s="247"/>
+      <c r="AD42" s="247"/>
       <c r="AE42" s="134"/>
       <c r="AF42" s="134"/>
       <c r="AG42" s="135"/>
@@ -4186,31 +4185,31 @@
       <c r="P43" s="88"/>
       <c r="Q43" s="88"/>
       <c r="R43" s="115"/>
-      <c r="S43" s="222"/>
-      <c r="T43" s="223"/>
-      <c r="U43" s="223"/>
-      <c r="V43" s="223"/>
-      <c r="W43" s="223"/>
-      <c r="X43" s="223"/>
-      <c r="Y43" s="223"/>
-      <c r="Z43" s="223"/>
-      <c r="AA43" s="223"/>
-      <c r="AB43" s="223"/>
-      <c r="AC43" s="223"/>
-      <c r="AD43" s="223"/>
-      <c r="AE43" s="223"/>
-      <c r="AF43" s="223"/>
-      <c r="AG43" s="224"/>
+      <c r="S43" s="248"/>
+      <c r="T43" s="249"/>
+      <c r="U43" s="249"/>
+      <c r="V43" s="249"/>
+      <c r="W43" s="249"/>
+      <c r="X43" s="249"/>
+      <c r="Y43" s="249"/>
+      <c r="Z43" s="249"/>
+      <c r="AA43" s="249"/>
+      <c r="AB43" s="249"/>
+      <c r="AC43" s="249"/>
+      <c r="AD43" s="249"/>
+      <c r="AE43" s="249"/>
+      <c r="AF43" s="249"/>
+      <c r="AG43" s="250"/>
       <c r="AH43" s="87"/>
     </row>
     <row r="44" spans="1:35" s="84" customFormat="1" ht="4.5" customHeight="1">
-      <c r="A44" s="228"/>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="A44" s="254"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="181"/>
       <c r="H44" s="88"/>
       <c r="I44" s="88"/>
       <c r="J44" s="88"/>
@@ -4222,21 +4221,21 @@
       <c r="P44" s="88"/>
       <c r="Q44" s="88"/>
       <c r="R44" s="115"/>
-      <c r="S44" s="225"/>
-      <c r="T44" s="226"/>
-      <c r="U44" s="226"/>
-      <c r="V44" s="226"/>
-      <c r="W44" s="226"/>
-      <c r="X44" s="226"/>
-      <c r="Y44" s="226"/>
-      <c r="Z44" s="226"/>
-      <c r="AA44" s="226"/>
-      <c r="AB44" s="226"/>
-      <c r="AC44" s="226"/>
-      <c r="AD44" s="226"/>
-      <c r="AE44" s="226"/>
-      <c r="AF44" s="226"/>
-      <c r="AG44" s="227"/>
+      <c r="S44" s="251"/>
+      <c r="T44" s="252"/>
+      <c r="U44" s="252"/>
+      <c r="V44" s="252"/>
+      <c r="W44" s="252"/>
+      <c r="X44" s="252"/>
+      <c r="Y44" s="252"/>
+      <c r="Z44" s="252"/>
+      <c r="AA44" s="252"/>
+      <c r="AB44" s="252"/>
+      <c r="AC44" s="252"/>
+      <c r="AD44" s="252"/>
+      <c r="AE44" s="252"/>
+      <c r="AF44" s="252"/>
+      <c r="AG44" s="253"/>
       <c r="AH44" s="87"/>
     </row>
     <row r="45" spans="1:35" s="84" customFormat="1" ht="11.25" customHeight="1">
@@ -4260,57 +4259,57 @@
       <c r="P45" s="88"/>
       <c r="Q45" s="88"/>
       <c r="R45" s="115"/>
-      <c r="S45" s="225"/>
-      <c r="T45" s="226"/>
-      <c r="U45" s="226"/>
-      <c r="V45" s="226"/>
-      <c r="W45" s="226"/>
-      <c r="X45" s="226"/>
-      <c r="Y45" s="226"/>
-      <c r="Z45" s="226"/>
-      <c r="AA45" s="226"/>
-      <c r="AB45" s="226"/>
-      <c r="AC45" s="226"/>
-      <c r="AD45" s="226"/>
-      <c r="AE45" s="226"/>
-      <c r="AF45" s="226"/>
-      <c r="AG45" s="227"/>
+      <c r="S45" s="251"/>
+      <c r="T45" s="252"/>
+      <c r="U45" s="252"/>
+      <c r="V45" s="252"/>
+      <c r="W45" s="252"/>
+      <c r="X45" s="252"/>
+      <c r="Y45" s="252"/>
+      <c r="Z45" s="252"/>
+      <c r="AA45" s="252"/>
+      <c r="AB45" s="252"/>
+      <c r="AC45" s="252"/>
+      <c r="AD45" s="252"/>
+      <c r="AE45" s="252"/>
+      <c r="AF45" s="252"/>
+      <c r="AG45" s="253"/>
       <c r="AH45" s="87"/>
     </row>
     <row r="46" spans="1:35" s="84" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A46" s="228"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="156"/>
-      <c r="K46" s="156"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
-      <c r="N46" s="156"/>
-      <c r="O46" s="156"/>
-      <c r="P46" s="156"/>
-      <c r="Q46" s="156"/>
-      <c r="R46" s="157"/>
-      <c r="S46" s="225"/>
-      <c r="T46" s="226"/>
-      <c r="U46" s="226"/>
-      <c r="V46" s="226"/>
-      <c r="W46" s="226"/>
-      <c r="X46" s="226"/>
-      <c r="Y46" s="226"/>
-      <c r="Z46" s="226"/>
-      <c r="AA46" s="226"/>
-      <c r="AB46" s="226"/>
-      <c r="AC46" s="226"/>
-      <c r="AD46" s="226"/>
-      <c r="AE46" s="226"/>
-      <c r="AF46" s="226"/>
-      <c r="AG46" s="227"/>
+      <c r="A46" s="254"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="181"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="181"/>
+      <c r="K46" s="181"/>
+      <c r="L46" s="181"/>
+      <c r="M46" s="181"/>
+      <c r="N46" s="181"/>
+      <c r="O46" s="181"/>
+      <c r="P46" s="181"/>
+      <c r="Q46" s="181"/>
+      <c r="R46" s="217"/>
+      <c r="S46" s="251"/>
+      <c r="T46" s="252"/>
+      <c r="U46" s="252"/>
+      <c r="V46" s="252"/>
+      <c r="W46" s="252"/>
+      <c r="X46" s="252"/>
+      <c r="Y46" s="252"/>
+      <c r="Z46" s="252"/>
+      <c r="AA46" s="252"/>
+      <c r="AB46" s="252"/>
+      <c r="AC46" s="252"/>
+      <c r="AD46" s="252"/>
+      <c r="AE46" s="252"/>
+      <c r="AF46" s="252"/>
+      <c r="AG46" s="253"/>
       <c r="AH46" s="87"/>
     </row>
     <row r="47" spans="1:35" s="84" customFormat="1" ht="11.25" customHeight="1">
@@ -4336,21 +4335,21 @@
       <c r="P47" s="88"/>
       <c r="Q47" s="88"/>
       <c r="R47" s="115"/>
-      <c r="S47" s="225"/>
-      <c r="T47" s="226"/>
-      <c r="U47" s="226"/>
-      <c r="V47" s="226"/>
-      <c r="W47" s="226"/>
-      <c r="X47" s="226"/>
-      <c r="Y47" s="226"/>
-      <c r="Z47" s="226"/>
-      <c r="AA47" s="226"/>
-      <c r="AB47" s="226"/>
-      <c r="AC47" s="226"/>
-      <c r="AD47" s="226"/>
-      <c r="AE47" s="226"/>
-      <c r="AF47" s="226"/>
-      <c r="AG47" s="227"/>
+      <c r="S47" s="251"/>
+      <c r="T47" s="252"/>
+      <c r="U47" s="252"/>
+      <c r="V47" s="252"/>
+      <c r="W47" s="252"/>
+      <c r="X47" s="252"/>
+      <c r="Y47" s="252"/>
+      <c r="Z47" s="252"/>
+      <c r="AA47" s="252"/>
+      <c r="AB47" s="252"/>
+      <c r="AC47" s="252"/>
+      <c r="AD47" s="252"/>
+      <c r="AE47" s="252"/>
+      <c r="AF47" s="252"/>
+      <c r="AG47" s="253"/>
       <c r="AH47" s="87"/>
     </row>
     <row r="48" spans="1:35" s="84" customFormat="1" ht="11.25" customHeight="1">
@@ -4374,333 +4373,333 @@
       <c r="P48" s="88"/>
       <c r="Q48" s="88"/>
       <c r="R48" s="115"/>
-      <c r="S48" s="225"/>
-      <c r="T48" s="226"/>
-      <c r="U48" s="226"/>
-      <c r="V48" s="226"/>
-      <c r="W48" s="226"/>
-      <c r="X48" s="226"/>
-      <c r="Y48" s="226"/>
-      <c r="Z48" s="226"/>
-      <c r="AA48" s="226"/>
-      <c r="AB48" s="226"/>
-      <c r="AC48" s="226"/>
-      <c r="AD48" s="226"/>
-      <c r="AE48" s="226"/>
-      <c r="AF48" s="226"/>
-      <c r="AG48" s="227"/>
+      <c r="S48" s="251"/>
+      <c r="T48" s="252"/>
+      <c r="U48" s="252"/>
+      <c r="V48" s="252"/>
+      <c r="W48" s="252"/>
+      <c r="X48" s="252"/>
+      <c r="Y48" s="252"/>
+      <c r="Z48" s="252"/>
+      <c r="AA48" s="252"/>
+      <c r="AB48" s="252"/>
+      <c r="AC48" s="252"/>
+      <c r="AD48" s="252"/>
+      <c r="AE48" s="252"/>
+      <c r="AF48" s="252"/>
+      <c r="AG48" s="253"/>
       <c r="AH48" s="87"/>
     </row>
     <row r="49" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="171" t="s">
+      <c r="A49" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="229"/>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
-      <c r="E49" s="174"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="156"/>
-      <c r="K49" s="156"/>
-      <c r="L49" s="156"/>
-      <c r="M49" s="156"/>
-      <c r="N49" s="156"/>
-      <c r="O49" s="156"/>
-      <c r="P49" s="156"/>
-      <c r="Q49" s="156"/>
-      <c r="R49" s="157"/>
-      <c r="S49" s="171" t="s">
+      <c r="B49" s="256"/>
+      <c r="C49" s="256"/>
+      <c r="D49" s="256"/>
+      <c r="E49" s="259"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="181"/>
+      <c r="H49" s="181"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="181"/>
+      <c r="K49" s="181"/>
+      <c r="L49" s="181"/>
+      <c r="M49" s="181"/>
+      <c r="N49" s="181"/>
+      <c r="O49" s="181"/>
+      <c r="P49" s="181"/>
+      <c r="Q49" s="181"/>
+      <c r="R49" s="217"/>
+      <c r="S49" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="T49" s="172"/>
-      <c r="U49" s="172"/>
-      <c r="V49" s="231"/>
-      <c r="W49" s="163"/>
-      <c r="X49" s="164"/>
-      <c r="Y49" s="164"/>
-      <c r="Z49" s="164"/>
-      <c r="AA49" s="164"/>
-      <c r="AB49" s="164"/>
-      <c r="AC49" s="164"/>
-      <c r="AD49" s="164"/>
-      <c r="AE49" s="164"/>
-      <c r="AF49" s="164"/>
-      <c r="AG49" s="165"/>
+      <c r="T49" s="263"/>
+      <c r="U49" s="263"/>
+      <c r="V49" s="264"/>
+      <c r="W49" s="268"/>
+      <c r="X49" s="269"/>
+      <c r="Y49" s="269"/>
+      <c r="Z49" s="269"/>
+      <c r="AA49" s="269"/>
+      <c r="AB49" s="269"/>
+      <c r="AC49" s="269"/>
+      <c r="AD49" s="269"/>
+      <c r="AE49" s="269"/>
+      <c r="AF49" s="269"/>
+      <c r="AG49" s="270"/>
       <c r="AH49" s="87"/>
     </row>
     <row r="50" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="195"/>
-      <c r="B50" s="196"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="176"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="177"/>
-      <c r="H50" s="177"/>
-      <c r="I50" s="177"/>
-      <c r="J50" s="177"/>
-      <c r="K50" s="177"/>
-      <c r="L50" s="177"/>
-      <c r="M50" s="177"/>
-      <c r="N50" s="177"/>
-      <c r="O50" s="177"/>
-      <c r="P50" s="177"/>
-      <c r="Q50" s="177"/>
-      <c r="R50" s="230"/>
-      <c r="S50" s="173"/>
-      <c r="T50" s="167"/>
-      <c r="U50" s="167"/>
-      <c r="V50" s="205"/>
-      <c r="W50" s="166"/>
-      <c r="X50" s="167"/>
-      <c r="Y50" s="167"/>
-      <c r="Z50" s="167"/>
-      <c r="AA50" s="167"/>
-      <c r="AB50" s="167"/>
-      <c r="AC50" s="167"/>
-      <c r="AD50" s="167"/>
-      <c r="AE50" s="167"/>
-      <c r="AF50" s="167"/>
-      <c r="AG50" s="168"/>
+      <c r="A50" s="257"/>
+      <c r="B50" s="258"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="260"/>
+      <c r="F50" s="261"/>
+      <c r="G50" s="261"/>
+      <c r="H50" s="261"/>
+      <c r="I50" s="261"/>
+      <c r="J50" s="261"/>
+      <c r="K50" s="261"/>
+      <c r="L50" s="261"/>
+      <c r="M50" s="261"/>
+      <c r="N50" s="261"/>
+      <c r="O50" s="261"/>
+      <c r="P50" s="261"/>
+      <c r="Q50" s="261"/>
+      <c r="R50" s="262"/>
+      <c r="S50" s="265"/>
+      <c r="T50" s="266"/>
+      <c r="U50" s="266"/>
+      <c r="V50" s="267"/>
+      <c r="W50" s="271"/>
+      <c r="X50" s="266"/>
+      <c r="Y50" s="266"/>
+      <c r="Z50" s="266"/>
+      <c r="AA50" s="266"/>
+      <c r="AB50" s="266"/>
+      <c r="AC50" s="266"/>
+      <c r="AD50" s="266"/>
+      <c r="AE50" s="266"/>
+      <c r="AF50" s="266"/>
+      <c r="AG50" s="272"/>
       <c r="AH50" s="87"/>
     </row>
     <row r="51" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="186" t="s">
+      <c r="A51" s="273" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="194"/>
-      <c r="E51" s="198" t="s">
+      <c r="B51" s="274"/>
+      <c r="C51" s="274"/>
+      <c r="D51" s="275"/>
+      <c r="E51" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="199"/>
-      <c r="G51" s="199"/>
-      <c r="H51" s="199"/>
-      <c r="I51" s="199"/>
-      <c r="J51" s="199"/>
-      <c r="K51" s="199"/>
-      <c r="L51" s="199"/>
-      <c r="M51" s="199"/>
-      <c r="N51" s="199"/>
-      <c r="O51" s="199"/>
-      <c r="P51" s="199"/>
-      <c r="Q51" s="199"/>
-      <c r="R51" s="200"/>
-      <c r="S51" s="186" t="s">
+      <c r="F51" s="278"/>
+      <c r="G51" s="278"/>
+      <c r="H51" s="278"/>
+      <c r="I51" s="278"/>
+      <c r="J51" s="278"/>
+      <c r="K51" s="278"/>
+      <c r="L51" s="278"/>
+      <c r="M51" s="278"/>
+      <c r="N51" s="278"/>
+      <c r="O51" s="278"/>
+      <c r="P51" s="278"/>
+      <c r="Q51" s="278"/>
+      <c r="R51" s="279"/>
+      <c r="S51" s="273" t="s">
         <v>57</v>
       </c>
-      <c r="T51" s="164"/>
-      <c r="U51" s="164"/>
-      <c r="V51" s="204"/>
-      <c r="W51" s="206" t="s">
+      <c r="T51" s="269"/>
+      <c r="U51" s="269"/>
+      <c r="V51" s="283"/>
+      <c r="W51" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="X51" s="207"/>
-      <c r="Y51" s="207"/>
-      <c r="Z51" s="207"/>
-      <c r="AA51" s="207"/>
-      <c r="AB51" s="207"/>
-      <c r="AC51" s="207"/>
-      <c r="AD51" s="207"/>
-      <c r="AE51" s="207"/>
-      <c r="AF51" s="207"/>
-      <c r="AG51" s="208"/>
+      <c r="X51" s="285"/>
+      <c r="Y51" s="285"/>
+      <c r="Z51" s="285"/>
+      <c r="AA51" s="285"/>
+      <c r="AB51" s="285"/>
+      <c r="AC51" s="285"/>
+      <c r="AD51" s="285"/>
+      <c r="AE51" s="285"/>
+      <c r="AF51" s="285"/>
+      <c r="AG51" s="286"/>
       <c r="AH51" s="87"/>
     </row>
     <row r="52" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="195"/>
-      <c r="B52" s="196"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="201"/>
-      <c r="F52" s="202"/>
-      <c r="G52" s="202"/>
-      <c r="H52" s="202"/>
-      <c r="I52" s="202"/>
-      <c r="J52" s="202"/>
-      <c r="K52" s="202"/>
-      <c r="L52" s="202"/>
-      <c r="M52" s="202"/>
-      <c r="N52" s="202"/>
-      <c r="O52" s="202"/>
-      <c r="P52" s="202"/>
-      <c r="Q52" s="202"/>
-      <c r="R52" s="203"/>
-      <c r="S52" s="173"/>
-      <c r="T52" s="167"/>
-      <c r="U52" s="167"/>
-      <c r="V52" s="205"/>
-      <c r="W52" s="209"/>
-      <c r="X52" s="210"/>
-      <c r="Y52" s="210"/>
-      <c r="Z52" s="210"/>
-      <c r="AA52" s="210"/>
-      <c r="AB52" s="210"/>
-      <c r="AC52" s="210"/>
-      <c r="AD52" s="210"/>
-      <c r="AE52" s="210"/>
-      <c r="AF52" s="210"/>
-      <c r="AG52" s="211"/>
+      <c r="A52" s="257"/>
+      <c r="B52" s="258"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="276"/>
+      <c r="E52" s="280"/>
+      <c r="F52" s="281"/>
+      <c r="G52" s="281"/>
+      <c r="H52" s="281"/>
+      <c r="I52" s="281"/>
+      <c r="J52" s="281"/>
+      <c r="K52" s="281"/>
+      <c r="L52" s="281"/>
+      <c r="M52" s="281"/>
+      <c r="N52" s="281"/>
+      <c r="O52" s="281"/>
+      <c r="P52" s="281"/>
+      <c r="Q52" s="281"/>
+      <c r="R52" s="282"/>
+      <c r="S52" s="265"/>
+      <c r="T52" s="266"/>
+      <c r="U52" s="266"/>
+      <c r="V52" s="267"/>
+      <c r="W52" s="287"/>
+      <c r="X52" s="288"/>
+      <c r="Y52" s="288"/>
+      <c r="Z52" s="288"/>
+      <c r="AA52" s="288"/>
+      <c r="AB52" s="288"/>
+      <c r="AC52" s="288"/>
+      <c r="AD52" s="288"/>
+      <c r="AE52" s="288"/>
+      <c r="AF52" s="288"/>
+      <c r="AG52" s="289"/>
       <c r="AH52" s="87"/>
     </row>
     <row r="53" spans="1:38" s="84" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="186" t="s">
+      <c r="A53" s="273" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="164"/>
-      <c r="C53" s="164"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="163" t="s">
+      <c r="B53" s="269"/>
+      <c r="C53" s="269"/>
+      <c r="D53" s="283"/>
+      <c r="E53" s="268" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="164"/>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="164"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="164"/>
-      <c r="M53" s="164"/>
-      <c r="N53" s="164"/>
-      <c r="O53" s="164"/>
-      <c r="P53" s="164"/>
-      <c r="Q53" s="164"/>
-      <c r="R53" s="165"/>
-      <c r="S53" s="186" t="s">
+      <c r="F53" s="269"/>
+      <c r="G53" s="269"/>
+      <c r="H53" s="269"/>
+      <c r="I53" s="269"/>
+      <c r="J53" s="269"/>
+      <c r="K53" s="269"/>
+      <c r="L53" s="269"/>
+      <c r="M53" s="269"/>
+      <c r="N53" s="269"/>
+      <c r="O53" s="269"/>
+      <c r="P53" s="269"/>
+      <c r="Q53" s="269"/>
+      <c r="R53" s="270"/>
+      <c r="S53" s="273" t="s">
         <v>59</v>
       </c>
-      <c r="T53" s="164"/>
-      <c r="U53" s="164"/>
-      <c r="V53" s="204"/>
-      <c r="W53" s="163" t="s">
+      <c r="T53" s="269"/>
+      <c r="U53" s="269"/>
+      <c r="V53" s="283"/>
+      <c r="W53" s="268" t="s">
         <v>124</v>
       </c>
-      <c r="X53" s="164"/>
-      <c r="Y53" s="164"/>
-      <c r="Z53" s="164"/>
-      <c r="AA53" s="164"/>
-      <c r="AB53" s="164"/>
-      <c r="AC53" s="164"/>
-      <c r="AD53" s="164"/>
-      <c r="AE53" s="164"/>
-      <c r="AF53" s="164"/>
-      <c r="AG53" s="165"/>
+      <c r="X53" s="269"/>
+      <c r="Y53" s="269"/>
+      <c r="Z53" s="269"/>
+      <c r="AA53" s="269"/>
+      <c r="AB53" s="269"/>
+      <c r="AC53" s="269"/>
+      <c r="AD53" s="269"/>
+      <c r="AE53" s="269"/>
+      <c r="AF53" s="269"/>
+      <c r="AG53" s="270"/>
       <c r="AH53" s="141"/>
     </row>
     <row r="54" spans="1:38" s="84" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A54" s="173"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="205"/>
-      <c r="E54" s="166"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="167"/>
-      <c r="M54" s="167"/>
-      <c r="N54" s="167"/>
-      <c r="O54" s="167"/>
-      <c r="P54" s="167"/>
-      <c r="Q54" s="167"/>
-      <c r="R54" s="168"/>
-      <c r="S54" s="173"/>
-      <c r="T54" s="167"/>
-      <c r="U54" s="167"/>
-      <c r="V54" s="205"/>
-      <c r="W54" s="166"/>
-      <c r="X54" s="167"/>
-      <c r="Y54" s="167"/>
-      <c r="Z54" s="167"/>
-      <c r="AA54" s="167"/>
-      <c r="AB54" s="167"/>
-      <c r="AC54" s="167"/>
-      <c r="AD54" s="167"/>
-      <c r="AE54" s="167"/>
-      <c r="AF54" s="167"/>
-      <c r="AG54" s="168"/>
+      <c r="A54" s="265"/>
+      <c r="B54" s="266"/>
+      <c r="C54" s="266"/>
+      <c r="D54" s="267"/>
+      <c r="E54" s="271"/>
+      <c r="F54" s="266"/>
+      <c r="G54" s="266"/>
+      <c r="H54" s="266"/>
+      <c r="I54" s="266"/>
+      <c r="J54" s="266"/>
+      <c r="K54" s="266"/>
+      <c r="L54" s="266"/>
+      <c r="M54" s="266"/>
+      <c r="N54" s="266"/>
+      <c r="O54" s="266"/>
+      <c r="P54" s="266"/>
+      <c r="Q54" s="266"/>
+      <c r="R54" s="272"/>
+      <c r="S54" s="265"/>
+      <c r="T54" s="266"/>
+      <c r="U54" s="266"/>
+      <c r="V54" s="267"/>
+      <c r="W54" s="271"/>
+      <c r="X54" s="266"/>
+      <c r="Y54" s="266"/>
+      <c r="Z54" s="266"/>
+      <c r="AA54" s="266"/>
+      <c r="AB54" s="266"/>
+      <c r="AC54" s="266"/>
+      <c r="AD54" s="266"/>
+      <c r="AE54" s="266"/>
+      <c r="AF54" s="266"/>
+      <c r="AG54" s="272"/>
       <c r="AH54" s="87"/>
     </row>
     <row r="55" spans="1:38" s="84" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="186" t="s">
+      <c r="A55" s="273" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="164"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="204"/>
-      <c r="E55" s="174"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="156"/>
-      <c r="J55" s="156"/>
-      <c r="K55" s="156"/>
-      <c r="L55" s="156"/>
-      <c r="M55" s="156"/>
-      <c r="N55" s="156"/>
-      <c r="O55" s="156"/>
-      <c r="P55" s="156"/>
-      <c r="Q55" s="156"/>
-      <c r="R55" s="157"/>
-      <c r="S55" s="186" t="s">
+      <c r="B55" s="269"/>
+      <c r="C55" s="269"/>
+      <c r="D55" s="283"/>
+      <c r="E55" s="259"/>
+      <c r="F55" s="181"/>
+      <c r="G55" s="181"/>
+      <c r="H55" s="181"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="181"/>
+      <c r="K55" s="181"/>
+      <c r="L55" s="181"/>
+      <c r="M55" s="181"/>
+      <c r="N55" s="181"/>
+      <c r="O55" s="181"/>
+      <c r="P55" s="181"/>
+      <c r="Q55" s="181"/>
+      <c r="R55" s="217"/>
+      <c r="S55" s="273" t="s">
         <v>61</v>
       </c>
-      <c r="T55" s="164"/>
-      <c r="U55" s="164"/>
-      <c r="V55" s="204"/>
-      <c r="W55" s="163"/>
-      <c r="X55" s="164"/>
-      <c r="Y55" s="164"/>
-      <c r="Z55" s="164"/>
-      <c r="AA55" s="164"/>
-      <c r="AB55" s="164"/>
-      <c r="AC55" s="164"/>
-      <c r="AD55" s="164"/>
-      <c r="AE55" s="164"/>
-      <c r="AF55" s="164"/>
-      <c r="AG55" s="165"/>
+      <c r="T55" s="269"/>
+      <c r="U55" s="269"/>
+      <c r="V55" s="283"/>
+      <c r="W55" s="268"/>
+      <c r="X55" s="269"/>
+      <c r="Y55" s="269"/>
+      <c r="Z55" s="269"/>
+      <c r="AA55" s="269"/>
+      <c r="AB55" s="269"/>
+      <c r="AC55" s="269"/>
+      <c r="AD55" s="269"/>
+      <c r="AE55" s="269"/>
+      <c r="AF55" s="269"/>
+      <c r="AG55" s="270"/>
       <c r="AH55" s="87"/>
     </row>
     <row r="56" spans="1:38" s="84" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A56" s="212"/>
-      <c r="B56" s="213"/>
-      <c r="C56" s="213"/>
-      <c r="D56" s="214"/>
-      <c r="E56" s="215"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="158"/>
-      <c r="H56" s="158"/>
-      <c r="I56" s="158"/>
-      <c r="J56" s="158"/>
-      <c r="K56" s="158"/>
-      <c r="L56" s="158"/>
-      <c r="M56" s="158"/>
-      <c r="N56" s="158"/>
-      <c r="O56" s="158"/>
-      <c r="P56" s="158"/>
-      <c r="Q56" s="158"/>
-      <c r="R56" s="159"/>
-      <c r="S56" s="216"/>
-      <c r="T56" s="217"/>
-      <c r="U56" s="217"/>
-      <c r="V56" s="218"/>
-      <c r="W56" s="219"/>
-      <c r="X56" s="217"/>
-      <c r="Y56" s="217"/>
-      <c r="Z56" s="217"/>
-      <c r="AA56" s="217"/>
-      <c r="AB56" s="217"/>
-      <c r="AC56" s="217"/>
-      <c r="AD56" s="217"/>
-      <c r="AE56" s="217"/>
-      <c r="AF56" s="217"/>
-      <c r="AG56" s="220"/>
+      <c r="A56" s="290"/>
+      <c r="B56" s="291"/>
+      <c r="C56" s="291"/>
+      <c r="D56" s="292"/>
+      <c r="E56" s="293"/>
+      <c r="F56" s="180"/>
+      <c r="G56" s="180"/>
+      <c r="H56" s="180"/>
+      <c r="I56" s="180"/>
+      <c r="J56" s="180"/>
+      <c r="K56" s="180"/>
+      <c r="L56" s="180"/>
+      <c r="M56" s="180"/>
+      <c r="N56" s="180"/>
+      <c r="O56" s="180"/>
+      <c r="P56" s="180"/>
+      <c r="Q56" s="180"/>
+      <c r="R56" s="294"/>
+      <c r="S56" s="295"/>
+      <c r="T56" s="296"/>
+      <c r="U56" s="296"/>
+      <c r="V56" s="297"/>
+      <c r="W56" s="298"/>
+      <c r="X56" s="296"/>
+      <c r="Y56" s="296"/>
+      <c r="Z56" s="296"/>
+      <c r="AA56" s="296"/>
+      <c r="AB56" s="296"/>
+      <c r="AC56" s="296"/>
+      <c r="AD56" s="296"/>
+      <c r="AE56" s="296"/>
+      <c r="AF56" s="296"/>
+      <c r="AG56" s="299"/>
       <c r="AH56" s="87"/>
     </row>
     <row r="57" spans="1:38" s="84" customFormat="1" ht="13.5" customHeight="1">
@@ -4740,45 +4739,45 @@
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="169"/>
-      <c r="AF57" s="169"/>
-      <c r="AG57" s="170"/>
+      <c r="AE57" s="187"/>
+      <c r="AF57" s="187"/>
+      <c r="AG57" s="188"/>
       <c r="AH57" s="87"/>
     </row>
     <row r="58" spans="1:38" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A58" s="171" t="s">
+      <c r="A58" s="255" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="172"/>
-      <c r="C58" s="172"/>
+      <c r="B58" s="263"/>
+      <c r="C58" s="263"/>
       <c r="D58" s="88"/>
-      <c r="E58" s="174"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="156"/>
-      <c r="M58" s="175"/>
-      <c r="N58" s="179" t="s">
+      <c r="E58" s="259"/>
+      <c r="F58" s="181"/>
+      <c r="G58" s="181"/>
+      <c r="H58" s="181"/>
+      <c r="I58" s="181"/>
+      <c r="J58" s="181"/>
+      <c r="K58" s="181"/>
+      <c r="L58" s="181"/>
+      <c r="M58" s="305"/>
+      <c r="N58" s="307" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="180"/>
-      <c r="P58" s="180"/>
-      <c r="Q58" s="180"/>
-      <c r="R58" s="181"/>
-      <c r="S58" s="185" t="s">
+      <c r="O58" s="308"/>
+      <c r="P58" s="308"/>
+      <c r="Q58" s="308"/>
+      <c r="R58" s="309"/>
+      <c r="S58" s="313" t="s">
         <v>66</v>
       </c>
-      <c r="T58" s="180"/>
-      <c r="U58" s="180"/>
-      <c r="V58" s="180"/>
-      <c r="W58" s="180"/>
-      <c r="X58" s="180"/>
-      <c r="Y58" s="180"/>
-      <c r="Z58" s="180"/>
-      <c r="AA58" s="181"/>
+      <c r="T58" s="308"/>
+      <c r="U58" s="308"/>
+      <c r="V58" s="308"/>
+      <c r="W58" s="308"/>
+      <c r="X58" s="308"/>
+      <c r="Y58" s="308"/>
+      <c r="Z58" s="308"/>
+      <c r="AA58" s="309"/>
       <c r="AB58" s="93"/>
       <c r="AC58" s="93"/>
       <c r="AD58" s="93"/>
@@ -4788,33 +4787,33 @@
       <c r="AH58" s="87"/>
     </row>
     <row r="59" spans="1:38" s="84" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A59" s="173"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
+      <c r="A59" s="265"/>
+      <c r="B59" s="266"/>
+      <c r="C59" s="266"/>
       <c r="D59" s="138"/>
-      <c r="E59" s="176"/>
-      <c r="F59" s="177"/>
-      <c r="G59" s="177"/>
-      <c r="H59" s="177"/>
-      <c r="I59" s="177"/>
-      <c r="J59" s="177"/>
-      <c r="K59" s="177"/>
-      <c r="L59" s="177"/>
-      <c r="M59" s="178"/>
-      <c r="N59" s="182"/>
-      <c r="O59" s="183"/>
-      <c r="P59" s="183"/>
-      <c r="Q59" s="183"/>
-      <c r="R59" s="184"/>
-      <c r="S59" s="182"/>
-      <c r="T59" s="183"/>
-      <c r="U59" s="183"/>
-      <c r="V59" s="183"/>
-      <c r="W59" s="183"/>
-      <c r="X59" s="183"/>
-      <c r="Y59" s="183"/>
-      <c r="Z59" s="183"/>
-      <c r="AA59" s="184"/>
+      <c r="E59" s="260"/>
+      <c r="F59" s="261"/>
+      <c r="G59" s="261"/>
+      <c r="H59" s="261"/>
+      <c r="I59" s="261"/>
+      <c r="J59" s="261"/>
+      <c r="K59" s="261"/>
+      <c r="L59" s="261"/>
+      <c r="M59" s="306"/>
+      <c r="N59" s="310"/>
+      <c r="O59" s="311"/>
+      <c r="P59" s="311"/>
+      <c r="Q59" s="311"/>
+      <c r="R59" s="312"/>
+      <c r="S59" s="310"/>
+      <c r="T59" s="311"/>
+      <c r="U59" s="311"/>
+      <c r="V59" s="311"/>
+      <c r="W59" s="311"/>
+      <c r="X59" s="311"/>
+      <c r="Y59" s="311"/>
+      <c r="Z59" s="311"/>
+      <c r="AA59" s="312"/>
       <c r="AB59" s="138"/>
       <c r="AC59" s="138"/>
       <c r="AD59" s="139"/>
@@ -4824,121 +4823,121 @@
       <c r="AH59" s="87"/>
     </row>
     <row r="60" spans="1:38" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="186" t="s">
+      <c r="A60" s="273" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="153"/>
-      <c r="C60" s="153"/>
-      <c r="D60" s="187"/>
-      <c r="E60" s="189"/>
-      <c r="F60" s="153"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="187"/>
-      <c r="N60" s="190" t="s">
+      <c r="B60" s="300"/>
+      <c r="C60" s="300"/>
+      <c r="D60" s="314"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="300"/>
+      <c r="G60" s="300"/>
+      <c r="H60" s="300"/>
+      <c r="I60" s="300"/>
+      <c r="J60" s="300"/>
+      <c r="K60" s="300"/>
+      <c r="L60" s="300"/>
+      <c r="M60" s="314"/>
+      <c r="N60" s="317" t="s">
         <v>5</v>
       </c>
-      <c r="O60" s="191"/>
-      <c r="P60" s="191"/>
-      <c r="Q60" s="191"/>
-      <c r="R60" s="192"/>
-      <c r="S60" s="190" t="s">
+      <c r="O60" s="318"/>
+      <c r="P60" s="318"/>
+      <c r="Q60" s="318"/>
+      <c r="R60" s="319"/>
+      <c r="S60" s="317" t="s">
         <v>68</v>
       </c>
-      <c r="T60" s="191"/>
-      <c r="U60" s="191"/>
-      <c r="V60" s="191"/>
-      <c r="W60" s="191"/>
-      <c r="X60" s="191"/>
-      <c r="Y60" s="191"/>
-      <c r="Z60" s="191"/>
-      <c r="AA60" s="192"/>
+      <c r="T60" s="318"/>
+      <c r="U60" s="318"/>
+      <c r="V60" s="318"/>
+      <c r="W60" s="318"/>
+      <c r="X60" s="318"/>
+      <c r="Y60" s="318"/>
+      <c r="Z60" s="318"/>
+      <c r="AA60" s="319"/>
       <c r="AB60" s="143" t="s">
         <v>61</v>
       </c>
       <c r="AC60" s="143"/>
-      <c r="AD60" s="153"/>
-      <c r="AE60" s="153"/>
-      <c r="AF60" s="153"/>
-      <c r="AG60" s="154"/>
+      <c r="AD60" s="300"/>
+      <c r="AE60" s="300"/>
+      <c r="AF60" s="300"/>
+      <c r="AG60" s="301"/>
       <c r="AH60" s="87"/>
     </row>
     <row r="61" spans="1:38" s="84" customFormat="1" ht="9.6" customHeight="1">
-      <c r="A61" s="188"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="176"/>
-      <c r="F61" s="177"/>
-      <c r="G61" s="177"/>
-      <c r="H61" s="177"/>
-      <c r="I61" s="177"/>
-      <c r="J61" s="177"/>
-      <c r="K61" s="177"/>
-      <c r="L61" s="177"/>
-      <c r="M61" s="178"/>
-      <c r="N61" s="182"/>
-      <c r="O61" s="183"/>
-      <c r="P61" s="183"/>
-      <c r="Q61" s="183"/>
-      <c r="R61" s="184"/>
-      <c r="S61" s="182"/>
-      <c r="T61" s="183"/>
-      <c r="U61" s="183"/>
-      <c r="V61" s="183"/>
-      <c r="W61" s="183"/>
-      <c r="X61" s="183"/>
-      <c r="Y61" s="183"/>
-      <c r="Z61" s="183"/>
-      <c r="AA61" s="184"/>
-      <c r="AB61" s="156"/>
-      <c r="AC61" s="156"/>
-      <c r="AD61" s="156"/>
-      <c r="AE61" s="156"/>
-      <c r="AF61" s="156"/>
-      <c r="AG61" s="157"/>
+      <c r="A61" s="315"/>
+      <c r="B61" s="261"/>
+      <c r="C61" s="261"/>
+      <c r="D61" s="306"/>
+      <c r="E61" s="260"/>
+      <c r="F61" s="261"/>
+      <c r="G61" s="261"/>
+      <c r="H61" s="261"/>
+      <c r="I61" s="261"/>
+      <c r="J61" s="261"/>
+      <c r="K61" s="261"/>
+      <c r="L61" s="261"/>
+      <c r="M61" s="306"/>
+      <c r="N61" s="310"/>
+      <c r="O61" s="311"/>
+      <c r="P61" s="311"/>
+      <c r="Q61" s="311"/>
+      <c r="R61" s="312"/>
+      <c r="S61" s="310"/>
+      <c r="T61" s="311"/>
+      <c r="U61" s="311"/>
+      <c r="V61" s="311"/>
+      <c r="W61" s="311"/>
+      <c r="X61" s="311"/>
+      <c r="Y61" s="311"/>
+      <c r="Z61" s="311"/>
+      <c r="AA61" s="312"/>
+      <c r="AB61" s="181"/>
+      <c r="AC61" s="181"/>
+      <c r="AD61" s="181"/>
+      <c r="AE61" s="181"/>
+      <c r="AF61" s="181"/>
+      <c r="AG61" s="217"/>
       <c r="AH61" s="87"/>
     </row>
     <row r="62" spans="1:38" s="84" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A62" s="160" t="s">
+      <c r="A62" s="302" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="161"/>
-      <c r="C62" s="161"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="161"/>
-      <c r="G62" s="161"/>
-      <c r="H62" s="161"/>
-      <c r="I62" s="161"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="161"/>
-      <c r="M62" s="161"/>
-      <c r="N62" s="161"/>
-      <c r="O62" s="161"/>
-      <c r="P62" s="161"/>
-      <c r="Q62" s="161"/>
-      <c r="R62" s="161"/>
-      <c r="S62" s="161"/>
-      <c r="T62" s="161"/>
-      <c r="U62" s="161"/>
-      <c r="V62" s="161"/>
-      <c r="W62" s="161"/>
-      <c r="X62" s="161"/>
-      <c r="Y62" s="161"/>
-      <c r="Z62" s="161"/>
-      <c r="AA62" s="162"/>
-      <c r="AB62" s="158"/>
-      <c r="AC62" s="158"/>
-      <c r="AD62" s="158"/>
-      <c r="AE62" s="158"/>
-      <c r="AF62" s="158"/>
-      <c r="AG62" s="159"/>
+      <c r="B62" s="303"/>
+      <c r="C62" s="303"/>
+      <c r="D62" s="303"/>
+      <c r="E62" s="303"/>
+      <c r="F62" s="303"/>
+      <c r="G62" s="303"/>
+      <c r="H62" s="303"/>
+      <c r="I62" s="303"/>
+      <c r="J62" s="303"/>
+      <c r="K62" s="303"/>
+      <c r="L62" s="303"/>
+      <c r="M62" s="303"/>
+      <c r="N62" s="303"/>
+      <c r="O62" s="303"/>
+      <c r="P62" s="303"/>
+      <c r="Q62" s="303"/>
+      <c r="R62" s="303"/>
+      <c r="S62" s="303"/>
+      <c r="T62" s="303"/>
+      <c r="U62" s="303"/>
+      <c r="V62" s="303"/>
+      <c r="W62" s="303"/>
+      <c r="X62" s="303"/>
+      <c r="Y62" s="303"/>
+      <c r="Z62" s="303"/>
+      <c r="AA62" s="304"/>
+      <c r="AB62" s="180"/>
+      <c r="AC62" s="180"/>
+      <c r="AD62" s="180"/>
+      <c r="AE62" s="180"/>
+      <c r="AF62" s="180"/>
+      <c r="AG62" s="294"/>
       <c r="AH62" s="144"/>
       <c r="AI62" s="85"/>
       <c r="AJ62" s="85"/>
@@ -4948,6 +4947,74 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="84">
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="AB61:AG62"/>
+    <mergeCell ref="A62:AA62"/>
+    <mergeCell ref="E53:R54"/>
+    <mergeCell ref="W53:AG54"/>
+    <mergeCell ref="AE57:AG57"/>
+    <mergeCell ref="A58:C59"/>
+    <mergeCell ref="E58:M59"/>
+    <mergeCell ref="N58:R59"/>
+    <mergeCell ref="S58:AA59"/>
+    <mergeCell ref="A60:D61"/>
+    <mergeCell ref="E60:M61"/>
+    <mergeCell ref="N60:R61"/>
+    <mergeCell ref="S60:AA61"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="E51:R52"/>
+    <mergeCell ref="S51:V52"/>
+    <mergeCell ref="W51:AG52"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="E55:R56"/>
+    <mergeCell ref="S55:V56"/>
+    <mergeCell ref="W55:AG56"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="S53:V54"/>
+    <mergeCell ref="T42:AD42"/>
+    <mergeCell ref="S43:AG48"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A46:R46"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="E49:R50"/>
+    <mergeCell ref="S49:V50"/>
+    <mergeCell ref="W49:AG50"/>
+    <mergeCell ref="B33:AF33"/>
+    <mergeCell ref="B34:AF34"/>
+    <mergeCell ref="L35:X35"/>
+    <mergeCell ref="L36:X36"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="S38:W38"/>
+    <mergeCell ref="X38:AB38"/>
+    <mergeCell ref="AC38:AG38"/>
+    <mergeCell ref="B31:AG31"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="E12:R13"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AB30:AG30"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="A3:AA3"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:P21"/>
     <mergeCell ref="B25:P25"/>
     <mergeCell ref="B26:P26"/>
     <mergeCell ref="B27:P27"/>
@@ -4964,74 +5031,6 @@
     <mergeCell ref="E7:AG7"/>
     <mergeCell ref="B15:P15"/>
     <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="A2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="A3:AA3"/>
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="B31:AG31"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="S11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="E12:R13"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AB30:AG30"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B33:AF33"/>
-    <mergeCell ref="B34:AF34"/>
-    <mergeCell ref="L35:X35"/>
-    <mergeCell ref="L36:X36"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="S38:W38"/>
-    <mergeCell ref="X38:AB38"/>
-    <mergeCell ref="AC38:AG38"/>
-    <mergeCell ref="T42:AD42"/>
-    <mergeCell ref="S43:AG48"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A46:R46"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="E49:R50"/>
-    <mergeCell ref="S49:V50"/>
-    <mergeCell ref="W49:AG50"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="E51:R52"/>
-    <mergeCell ref="S51:V52"/>
-    <mergeCell ref="W51:AG52"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="E55:R56"/>
-    <mergeCell ref="S55:V56"/>
-    <mergeCell ref="W55:AG56"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="S53:V54"/>
-    <mergeCell ref="AD60:AG60"/>
-    <mergeCell ref="B17:P17"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="AB61:AG62"/>
-    <mergeCell ref="A62:AA62"/>
-    <mergeCell ref="E53:R54"/>
-    <mergeCell ref="W53:AG54"/>
-    <mergeCell ref="AE57:AG57"/>
-    <mergeCell ref="A58:C59"/>
-    <mergeCell ref="E58:M59"/>
-    <mergeCell ref="N58:R59"/>
-    <mergeCell ref="S58:AA59"/>
-    <mergeCell ref="A60:D61"/>
-    <mergeCell ref="E60:M61"/>
-    <mergeCell ref="N60:R61"/>
-    <mergeCell ref="S60:AA61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
@@ -5040,7 +5039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
@@ -5067,91 +5066,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="320"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1">
-      <c r="B3" s="326" t="s">
+      <c r="B3" s="322" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="326"/>
-      <c r="N3" s="326"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="18" customHeight="1">
-      <c r="B4" s="326" t="s">
+      <c r="B4" s="322" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="326"/>
-      <c r="I4" s="326"/>
-      <c r="J4" s="326"/>
-      <c r="K4" s="326"/>
-      <c r="L4" s="326"/>
-      <c r="M4" s="326"/>
-      <c r="N4" s="326"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="322"/>
+      <c r="K4" s="322"/>
+      <c r="L4" s="322"/>
+      <c r="M4" s="322"/>
+      <c r="N4" s="322"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="2:15" ht="23.1" customHeight="1">
-      <c r="B5" s="327" t="s">
+      <c r="B5" s="323" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="327"/>
-      <c r="D5" s="327"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="327"/>
-      <c r="G5" s="327"/>
-      <c r="H5" s="327"/>
-      <c r="I5" s="327"/>
-      <c r="J5" s="327"/>
-      <c r="K5" s="327"/>
-      <c r="L5" s="327"/>
-      <c r="M5" s="327"/>
-      <c r="N5" s="327"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="323"/>
+      <c r="G5" s="323"/>
+      <c r="H5" s="323"/>
+      <c r="I5" s="323"/>
+      <c r="J5" s="323"/>
+      <c r="K5" s="323"/>
+      <c r="L5" s="323"/>
+      <c r="M5" s="323"/>
+      <c r="N5" s="323"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B6" s="328" t="s">
+      <c r="B6" s="324" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="328"/>
-      <c r="D6" s="328"/>
-      <c r="E6" s="328"/>
-      <c r="F6" s="328"/>
-      <c r="G6" s="328"/>
-      <c r="H6" s="328"/>
-      <c r="I6" s="328"/>
-      <c r="J6" s="328"/>
-      <c r="K6" s="328"/>
-      <c r="L6" s="328"/>
-      <c r="M6" s="328"/>
-      <c r="N6" s="328"/>
+      <c r="C6" s="324"/>
+      <c r="D6" s="324"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
+      <c r="N6" s="324"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" customHeight="1">
@@ -5163,10 +5162,10 @@
       <c r="G7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="325" t="s">
+      <c r="K7" s="320" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="325"/>
+      <c r="L7" s="320"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="5"/>
@@ -5206,52 +5205,52 @@
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="2:15" ht="4.5" customHeight="1">
-      <c r="B10" s="320"/>
-      <c r="C10" s="320"/>
-      <c r="D10" s="320"/>
-      <c r="E10" s="320"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="320"/>
-      <c r="I10" s="320"/>
-      <c r="J10" s="320"/>
-      <c r="K10" s="320"/>
-      <c r="L10" s="320"/>
-      <c r="M10" s="320"/>
-      <c r="N10" s="320"/>
+      <c r="B10" s="321"/>
+      <c r="C10" s="321"/>
+      <c r="D10" s="321"/>
+      <c r="E10" s="321"/>
+      <c r="F10" s="321"/>
+      <c r="G10" s="321"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="321"/>
+      <c r="J10" s="321"/>
+      <c r="K10" s="321"/>
+      <c r="L10" s="321"/>
+      <c r="M10" s="321"/>
+      <c r="N10" s="321"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="38.25" customHeight="1">
       <c r="B11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="321" t="s">
+      <c r="C11" s="325" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="322"/>
+      <c r="D11" s="326"/>
       <c r="E11" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="323" t="s">
+      <c r="F11" s="327" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="324"/>
-      <c r="H11" s="323" t="s">
+      <c r="G11" s="328"/>
+      <c r="H11" s="327" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="324"/>
-      <c r="J11" s="323" t="s">
+      <c r="I11" s="328"/>
+      <c r="J11" s="327" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="324"/>
-      <c r="L11" s="321" t="s">
+      <c r="K11" s="328"/>
+      <c r="L11" s="325" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="322"/>
-      <c r="N11" s="323" t="s">
+      <c r="M11" s="326"/>
+      <c r="N11" s="327" t="s">
         <v>83</v>
       </c>
-      <c r="O11" s="324"/>
+      <c r="O11" s="328"/>
     </row>
     <row r="12" spans="2:15" ht="23.1" customHeight="1">
       <c r="B12" s="10"/>
@@ -5673,12 +5672,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B6:N6"/>
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:G11"/>
@@ -5686,6 +5679,12 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait"/>
@@ -5694,7 +5693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
@@ -5736,13 +5735,13 @@
       <c r="B3" s="335" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
       <c r="J3" s="336"/>
     </row>
     <row r="4" spans="2:14" s="36" customFormat="1" ht="15.75" customHeight="1">
